--- a/numbers/template.xlsx
+++ b/numbers/template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71A71ED-336F-7F46-BDEF-3CE46596F208}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{9366B508-6E04-794A-9D4F-6F4B71A451D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -810,9 +810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0118D8E1-79B2-4048-B5D0-55D7A95BD895}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -825,6 +823,9 @@
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="B1" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">

--- a/numbers/template.xlsx
+++ b/numbers/template.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{A513E55A-57FB-6B49-9109-B3CC6EA2501C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{5368FEF9-56DE-A444-9520-CBB303A26FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3x3" sheetId="2" r:id="rId1"/>
-    <sheet name="3x3_1" sheetId="10" r:id="rId2"/>
+    <sheet name="3x4" sheetId="12" r:id="rId2"/>
     <sheet name="4x4" sheetId="11" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="259">
   <si>
     <t>T</t>
   </si>
@@ -992,7 +992,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1029,6 +1029,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1047,9 +1074,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1087,7 +1114,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1193,7 +1220,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1335,7 +1362,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1346,7 +1373,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1661,7 +1688,7 @@
         <v>B2</v>
       </c>
       <c r="C11" s="1" t="str">
-        <f t="shared" ref="C11:D11" si="0">C2</f>
+        <f t="shared" ref="C11:J11" si="0">C2</f>
         <v>C2</v>
       </c>
       <c r="D11" s="1" t="str">
@@ -1669,28 +1696,28 @@
         <v>D2</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f>B3</f>
-        <v>B3</v>
+        <f t="shared" si="0"/>
+        <v>E2</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f>C3</f>
-        <v>C3</v>
+        <f t="shared" si="0"/>
+        <v>F2</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f>D3</f>
-        <v>D3</v>
+        <f t="shared" si="0"/>
+        <v>G2</v>
       </c>
       <c r="H11" s="1" t="str">
-        <f>B4</f>
-        <v>B4</v>
+        <f t="shared" si="0"/>
+        <v>H2</v>
       </c>
       <c r="I11" s="1" t="str">
-        <f>C4</f>
-        <v>C4</v>
+        <f t="shared" si="0"/>
+        <v>I2</v>
       </c>
       <c r="J11" s="1" t="str">
-        <f>D4</f>
-        <v>D4</v>
+        <f t="shared" si="0"/>
+        <v>J2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1698,40 +1725,40 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="str">
-        <f>B5</f>
-        <v>B5</v>
+        <f t="shared" ref="B12:J12" si="1">B3</f>
+        <v>B3</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f t="shared" ref="C12:D12" si="1">C5</f>
-        <v>C5</v>
+        <f t="shared" si="1"/>
+        <v>C3</v>
       </c>
       <c r="D12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>D5</v>
+        <v>D3</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f>B6</f>
-        <v>B6</v>
+        <f t="shared" si="1"/>
+        <v>E3</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f>C6</f>
-        <v>C6</v>
+        <f t="shared" si="1"/>
+        <v>F3</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f>D6</f>
-        <v>D6</v>
+        <f t="shared" si="1"/>
+        <v>G3</v>
       </c>
       <c r="H12" s="1" t="str">
-        <f>B7</f>
-        <v>B7</v>
+        <f t="shared" si="1"/>
+        <v>H3</v>
       </c>
       <c r="I12" s="1" t="str">
-        <f>C7</f>
-        <v>C7</v>
+        <f t="shared" si="1"/>
+        <v>I3</v>
       </c>
       <c r="J12" s="1" t="str">
-        <f>D7</f>
-        <v>D7</v>
+        <f t="shared" si="1"/>
+        <v>J3</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1739,40 +1766,40 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="str">
-        <f>B8</f>
-        <v>B8</v>
+        <f t="shared" ref="B13:J13" si="2">B4</f>
+        <v>B4</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f t="shared" ref="C13:D13" si="2">C8</f>
-        <v>C8</v>
+        <f t="shared" si="2"/>
+        <v>C4</v>
       </c>
       <c r="D13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>D8</v>
+        <v>D4</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f>B9</f>
-        <v>B9</v>
+        <f t="shared" si="2"/>
+        <v>E4</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f>C9</f>
-        <v>C9</v>
+        <f t="shared" si="2"/>
+        <v>F4</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f>D9</f>
-        <v>D9</v>
+        <f t="shared" si="2"/>
+        <v>G4</v>
       </c>
       <c r="H13" s="1" t="str">
-        <f>B10</f>
-        <v>B10</v>
+        <f t="shared" si="2"/>
+        <v>H4</v>
       </c>
       <c r="I13" s="1" t="str">
-        <f>C10</f>
-        <v>C10</v>
+        <f t="shared" si="2"/>
+        <v>I4</v>
       </c>
       <c r="J13" s="1" t="str">
-        <f>D10</f>
-        <v>D10</v>
+        <f t="shared" si="2"/>
+        <v>J4</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1780,40 +1807,40 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="str">
-        <f>E2</f>
-        <v>E2</v>
+        <f t="shared" ref="B14:J14" si="3">B5</f>
+        <v>B5</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f>F2</f>
-        <v>F2</v>
+        <f t="shared" si="3"/>
+        <v>C5</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f>G2</f>
-        <v>G2</v>
+        <f t="shared" si="3"/>
+        <v>D5</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f>E3</f>
-        <v>E3</v>
+        <f t="shared" si="3"/>
+        <v>E5</v>
       </c>
       <c r="F14" s="1" t="str">
-        <f>F3</f>
-        <v>F3</v>
+        <f t="shared" si="3"/>
+        <v>F5</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f>G3</f>
-        <v>G3</v>
+        <f t="shared" si="3"/>
+        <v>G5</v>
       </c>
       <c r="H14" s="1" t="str">
-        <f>E4</f>
-        <v>E4</v>
+        <f t="shared" si="3"/>
+        <v>H5</v>
       </c>
       <c r="I14" s="1" t="str">
-        <f>F4</f>
-        <v>F4</v>
+        <f t="shared" si="3"/>
+        <v>I5</v>
       </c>
       <c r="J14" s="1" t="str">
-        <f>G4</f>
-        <v>G4</v>
+        <f t="shared" si="3"/>
+        <v>J5</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1821,40 +1848,40 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="str">
-        <f>E5</f>
-        <v>E5</v>
+        <f t="shared" ref="B15:J15" si="4">B6</f>
+        <v>B6</v>
       </c>
       <c r="C15" s="1" t="str">
-        <f>F5</f>
-        <v>F5</v>
+        <f t="shared" si="4"/>
+        <v>C6</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f>G5</f>
-        <v>G5</v>
+        <f t="shared" si="4"/>
+        <v>D6</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f>E6</f>
+        <f t="shared" si="4"/>
         <v>E6</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f>F6</f>
+        <f t="shared" si="4"/>
         <v>F6</v>
       </c>
       <c r="G15" s="1" t="str">
-        <f>G6</f>
+        <f t="shared" si="4"/>
         <v>G6</v>
       </c>
       <c r="H15" s="1" t="str">
-        <f>E7</f>
-        <v>E7</v>
+        <f t="shared" si="4"/>
+        <v>H6</v>
       </c>
       <c r="I15" s="1" t="str">
-        <f>F7</f>
-        <v>F7</v>
+        <f t="shared" si="4"/>
+        <v>I6</v>
       </c>
       <c r="J15" s="1" t="str">
-        <f>G7</f>
-        <v>G7</v>
+        <f t="shared" si="4"/>
+        <v>J6</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1862,40 +1889,40 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="str">
-        <f>E8</f>
-        <v>E8</v>
+        <f t="shared" ref="B16:J16" si="5">B7</f>
+        <v>B7</v>
       </c>
       <c r="C16" s="1" t="str">
-        <f>F8</f>
-        <v>F8</v>
+        <f t="shared" si="5"/>
+        <v>C7</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f>G8</f>
-        <v>G8</v>
+        <f t="shared" si="5"/>
+        <v>D7</v>
       </c>
       <c r="E16" s="1" t="str">
-        <f>E9</f>
-        <v>E9</v>
+        <f t="shared" si="5"/>
+        <v>E7</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f>F9</f>
-        <v>F9</v>
+        <f t="shared" si="5"/>
+        <v>F7</v>
       </c>
       <c r="G16" s="1" t="str">
-        <f>G9</f>
-        <v>G9</v>
+        <f t="shared" si="5"/>
+        <v>G7</v>
       </c>
       <c r="H16" s="1" t="str">
-        <f>E10</f>
-        <v>E10</v>
+        <f t="shared" si="5"/>
+        <v>H7</v>
       </c>
       <c r="I16" s="1" t="str">
-        <f>F10</f>
-        <v>F10</v>
+        <f t="shared" si="5"/>
+        <v>I7</v>
       </c>
       <c r="J16" s="1" t="str">
-        <f>G10</f>
-        <v>G10</v>
+        <f t="shared" si="5"/>
+        <v>J7</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1903,40 +1930,40 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="str">
-        <f>H2</f>
-        <v>H2</v>
+        <f t="shared" ref="B17:J17" si="6">B8</f>
+        <v>B8</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f>I2</f>
-        <v>I2</v>
+        <f t="shared" si="6"/>
+        <v>C8</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f>J2</f>
-        <v>J2</v>
+        <f t="shared" si="6"/>
+        <v>D8</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f>H3</f>
-        <v>H3</v>
+        <f t="shared" si="6"/>
+        <v>E8</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f>I3</f>
-        <v>I3</v>
+        <f t="shared" si="6"/>
+        <v>F8</v>
       </c>
       <c r="G17" s="1" t="str">
-        <f>J3</f>
-        <v>J3</v>
+        <f t="shared" si="6"/>
+        <v>G8</v>
       </c>
       <c r="H17" s="1" t="str">
-        <f>H4</f>
-        <v>H4</v>
+        <f t="shared" si="6"/>
+        <v>H8</v>
       </c>
       <c r="I17" s="1" t="str">
-        <f>I4</f>
-        <v>I4</v>
+        <f t="shared" si="6"/>
+        <v>I8</v>
       </c>
       <c r="J17" s="1" t="str">
-        <f>J4</f>
-        <v>J4</v>
+        <f t="shared" si="6"/>
+        <v>J8</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1944,40 +1971,40 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="str">
-        <f>H5</f>
-        <v>H5</v>
+        <f t="shared" ref="B18:J18" si="7">B9</f>
+        <v>B9</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f>I5</f>
-        <v>I5</v>
+        <f t="shared" si="7"/>
+        <v>C9</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f>J5</f>
-        <v>J5</v>
+        <f t="shared" si="7"/>
+        <v>D9</v>
       </c>
       <c r="E18" s="1" t="str">
-        <f>H6</f>
-        <v>H6</v>
+        <f t="shared" si="7"/>
+        <v>E9</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f>I6</f>
-        <v>I6</v>
+        <f t="shared" si="7"/>
+        <v>F9</v>
       </c>
       <c r="G18" s="1" t="str">
-        <f>J6</f>
-        <v>J6</v>
+        <f t="shared" si="7"/>
+        <v>G9</v>
       </c>
       <c r="H18" s="1" t="str">
-        <f>H7</f>
-        <v>H7</v>
+        <f t="shared" si="7"/>
+        <v>H9</v>
       </c>
       <c r="I18" s="1" t="str">
-        <f>I7</f>
-        <v>I7</v>
+        <f t="shared" si="7"/>
+        <v>I9</v>
       </c>
       <c r="J18" s="1" t="str">
-        <f>J7</f>
-        <v>J7</v>
+        <f t="shared" si="7"/>
+        <v>J9</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1985,39 +2012,39 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="str">
-        <f>H8</f>
-        <v>H8</v>
+        <f t="shared" ref="B19:J19" si="8">B10</f>
+        <v>B10</v>
       </c>
       <c r="C19" s="1" t="str">
-        <f>I8</f>
-        <v>I8</v>
+        <f t="shared" si="8"/>
+        <v>C10</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f>J8</f>
-        <v>J8</v>
+        <f t="shared" si="8"/>
+        <v>D10</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f>H9</f>
-        <v>H9</v>
+        <f t="shared" si="8"/>
+        <v>E10</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f>I9</f>
-        <v>I9</v>
+        <f t="shared" si="8"/>
+        <v>F10</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f>J9</f>
-        <v>J9</v>
+        <f t="shared" si="8"/>
+        <v>G10</v>
       </c>
       <c r="H19" s="1" t="str">
-        <f>H10</f>
+        <f t="shared" si="8"/>
         <v>H10</v>
       </c>
       <c r="I19" s="1" t="str">
-        <f>I10</f>
+        <f t="shared" si="8"/>
         <v>I10</v>
       </c>
       <c r="J19" s="1" t="str">
-        <f>J10</f>
+        <f t="shared" si="8"/>
         <v>J10</v>
       </c>
     </row>
@@ -2030,36 +2057,36 @@
         <v>B2</v>
       </c>
       <c r="C20" s="1" t="str">
-        <f t="shared" ref="C20:J20" si="3">C2</f>
-        <v>C2</v>
+        <f>B3</f>
+        <v>B3</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>D2</v>
+        <f>B4</f>
+        <v>B4</v>
       </c>
       <c r="E20" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>E2</v>
+        <f>B5</f>
+        <v>B5</v>
       </c>
       <c r="F20" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>F2</v>
+        <f>B6</f>
+        <v>B6</v>
       </c>
       <c r="G20" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>G2</v>
+        <f>B7</f>
+        <v>B7</v>
       </c>
       <c r="H20" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>H2</v>
+        <f>B8</f>
+        <v>B8</v>
       </c>
       <c r="I20" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>I2</v>
+        <f>B9</f>
+        <v>B9</v>
       </c>
       <c r="J20" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>J2</v>
+        <f>B10</f>
+        <v>B10</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -2067,40 +2094,40 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="str">
-        <f t="shared" ref="B21:J21" si="4">B3</f>
-        <v>B3</v>
+        <f>C2</f>
+        <v>C2</v>
       </c>
       <c r="C21" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>C3</f>
         <v>C3</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>D3</v>
+        <f>C4</f>
+        <v>C4</v>
       </c>
       <c r="E21" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>E3</v>
+        <f>C5</f>
+        <v>C5</v>
       </c>
       <c r="F21" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>F3</v>
+        <f>C6</f>
+        <v>C6</v>
       </c>
       <c r="G21" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>G3</v>
+        <f>C7</f>
+        <v>C7</v>
       </c>
       <c r="H21" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>H3</v>
+        <f>C8</f>
+        <v>C8</v>
       </c>
       <c r="I21" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>I3</v>
+        <f>C9</f>
+        <v>C9</v>
       </c>
       <c r="J21" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>J3</v>
+        <f>C10</f>
+        <v>C10</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -2108,40 +2135,40 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="str">
-        <f t="shared" ref="B22:J22" si="5">B4</f>
-        <v>B4</v>
+        <f>D2</f>
+        <v>D2</v>
       </c>
       <c r="C22" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>C4</v>
+        <f>D3</f>
+        <v>D3</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>D4</f>
         <v>D4</v>
       </c>
       <c r="E22" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>E4</v>
+        <f>D5</f>
+        <v>D5</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>F4</v>
+        <f>D6</f>
+        <v>D6</v>
       </c>
       <c r="G22" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>G4</v>
+        <f>D7</f>
+        <v>D7</v>
       </c>
       <c r="H22" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>H4</v>
+        <f>D8</f>
+        <v>D8</v>
       </c>
       <c r="I22" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>I4</v>
+        <f>D9</f>
+        <v>D9</v>
       </c>
       <c r="J22" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>J4</v>
+        <f>D10</f>
+        <v>D10</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -2149,40 +2176,40 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="str">
-        <f t="shared" ref="B23:J23" si="6">B5</f>
-        <v>B5</v>
+        <f>E2</f>
+        <v>E2</v>
       </c>
       <c r="C23" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>C5</v>
+        <f>E3</f>
+        <v>E3</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>D5</v>
+        <f>E4</f>
+        <v>E4</v>
       </c>
       <c r="E23" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>E5</f>
         <v>E5</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>F5</v>
+        <f>E6</f>
+        <v>E6</v>
       </c>
       <c r="G23" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>G5</v>
+        <f>E7</f>
+        <v>E7</v>
       </c>
       <c r="H23" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>H5</v>
+        <f>E8</f>
+        <v>E8</v>
       </c>
       <c r="I23" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>I5</v>
+        <f>E9</f>
+        <v>E9</v>
       </c>
       <c r="J23" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>J5</v>
+        <f>E10</f>
+        <v>E10</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -2190,40 +2217,40 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="str">
-        <f t="shared" ref="B24:J24" si="7">B6</f>
-        <v>B6</v>
+        <f>F2</f>
+        <v>F2</v>
       </c>
       <c r="C24" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>C6</v>
+        <f>F3</f>
+        <v>F3</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>D6</v>
+        <f>F4</f>
+        <v>F4</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>E6</v>
+        <f>F5</f>
+        <v>F5</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>F6</f>
         <v>F6</v>
       </c>
       <c r="G24" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>G6</v>
+        <f>F7</f>
+        <v>F7</v>
       </c>
       <c r="H24" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>H6</v>
+        <f>F8</f>
+        <v>F8</v>
       </c>
       <c r="I24" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>I6</v>
+        <f>F9</f>
+        <v>F9</v>
       </c>
       <c r="J24" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>J6</v>
+        <f>F10</f>
+        <v>F10</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -2231,40 +2258,40 @@
         <v>1</v>
       </c>
       <c r="B25" s="1" t="str">
-        <f t="shared" ref="B25:J25" si="8">B7</f>
-        <v>B7</v>
+        <f>G2</f>
+        <v>G2</v>
       </c>
       <c r="C25" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>C7</v>
+        <f>G3</f>
+        <v>G3</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>D7</v>
+        <f>G4</f>
+        <v>G4</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>E7</v>
+        <f>G5</f>
+        <v>G5</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>F7</v>
+        <f>G6</f>
+        <v>G6</v>
       </c>
       <c r="G25" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>G7</f>
         <v>G7</v>
       </c>
       <c r="H25" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>H7</v>
+        <f>G8</f>
+        <v>G8</v>
       </c>
       <c r="I25" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>I7</v>
+        <f>G9</f>
+        <v>G9</v>
       </c>
       <c r="J25" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>J7</v>
+        <f>G10</f>
+        <v>G10</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -2272,40 +2299,40 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="str">
-        <f t="shared" ref="B26:J26" si="9">B8</f>
-        <v>B8</v>
+        <f>H2</f>
+        <v>H2</v>
       </c>
       <c r="C26" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>C8</v>
+        <f>H3</f>
+        <v>H3</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>D8</v>
+        <f>H4</f>
+        <v>H4</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>E8</v>
+        <f>H5</f>
+        <v>H5</v>
       </c>
       <c r="F26" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>F8</v>
+        <f>H6</f>
+        <v>H6</v>
       </c>
       <c r="G26" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>G8</v>
+        <f>H7</f>
+        <v>H7</v>
       </c>
       <c r="H26" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>H8</f>
         <v>H8</v>
       </c>
       <c r="I26" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>I8</v>
+        <f>H9</f>
+        <v>H9</v>
       </c>
       <c r="J26" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>J8</v>
+        <f>H10</f>
+        <v>H10</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -2313,40 +2340,40 @@
         <v>1</v>
       </c>
       <c r="B27" s="1" t="str">
-        <f t="shared" ref="B27:J27" si="10">B9</f>
-        <v>B9</v>
+        <f>I2</f>
+        <v>I2</v>
       </c>
       <c r="C27" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>C9</v>
+        <f>I3</f>
+        <v>I3</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>D9</v>
+        <f>I4</f>
+        <v>I4</v>
       </c>
       <c r="E27" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>E9</v>
+        <f>I5</f>
+        <v>I5</v>
       </c>
       <c r="F27" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>F9</v>
+        <f>I6</f>
+        <v>I6</v>
       </c>
       <c r="G27" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>G9</v>
+        <f>I7</f>
+        <v>I7</v>
       </c>
       <c r="H27" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>H9</v>
+        <f>I8</f>
+        <v>I8</v>
       </c>
       <c r="I27" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>I9</f>
         <v>I9</v>
       </c>
       <c r="J27" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>J9</v>
+        <f>I10</f>
+        <v>I10</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -2354,39 +2381,39 @@
         <v>1</v>
       </c>
       <c r="B28" s="1" t="str">
-        <f t="shared" ref="B28:J28" si="11">B10</f>
-        <v>B10</v>
+        <f>J2</f>
+        <v>J2</v>
       </c>
       <c r="C28" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>C10</v>
+        <f>J3</f>
+        <v>J3</v>
       </c>
       <c r="D28" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>D10</v>
+        <f>J4</f>
+        <v>J4</v>
       </c>
       <c r="E28" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>E10</v>
+        <f>J5</f>
+        <v>J5</v>
       </c>
       <c r="F28" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>F10</v>
+        <f>J6</f>
+        <v>J6</v>
       </c>
       <c r="G28" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>G10</v>
+        <f>J7</f>
+        <v>J7</v>
       </c>
       <c r="H28" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>H10</v>
+        <f>J8</f>
+        <v>J8</v>
       </c>
       <c r="I28" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>I10</v>
+        <f>J9</f>
+        <v>J9</v>
       </c>
       <c r="J28" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f>J10</f>
         <v>J10</v>
       </c>
     </row>
@@ -2399,114 +2426,114 @@
         <v>B2</v>
       </c>
       <c r="C29" s="1" t="str">
+        <f>C2</f>
+        <v>C2</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f>D2</f>
+        <v>D2</v>
+      </c>
+      <c r="E29" s="1" t="str">
         <f>B3</f>
         <v>B3</v>
       </c>
-      <c r="D29" s="1" t="str">
+      <c r="F29" s="1" t="str">
+        <f>C3</f>
+        <v>C3</v>
+      </c>
+      <c r="G29" s="1" t="str">
+        <f>D3</f>
+        <v>D3</v>
+      </c>
+      <c r="H29" s="1" t="str">
         <f>B4</f>
         <v>B4</v>
       </c>
-      <c r="E29" s="1" t="str">
+      <c r="I29" s="1" t="str">
+        <f>C4</f>
+        <v>C4</v>
+      </c>
+      <c r="J29" s="1" t="str">
+        <f>D4</f>
+        <v>D4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="str">
         <f>B5</f>
         <v>B5</v>
       </c>
-      <c r="F29" s="1" t="str">
+      <c r="C30" s="1" t="str">
+        <f>C5</f>
+        <v>C5</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f>D5</f>
+        <v>D5</v>
+      </c>
+      <c r="E30" s="1" t="str">
         <f>B6</f>
         <v>B6</v>
-      </c>
-      <c r="G29" s="1" t="str">
-        <f>B7</f>
-        <v>B7</v>
-      </c>
-      <c r="H29" s="1" t="str">
-        <f>B8</f>
-        <v>B8</v>
-      </c>
-      <c r="I29" s="1" t="str">
-        <f>B9</f>
-        <v>B9</v>
-      </c>
-      <c r="J29" s="1" t="str">
-        <f>B10</f>
-        <v>B10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="1" t="str">
-        <f>C2</f>
-        <v>C2</v>
-      </c>
-      <c r="C30" s="1" t="str">
-        <f>C3</f>
-        <v>C3</v>
-      </c>
-      <c r="D30" s="1" t="str">
-        <f>C4</f>
-        <v>C4</v>
-      </c>
-      <c r="E30" s="1" t="str">
-        <f>C5</f>
-        <v>C5</v>
       </c>
       <c r="F30" s="1" t="str">
         <f>C6</f>
         <v>C6</v>
       </c>
       <c r="G30" s="1" t="str">
+        <f>D6</f>
+        <v>D6</v>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f>B7</f>
+        <v>B7</v>
+      </c>
+      <c r="I30" s="1" t="str">
         <f>C7</f>
         <v>C7</v>
       </c>
-      <c r="H30" s="1" t="str">
+      <c r="J30" s="1" t="str">
+        <f>D7</f>
+        <v>D7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <f>B8</f>
+        <v>B8</v>
+      </c>
+      <c r="C31" s="1" t="str">
         <f>C8</f>
         <v>C8</v>
       </c>
-      <c r="I30" s="1" t="str">
+      <c r="D31" s="1" t="str">
+        <f>D8</f>
+        <v>D8</v>
+      </c>
+      <c r="E31" s="1" t="str">
+        <f>B9</f>
+        <v>B9</v>
+      </c>
+      <c r="F31" s="1" t="str">
         <f>C9</f>
         <v>C9</v>
       </c>
-      <c r="J30" s="1" t="str">
+      <c r="G31" s="1" t="str">
+        <f>D9</f>
+        <v>D9</v>
+      </c>
+      <c r="H31" s="1" t="str">
+        <f>B10</f>
+        <v>B10</v>
+      </c>
+      <c r="I31" s="1" t="str">
         <f>C10</f>
         <v>C10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="1" t="str">
-        <f>D2</f>
-        <v>D2</v>
-      </c>
-      <c r="C31" s="1" t="str">
-        <f>D3</f>
-        <v>D3</v>
-      </c>
-      <c r="D31" s="1" t="str">
-        <f>D4</f>
-        <v>D4</v>
-      </c>
-      <c r="E31" s="1" t="str">
-        <f>D5</f>
-        <v>D5</v>
-      </c>
-      <c r="F31" s="1" t="str">
-        <f>D6</f>
-        <v>D6</v>
-      </c>
-      <c r="G31" s="1" t="str">
-        <f>D7</f>
-        <v>D7</v>
-      </c>
-      <c r="H31" s="1" t="str">
-        <f>D8</f>
-        <v>D8</v>
-      </c>
-      <c r="I31" s="1" t="str">
-        <f>D9</f>
-        <v>D9</v>
       </c>
       <c r="J31" s="1" t="str">
         <f>D10</f>
@@ -2522,114 +2549,114 @@
         <v>E2</v>
       </c>
       <c r="C32" s="1" t="str">
+        <f>F2</f>
+        <v>F2</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f>G2</f>
+        <v>G2</v>
+      </c>
+      <c r="E32" s="1" t="str">
         <f>E3</f>
         <v>E3</v>
       </c>
-      <c r="D32" s="1" t="str">
+      <c r="F32" s="1" t="str">
+        <f>F3</f>
+        <v>F3</v>
+      </c>
+      <c r="G32" s="1" t="str">
+        <f>G3</f>
+        <v>G3</v>
+      </c>
+      <c r="H32" s="1" t="str">
         <f>E4</f>
         <v>E4</v>
       </c>
-      <c r="E32" s="1" t="str">
+      <c r="I32" s="1" t="str">
+        <f>F4</f>
+        <v>F4</v>
+      </c>
+      <c r="J32" s="1" t="str">
+        <f>G4</f>
+        <v>G4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="str">
         <f>E5</f>
         <v>E5</v>
       </c>
-      <c r="F32" s="1" t="str">
+      <c r="C33" s="1" t="str">
+        <f>F5</f>
+        <v>F5</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f>G5</f>
+        <v>G5</v>
+      </c>
+      <c r="E33" s="1" t="str">
         <f>E6</f>
         <v>E6</v>
-      </c>
-      <c r="G32" s="1" t="str">
-        <f>E7</f>
-        <v>E7</v>
-      </c>
-      <c r="H32" s="1" t="str">
-        <f>E8</f>
-        <v>E8</v>
-      </c>
-      <c r="I32" s="1" t="str">
-        <f>E9</f>
-        <v>E9</v>
-      </c>
-      <c r="J32" s="1" t="str">
-        <f>E10</f>
-        <v>E10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="1" t="str">
-        <f>F2</f>
-        <v>F2</v>
-      </c>
-      <c r="C33" s="1" t="str">
-        <f>F3</f>
-        <v>F3</v>
-      </c>
-      <c r="D33" s="1" t="str">
-        <f>F4</f>
-        <v>F4</v>
-      </c>
-      <c r="E33" s="1" t="str">
-        <f>F5</f>
-        <v>F5</v>
       </c>
       <c r="F33" s="1" t="str">
         <f>F6</f>
         <v>F6</v>
       </c>
       <c r="G33" s="1" t="str">
+        <f>G6</f>
+        <v>G6</v>
+      </c>
+      <c r="H33" s="1" t="str">
+        <f>E7</f>
+        <v>E7</v>
+      </c>
+      <c r="I33" s="1" t="str">
         <f>F7</f>
         <v>F7</v>
       </c>
-      <c r="H33" s="1" t="str">
+      <c r="J33" s="1" t="str">
+        <f>G7</f>
+        <v>G7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1" t="str">
+        <f>E8</f>
+        <v>E8</v>
+      </c>
+      <c r="C34" s="1" t="str">
         <f>F8</f>
         <v>F8</v>
       </c>
-      <c r="I33" s="1" t="str">
+      <c r="D34" s="1" t="str">
+        <f>G8</f>
+        <v>G8</v>
+      </c>
+      <c r="E34" s="1" t="str">
+        <f>E9</f>
+        <v>E9</v>
+      </c>
+      <c r="F34" s="1" t="str">
         <f>F9</f>
         <v>F9</v>
       </c>
-      <c r="J33" s="1" t="str">
+      <c r="G34" s="1" t="str">
+        <f>G9</f>
+        <v>G9</v>
+      </c>
+      <c r="H34" s="1" t="str">
+        <f>E10</f>
+        <v>E10</v>
+      </c>
+      <c r="I34" s="1" t="str">
         <f>F10</f>
         <v>F10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="1" t="str">
-        <f>G2</f>
-        <v>G2</v>
-      </c>
-      <c r="C34" s="1" t="str">
-        <f>G3</f>
-        <v>G3</v>
-      </c>
-      <c r="D34" s="1" t="str">
-        <f>G4</f>
-        <v>G4</v>
-      </c>
-      <c r="E34" s="1" t="str">
-        <f>G5</f>
-        <v>G5</v>
-      </c>
-      <c r="F34" s="1" t="str">
-        <f>G6</f>
-        <v>G6</v>
-      </c>
-      <c r="G34" s="1" t="str">
-        <f>G7</f>
-        <v>G7</v>
-      </c>
-      <c r="H34" s="1" t="str">
-        <f>G8</f>
-        <v>G8</v>
-      </c>
-      <c r="I34" s="1" t="str">
-        <f>G9</f>
-        <v>G9</v>
       </c>
       <c r="J34" s="1" t="str">
         <f>G10</f>
@@ -2645,114 +2672,114 @@
         <v>H2</v>
       </c>
       <c r="C35" s="1" t="str">
+        <f>I2</f>
+        <v>I2</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <f>J2</f>
+        <v>J2</v>
+      </c>
+      <c r="E35" s="1" t="str">
         <f>H3</f>
         <v>H3</v>
       </c>
-      <c r="D35" s="1" t="str">
+      <c r="F35" s="1" t="str">
+        <f>I3</f>
+        <v>I3</v>
+      </c>
+      <c r="G35" s="1" t="str">
+        <f>J3</f>
+        <v>J3</v>
+      </c>
+      <c r="H35" s="1" t="str">
         <f>H4</f>
         <v>H4</v>
       </c>
-      <c r="E35" s="1" t="str">
+      <c r="I35" s="1" t="str">
+        <f>I4</f>
+        <v>I4</v>
+      </c>
+      <c r="J35" s="1" t="str">
+        <f>J4</f>
+        <v>J4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="str">
         <f>H5</f>
         <v>H5</v>
       </c>
-      <c r="F35" s="1" t="str">
+      <c r="C36" s="1" t="str">
+        <f>I5</f>
+        <v>I5</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <f>J5</f>
+        <v>J5</v>
+      </c>
+      <c r="E36" s="1" t="str">
         <f>H6</f>
         <v>H6</v>
-      </c>
-      <c r="G35" s="1" t="str">
-        <f>H7</f>
-        <v>H7</v>
-      </c>
-      <c r="H35" s="1" t="str">
-        <f>H8</f>
-        <v>H8</v>
-      </c>
-      <c r="I35" s="1" t="str">
-        <f>H9</f>
-        <v>H9</v>
-      </c>
-      <c r="J35" s="1" t="str">
-        <f>H10</f>
-        <v>H10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="1" t="str">
-        <f>I2</f>
-        <v>I2</v>
-      </c>
-      <c r="C36" s="1" t="str">
-        <f>I3</f>
-        <v>I3</v>
-      </c>
-      <c r="D36" s="1" t="str">
-        <f>I4</f>
-        <v>I4</v>
-      </c>
-      <c r="E36" s="1" t="str">
-        <f>I5</f>
-        <v>I5</v>
       </c>
       <c r="F36" s="1" t="str">
         <f>I6</f>
         <v>I6</v>
       </c>
       <c r="G36" s="1" t="str">
+        <f>J6</f>
+        <v>J6</v>
+      </c>
+      <c r="H36" s="1" t="str">
+        <f>H7</f>
+        <v>H7</v>
+      </c>
+      <c r="I36" s="1" t="str">
         <f>I7</f>
         <v>I7</v>
       </c>
-      <c r="H36" s="1" t="str">
+      <c r="J36" s="1" t="str">
+        <f>J7</f>
+        <v>J7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="str">
+        <f>H8</f>
+        <v>H8</v>
+      </c>
+      <c r="C37" s="1" t="str">
         <f>I8</f>
         <v>I8</v>
       </c>
-      <c r="I36" s="1" t="str">
+      <c r="D37" s="1" t="str">
+        <f>J8</f>
+        <v>J8</v>
+      </c>
+      <c r="E37" s="1" t="str">
+        <f>H9</f>
+        <v>H9</v>
+      </c>
+      <c r="F37" s="1" t="str">
         <f>I9</f>
         <v>I9</v>
       </c>
-      <c r="J36" s="1" t="str">
+      <c r="G37" s="1" t="str">
+        <f>J9</f>
+        <v>J9</v>
+      </c>
+      <c r="H37" s="1" t="str">
+        <f>H10</f>
+        <v>H10</v>
+      </c>
+      <c r="I37" s="1" t="str">
         <f>I10</f>
         <v>I10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="1" t="str">
-        <f>J2</f>
-        <v>J2</v>
-      </c>
-      <c r="C37" s="1" t="str">
-        <f>J3</f>
-        <v>J3</v>
-      </c>
-      <c r="D37" s="1" t="str">
-        <f>J4</f>
-        <v>J4</v>
-      </c>
-      <c r="E37" s="1" t="str">
-        <f>J5</f>
-        <v>J5</v>
-      </c>
-      <c r="F37" s="1" t="str">
-        <f>J6</f>
-        <v>J6</v>
-      </c>
-      <c r="G37" s="1" t="str">
-        <f>J7</f>
-        <v>J7</v>
-      </c>
-      <c r="H37" s="1" t="str">
-        <f>J8</f>
-        <v>J8</v>
-      </c>
-      <c r="I37" s="1" t="str">
-        <f>J9</f>
-        <v>J9</v>
       </c>
       <c r="J37" s="1" t="str">
         <f>J10</f>
@@ -2766,1462 +2793,2267 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B4AEB2-51F4-604B-90AF-09E110D1883F}">
-  <dimension ref="A1:J38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F735F4-EEBF-2E48-8A18-F13F826D99ED}">
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.18359375" style="1" customWidth="1"/>
-    <col min="2" max="10" width="4.04296875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.82421875" style="1"/>
+    <col min="2" max="13" width="4.04296875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.82421875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>258</v>
       </c>
       <c r="B1" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="16" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="18" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="16" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="18" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="str">
         <f>B2</f>
         <v>B2</v>
       </c>
-      <c r="C11" s="1" t="str">
-        <f t="shared" ref="C11:D11" si="0">C2</f>
+      <c r="C14" s="1" t="str">
+        <f t="shared" ref="C14:M14" si="0">C2</f>
         <v>C2</v>
       </c>
-      <c r="D11" s="1" t="str">
+      <c r="D14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>D2</v>
       </c>
-      <c r="E11" s="1" t="str">
+      <c r="E14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>E2</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>F2</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>G2</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>H2</v>
+      </c>
+      <c r="I14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>I2</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>J2</v>
+      </c>
+      <c r="K14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>K2</v>
+      </c>
+      <c r="L14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>L2</v>
+      </c>
+      <c r="M14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>M2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <f t="shared" ref="B15:M15" si="1">B3</f>
+        <v>B3</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>C3</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>D3</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>E3</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F3</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>G3</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>H3</v>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>I3</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>J3</v>
+      </c>
+      <c r="K15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>K3</v>
+      </c>
+      <c r="L15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>L3</v>
+      </c>
+      <c r="M15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>M3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <f t="shared" ref="B16:M16" si="2">B4</f>
+        <v>B4</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>C4</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>D4</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>E4</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>F4</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>G4</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>H4</v>
+      </c>
+      <c r="I16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>I4</v>
+      </c>
+      <c r="J16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>J4</v>
+      </c>
+      <c r="K16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>K4</v>
+      </c>
+      <c r="L16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>L4</v>
+      </c>
+      <c r="M16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>M4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <f t="shared" ref="B17:M17" si="3">B5</f>
+        <v>B5</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>C5</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>D5</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>E5</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>F5</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>G5</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>H5</v>
+      </c>
+      <c r="I17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>I5</v>
+      </c>
+      <c r="J17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>J5</v>
+      </c>
+      <c r="K17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>K5</v>
+      </c>
+      <c r="L17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>L5</v>
+      </c>
+      <c r="M17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>M5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <f t="shared" ref="B18:M18" si="4">B6</f>
+        <v>B6</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>C6</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>D6</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>E6</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>F6</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>G6</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>H6</v>
+      </c>
+      <c r="I18" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>I6</v>
+      </c>
+      <c r="J18" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>J6</v>
+      </c>
+      <c r="K18" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>K6</v>
+      </c>
+      <c r="L18" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>L6</v>
+      </c>
+      <c r="M18" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>M6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f t="shared" ref="B19:M19" si="5">B7</f>
+        <v>B7</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>C7</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>D7</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>E7</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>F7</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>G7</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>H7</v>
+      </c>
+      <c r="I19" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>I7</v>
+      </c>
+      <c r="J19" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>J7</v>
+      </c>
+      <c r="K19" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>K7</v>
+      </c>
+      <c r="L19" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>L7</v>
+      </c>
+      <c r="M19" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>M7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <f t="shared" ref="B20:M20" si="6">B8</f>
+        <v>B8</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>C8</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>D8</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>E8</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>F8</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>G8</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>H8</v>
+      </c>
+      <c r="I20" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>I8</v>
+      </c>
+      <c r="J20" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>J8</v>
+      </c>
+      <c r="K20" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>K8</v>
+      </c>
+      <c r="L20" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>L8</v>
+      </c>
+      <c r="M20" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>M8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <f t="shared" ref="B21:M21" si="7">B9</f>
+        <v>B9</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>C9</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>D9</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>E9</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>F9</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>G9</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>H9</v>
+      </c>
+      <c r="I21" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>I9</v>
+      </c>
+      <c r="J21" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>J9</v>
+      </c>
+      <c r="K21" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>K9</v>
+      </c>
+      <c r="L21" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>L9</v>
+      </c>
+      <c r="M21" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>M9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="str">
+        <f t="shared" ref="B22:M22" si="8">B10</f>
+        <v>B10</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>C10</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>D10</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>E10</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>F10</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>G10</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>H10</v>
+      </c>
+      <c r="I22" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>I10</v>
+      </c>
+      <c r="J22" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>J10</v>
+      </c>
+      <c r="K22" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>K10</v>
+      </c>
+      <c r="L22" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>L10</v>
+      </c>
+      <c r="M22" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>M10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <f>B2</f>
+        <v>B2</v>
+      </c>
+      <c r="C23" s="1" t="str">
         <f>B3</f>
         <v>B3</v>
       </c>
-      <c r="F11" s="1" t="str">
+      <c r="D23" s="1" t="str">
+        <f>B4</f>
+        <v>B4</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f>B5</f>
+        <v>B5</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f>B6</f>
+        <v>B6</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f>B7</f>
+        <v>B7</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f>B8</f>
+        <v>B8</v>
+      </c>
+      <c r="I23" s="1" t="str">
+        <f>B9</f>
+        <v>B9</v>
+      </c>
+      <c r="J23" s="1" t="str">
+        <f>B10</f>
+        <v>B10</v>
+      </c>
+      <c r="K23" s="1" t="str">
+        <f>B11</f>
+        <v>B11</v>
+      </c>
+      <c r="L23" s="1" t="str">
+        <f>B12</f>
+        <v>B12</v>
+      </c>
+      <c r="M23" s="1" t="str">
+        <f>B13</f>
+        <v>B13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <f>C2</f>
+        <v>C2</v>
+      </c>
+      <c r="C24" s="1" t="str">
         <f>C3</f>
         <v>C3</v>
       </c>
-      <c r="G11" s="1" t="str">
+      <c r="D24" s="1" t="str">
+        <f>C4</f>
+        <v>C4</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f>C5</f>
+        <v>C5</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f>C6</f>
+        <v>C6</v>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f>C7</f>
+        <v>C7</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f>C8</f>
+        <v>C8</v>
+      </c>
+      <c r="I24" s="1" t="str">
+        <f>C9</f>
+        <v>C9</v>
+      </c>
+      <c r="J24" s="1" t="str">
+        <f>C10</f>
+        <v>C10</v>
+      </c>
+      <c r="K24" s="1" t="str">
+        <f>C11</f>
+        <v>C11</v>
+      </c>
+      <c r="L24" s="1" t="str">
+        <f>C12</f>
+        <v>C12</v>
+      </c>
+      <c r="M24" s="1" t="str">
+        <f>C13</f>
+        <v>C13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="str">
+        <f>D2</f>
+        <v>D2</v>
+      </c>
+      <c r="C25" s="1" t="str">
         <f>D3</f>
         <v>D3</v>
       </c>
-      <c r="H11" s="1" t="str">
+      <c r="D25" s="1" t="str">
+        <f>D4</f>
+        <v>D4</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f>D5</f>
+        <v>D5</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f>D6</f>
+        <v>D6</v>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f>D7</f>
+        <v>D7</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f>D8</f>
+        <v>D8</v>
+      </c>
+      <c r="I25" s="1" t="str">
+        <f>D9</f>
+        <v>D9</v>
+      </c>
+      <c r="J25" s="1" t="str">
+        <f>D10</f>
+        <v>D10</v>
+      </c>
+      <c r="K25" s="1" t="str">
+        <f>D11</f>
+        <v>D11</v>
+      </c>
+      <c r="L25" s="1" t="str">
+        <f>D12</f>
+        <v>D12</v>
+      </c>
+      <c r="M25" s="1" t="str">
+        <f>D13</f>
+        <v>D13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="str">
+        <f>E2</f>
+        <v>E2</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f>E3</f>
+        <v>E3</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f>E4</f>
+        <v>E4</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f>E5</f>
+        <v>E5</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f>E6</f>
+        <v>E6</v>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f>E7</f>
+        <v>E7</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f>E8</f>
+        <v>E8</v>
+      </c>
+      <c r="I26" s="1" t="str">
+        <f>E9</f>
+        <v>E9</v>
+      </c>
+      <c r="J26" s="1" t="str">
+        <f>E10</f>
+        <v>E10</v>
+      </c>
+      <c r="K26" s="1" t="str">
+        <f>E11</f>
+        <v>E11</v>
+      </c>
+      <c r="L26" s="1" t="str">
+        <f>E12</f>
+        <v>E12</v>
+      </c>
+      <c r="M26" s="1" t="str">
+        <f>E13</f>
+        <v>E13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <f>F2</f>
+        <v>F2</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f>F3</f>
+        <v>F3</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f>F4</f>
+        <v>F4</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f>F5</f>
+        <v>F5</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <f>F6</f>
+        <v>F6</v>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f>F7</f>
+        <v>F7</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f>F8</f>
+        <v>F8</v>
+      </c>
+      <c r="I27" s="1" t="str">
+        <f>F9</f>
+        <v>F9</v>
+      </c>
+      <c r="J27" s="1" t="str">
+        <f>F10</f>
+        <v>F10</v>
+      </c>
+      <c r="K27" s="1" t="str">
+        <f>F11</f>
+        <v>F11</v>
+      </c>
+      <c r="L27" s="1" t="str">
+        <f>F12</f>
+        <v>F12</v>
+      </c>
+      <c r="M27" s="1" t="str">
+        <f>F13</f>
+        <v>F13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <f>G2</f>
+        <v>G2</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f>G3</f>
+        <v>G3</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f>G4</f>
+        <v>G4</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f>G5</f>
+        <v>G5</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <f>G6</f>
+        <v>G6</v>
+      </c>
+      <c r="G28" s="1" t="str">
+        <f>G7</f>
+        <v>G7</v>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f>G8</f>
+        <v>G8</v>
+      </c>
+      <c r="I28" s="1" t="str">
+        <f>G9</f>
+        <v>G9</v>
+      </c>
+      <c r="J28" s="1" t="str">
+        <f>G10</f>
+        <v>G10</v>
+      </c>
+      <c r="K28" s="1" t="str">
+        <f>G11</f>
+        <v>G11</v>
+      </c>
+      <c r="L28" s="1" t="str">
+        <f>G12</f>
+        <v>G12</v>
+      </c>
+      <c r="M28" s="1" t="str">
+        <f>G13</f>
+        <v>G13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <f>H2</f>
+        <v>H2</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f>H3</f>
+        <v>H3</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f>H4</f>
+        <v>H4</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <f>H5</f>
+        <v>H5</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <f>H6</f>
+        <v>H6</v>
+      </c>
+      <c r="G29" s="1" t="str">
+        <f>H7</f>
+        <v>H7</v>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f>H8</f>
+        <v>H8</v>
+      </c>
+      <c r="I29" s="1" t="str">
+        <f>H9</f>
+        <v>H9</v>
+      </c>
+      <c r="J29" s="1" t="str">
+        <f>H10</f>
+        <v>H10</v>
+      </c>
+      <c r="K29" s="1" t="str">
+        <f>H11</f>
+        <v>H11</v>
+      </c>
+      <c r="L29" s="1" t="str">
+        <f>H12</f>
+        <v>H12</v>
+      </c>
+      <c r="M29" s="1" t="str">
+        <f>H13</f>
+        <v>H13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="str">
+        <f>I2</f>
+        <v>I2</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f>I3</f>
+        <v>I3</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f>I4</f>
+        <v>I4</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f>I5</f>
+        <v>I5</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f>I6</f>
+        <v>I6</v>
+      </c>
+      <c r="G30" s="1" t="str">
+        <f>I7</f>
+        <v>I7</v>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f>I8</f>
+        <v>I8</v>
+      </c>
+      <c r="I30" s="1" t="str">
+        <f>I9</f>
+        <v>I9</v>
+      </c>
+      <c r="J30" s="1" t="str">
+        <f>I10</f>
+        <v>I10</v>
+      </c>
+      <c r="K30" s="1" t="str">
+        <f>I11</f>
+        <v>I11</v>
+      </c>
+      <c r="L30" s="1" t="str">
+        <f>I12</f>
+        <v>I12</v>
+      </c>
+      <c r="M30" s="1" t="str">
+        <f>I13</f>
+        <v>I13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <f>J2</f>
+        <v>J2</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f>J3</f>
+        <v>J3</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f>J4</f>
+        <v>J4</v>
+      </c>
+      <c r="E31" s="1" t="str">
+        <f>J5</f>
+        <v>J5</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <f>J6</f>
+        <v>J6</v>
+      </c>
+      <c r="G31" s="1" t="str">
+        <f>J7</f>
+        <v>J7</v>
+      </c>
+      <c r="H31" s="1" t="str">
+        <f>J8</f>
+        <v>J8</v>
+      </c>
+      <c r="I31" s="1" t="str">
+        <f>J9</f>
+        <v>J9</v>
+      </c>
+      <c r="J31" s="1" t="str">
+        <f>J10</f>
+        <v>J10</v>
+      </c>
+      <c r="K31" s="1" t="str">
+        <f>J11</f>
+        <v>J11</v>
+      </c>
+      <c r="L31" s="1" t="str">
+        <f>J12</f>
+        <v>J12</v>
+      </c>
+      <c r="M31" s="1" t="str">
+        <f>J13</f>
+        <v>J13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="str">
+        <f>K2</f>
+        <v>K2</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f>K3</f>
+        <v>K3</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f>K4</f>
+        <v>K4</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <f>K5</f>
+        <v>K5</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <f>K6</f>
+        <v>K6</v>
+      </c>
+      <c r="G32" s="1" t="str">
+        <f>K7</f>
+        <v>K7</v>
+      </c>
+      <c r="H32" s="1" t="str">
+        <f>K8</f>
+        <v>K8</v>
+      </c>
+      <c r="I32" s="1" t="str">
+        <f>K9</f>
+        <v>K9</v>
+      </c>
+      <c r="J32" s="1" t="str">
+        <f>K10</f>
+        <v>K10</v>
+      </c>
+      <c r="K32" s="1" t="str">
+        <f>K11</f>
+        <v>K11</v>
+      </c>
+      <c r="L32" s="1" t="str">
+        <f>K12</f>
+        <v>K12</v>
+      </c>
+      <c r="M32" s="1" t="str">
+        <f>K13</f>
+        <v>K13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="str">
+        <f>L2</f>
+        <v>L2</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <f>L3</f>
+        <v>L3</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f>L4</f>
+        <v>L4</v>
+      </c>
+      <c r="E33" s="1" t="str">
+        <f>L5</f>
+        <v>L5</v>
+      </c>
+      <c r="F33" s="1" t="str">
+        <f>L6</f>
+        <v>L6</v>
+      </c>
+      <c r="G33" s="1" t="str">
+        <f>L7</f>
+        <v>L7</v>
+      </c>
+      <c r="H33" s="1" t="str">
+        <f>L8</f>
+        <v>L8</v>
+      </c>
+      <c r="I33" s="1" t="str">
+        <f>L9</f>
+        <v>L9</v>
+      </c>
+      <c r="J33" s="1" t="str">
+        <f>L10</f>
+        <v>L10</v>
+      </c>
+      <c r="K33" s="1" t="str">
+        <f>L11</f>
+        <v>L11</v>
+      </c>
+      <c r="L33" s="1" t="str">
+        <f>L12</f>
+        <v>L12</v>
+      </c>
+      <c r="M33" s="1" t="str">
+        <f>L13</f>
+        <v>L13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1" t="str">
+        <f>M2</f>
+        <v>M2</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f>M3</f>
+        <v>M3</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f>M4</f>
+        <v>M4</v>
+      </c>
+      <c r="E34" s="1" t="str">
+        <f>M5</f>
+        <v>M5</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <f>M6</f>
+        <v>M6</v>
+      </c>
+      <c r="G34" s="1" t="str">
+        <f>M7</f>
+        <v>M7</v>
+      </c>
+      <c r="H34" s="1" t="str">
+        <f>M8</f>
+        <v>M8</v>
+      </c>
+      <c r="I34" s="1" t="str">
+        <f>M9</f>
+        <v>M9</v>
+      </c>
+      <c r="J34" s="1" t="str">
+        <f>M10</f>
+        <v>M10</v>
+      </c>
+      <c r="K34" s="1" t="str">
+        <f>M11</f>
+        <v>M11</v>
+      </c>
+      <c r="L34" s="1" t="str">
+        <f>M12</f>
+        <v>M12</v>
+      </c>
+      <c r="M34" s="1" t="str">
+        <f>M13</f>
+        <v>M13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="str">
+        <f>B2</f>
+        <v>B2</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f t="shared" ref="C35:E35" si="9">C2</f>
+        <v>C2</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>D2</v>
+      </c>
+      <c r="E35" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>E2</v>
+      </c>
+      <c r="F35" s="1" t="str">
+        <f>B3</f>
+        <v>B3</v>
+      </c>
+      <c r="G35" s="1" t="str">
+        <f>C3</f>
+        <v>C3</v>
+      </c>
+      <c r="H35" s="1" t="str">
+        <f>D3</f>
+        <v>D3</v>
+      </c>
+      <c r="I35" s="1" t="str">
+        <f>E3</f>
+        <v>E3</v>
+      </c>
+      <c r="J35" s="1" t="str">
         <f>B4</f>
         <v>B4</v>
       </c>
-      <c r="I11" s="1" t="str">
+      <c r="K35" s="1" t="str">
         <f>C4</f>
         <v>C4</v>
       </c>
-      <c r="J11" s="1" t="str">
+      <c r="L35" s="1" t="str">
         <f>D4</f>
         <v>D4</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1" t="str">
+      <c r="M35" s="1" t="str">
+        <f>E4</f>
+        <v>E4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="str">
         <f>B5</f>
         <v>B5</v>
       </c>
-      <c r="C12" s="1" t="str">
-        <f t="shared" ref="C12:D12" si="1">C5</f>
+      <c r="C36" s="1" t="str">
+        <f t="shared" ref="C36:E36" si="10">C5</f>
         <v>C5</v>
       </c>
-      <c r="D12" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="D36" s="1" t="str">
+        <f t="shared" si="10"/>
         <v>D5</v>
       </c>
-      <c r="E12" s="1" t="str">
+      <c r="E36" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>E5</v>
+      </c>
+      <c r="F36" s="1" t="str">
         <f>B6</f>
         <v>B6</v>
       </c>
-      <c r="F12" s="1" t="str">
+      <c r="G36" s="1" t="str">
         <f>C6</f>
         <v>C6</v>
       </c>
-      <c r="G12" s="1" t="str">
+      <c r="H36" s="1" t="str">
         <f>D6</f>
         <v>D6</v>
       </c>
-      <c r="H12" s="1" t="str">
+      <c r="I36" s="1" t="str">
+        <f>E6</f>
+        <v>E6</v>
+      </c>
+      <c r="J36" s="1" t="str">
         <f>B7</f>
         <v>B7</v>
       </c>
-      <c r="I12" s="1" t="str">
+      <c r="K36" s="1" t="str">
         <f>C7</f>
         <v>C7</v>
       </c>
-      <c r="J12" s="1" t="str">
+      <c r="L36" s="1" t="str">
         <f>D7</f>
         <v>D7</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1" t="str">
+      <c r="M36" s="1" t="str">
+        <f>E7</f>
+        <v>E7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="str">
         <f>B8</f>
         <v>B8</v>
       </c>
-      <c r="C13" s="1" t="str">
-        <f t="shared" ref="C13:D13" si="2">C8</f>
+      <c r="C37" s="1" t="str">
+        <f t="shared" ref="C37:E37" si="11">C8</f>
         <v>C8</v>
       </c>
-      <c r="D13" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="D37" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>D8</v>
       </c>
-      <c r="E13" s="1" t="str">
+      <c r="E37" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>E8</v>
+      </c>
+      <c r="F37" s="1" t="str">
         <f>B9</f>
         <v>B9</v>
       </c>
-      <c r="F13" s="1" t="str">
+      <c r="G37" s="1" t="str">
         <f>C9</f>
         <v>C9</v>
       </c>
-      <c r="G13" s="1" t="str">
+      <c r="H37" s="1" t="str">
         <f>D9</f>
         <v>D9</v>
       </c>
-      <c r="H13" s="1" t="str">
+      <c r="I37" s="1" t="str">
+        <f>E9</f>
+        <v>E9</v>
+      </c>
+      <c r="J37" s="1" t="str">
         <f>B10</f>
         <v>B10</v>
       </c>
-      <c r="I13" s="1" t="str">
+      <c r="K37" s="1" t="str">
         <f>C10</f>
         <v>C10</v>
       </c>
-      <c r="J13" s="1" t="str">
+      <c r="L37" s="1" t="str">
         <f>D10</f>
         <v>D10</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1" t="str">
-        <f>E2</f>
-        <v>E2</v>
-      </c>
-      <c r="C14" s="1" t="str">
+      <c r="M37" s="1" t="str">
+        <f>E10</f>
+        <v>E10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1" t="str">
+        <f>B11</f>
+        <v>B11</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f t="shared" ref="C38:E38" si="12">C11</f>
+        <v>C11</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>D11</v>
+      </c>
+      <c r="E38" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>E11</v>
+      </c>
+      <c r="F38" s="1" t="str">
+        <f>B12</f>
+        <v>B12</v>
+      </c>
+      <c r="G38" s="1" t="str">
+        <f>C12</f>
+        <v>C12</v>
+      </c>
+      <c r="H38" s="1" t="str">
+        <f>D12</f>
+        <v>D12</v>
+      </c>
+      <c r="I38" s="1" t="str">
+        <f>E12</f>
+        <v>E12</v>
+      </c>
+      <c r="J38" s="1" t="str">
+        <f>B13</f>
+        <v>B13</v>
+      </c>
+      <c r="K38" s="1" t="str">
+        <f>C13</f>
+        <v>C13</v>
+      </c>
+      <c r="L38" s="1" t="str">
+        <f>D13</f>
+        <v>D13</v>
+      </c>
+      <c r="M38" s="1" t="str">
+        <f>E13</f>
+        <v>E13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1" t="str">
         <f>F2</f>
         <v>F2</v>
       </c>
-      <c r="D14" s="1" t="str">
+      <c r="C39" s="1" t="str">
         <f>G2</f>
         <v>G2</v>
       </c>
-      <c r="E14" s="1" t="str">
-        <f>E3</f>
-        <v>E3</v>
-      </c>
-      <c r="F14" s="1" t="str">
+      <c r="D39" s="1" t="str">
+        <f>H2</f>
+        <v>H2</v>
+      </c>
+      <c r="E39" s="1" t="str">
+        <f>I2</f>
+        <v>I2</v>
+      </c>
+      <c r="F39" s="1" t="str">
         <f>F3</f>
         <v>F3</v>
       </c>
-      <c r="G14" s="1" t="str">
+      <c r="G39" s="1" t="str">
         <f>G3</f>
         <v>G3</v>
       </c>
-      <c r="H14" s="1" t="str">
-        <f>E4</f>
-        <v>E4</v>
-      </c>
-      <c r="I14" s="1" t="str">
+      <c r="H39" s="1" t="str">
+        <f>H3</f>
+        <v>H3</v>
+      </c>
+      <c r="I39" s="1" t="str">
+        <f>I3</f>
+        <v>I3</v>
+      </c>
+      <c r="J39" s="1" t="str">
         <f>F4</f>
         <v>F4</v>
       </c>
-      <c r="J14" s="1" t="str">
+      <c r="K39" s="1" t="str">
         <f>G4</f>
         <v>G4</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1" t="str">
-        <f>E5</f>
-        <v>E5</v>
-      </c>
-      <c r="C15" s="1" t="str">
+      <c r="L39" s="1" t="str">
+        <f>H4</f>
+        <v>H4</v>
+      </c>
+      <c r="M39" s="1" t="str">
+        <f>I4</f>
+        <v>I4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1" t="str">
         <f>F5</f>
         <v>F5</v>
       </c>
-      <c r="D15" s="1" t="str">
+      <c r="C40" s="1" t="str">
         <f>G5</f>
         <v>G5</v>
       </c>
-      <c r="E15" s="1" t="str">
-        <f>E6</f>
-        <v>E6</v>
-      </c>
-      <c r="F15" s="1" t="str">
+      <c r="D40" s="1" t="str">
+        <f>H5</f>
+        <v>H5</v>
+      </c>
+      <c r="E40" s="1" t="str">
+        <f>I5</f>
+        <v>I5</v>
+      </c>
+      <c r="F40" s="1" t="str">
         <f>F6</f>
         <v>F6</v>
       </c>
-      <c r="G15" s="1" t="str">
+      <c r="G40" s="1" t="str">
         <f>G6</f>
         <v>G6</v>
       </c>
-      <c r="H15" s="1" t="str">
-        <f>E7</f>
-        <v>E7</v>
-      </c>
-      <c r="I15" s="1" t="str">
+      <c r="H40" s="1" t="str">
+        <f>H6</f>
+        <v>H6</v>
+      </c>
+      <c r="I40" s="1" t="str">
+        <f>I6</f>
+        <v>I6</v>
+      </c>
+      <c r="J40" s="1" t="str">
         <f>F7</f>
         <v>F7</v>
       </c>
-      <c r="J15" s="1" t="str">
+      <c r="K40" s="1" t="str">
         <f>G7</f>
         <v>G7</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="1" t="str">
-        <f>E8</f>
-        <v>E8</v>
-      </c>
-      <c r="C16" s="1" t="str">
+      <c r="L40" s="1" t="str">
+        <f>H7</f>
+        <v>H7</v>
+      </c>
+      <c r="M40" s="1" t="str">
+        <f>I7</f>
+        <v>I7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1" t="str">
         <f>F8</f>
         <v>F8</v>
       </c>
-      <c r="D16" s="1" t="str">
+      <c r="C41" s="1" t="str">
         <f>G8</f>
         <v>G8</v>
       </c>
-      <c r="E16" s="1" t="str">
-        <f>E9</f>
-        <v>E9</v>
-      </c>
-      <c r="F16" s="1" t="str">
+      <c r="D41" s="1" t="str">
+        <f>H8</f>
+        <v>H8</v>
+      </c>
+      <c r="E41" s="1" t="str">
+        <f>I8</f>
+        <v>I8</v>
+      </c>
+      <c r="F41" s="1" t="str">
         <f>F9</f>
         <v>F9</v>
       </c>
-      <c r="G16" s="1" t="str">
+      <c r="G41" s="1" t="str">
         <f>G9</f>
         <v>G9</v>
       </c>
-      <c r="H16" s="1" t="str">
-        <f>E10</f>
-        <v>E10</v>
-      </c>
-      <c r="I16" s="1" t="str">
+      <c r="H41" s="1" t="str">
+        <f>H9</f>
+        <v>H9</v>
+      </c>
+      <c r="I41" s="1" t="str">
+        <f>I9</f>
+        <v>I9</v>
+      </c>
+      <c r="J41" s="1" t="str">
         <f>F10</f>
         <v>F10</v>
       </c>
-      <c r="J16" s="1" t="str">
+      <c r="K41" s="1" t="str">
         <f>G10</f>
         <v>G10</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1" t="str">
-        <f>H2</f>
-        <v>H2</v>
-      </c>
-      <c r="C17" s="1" t="str">
-        <f>I2</f>
-        <v>I2</v>
-      </c>
-      <c r="D17" s="1" t="str">
+      <c r="L41" s="1" t="str">
+        <f>H10</f>
+        <v>H10</v>
+      </c>
+      <c r="M41" s="1" t="str">
+        <f>I10</f>
+        <v>I10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1" t="str">
+        <f>F11</f>
+        <v>F11</v>
+      </c>
+      <c r="C42" s="1" t="str">
+        <f>G11</f>
+        <v>G11</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <f>H11</f>
+        <v>H11</v>
+      </c>
+      <c r="E42" s="1" t="str">
+        <f>I11</f>
+        <v>I11</v>
+      </c>
+      <c r="F42" s="1" t="str">
+        <f>F12</f>
+        <v>F12</v>
+      </c>
+      <c r="G42" s="1" t="str">
+        <f>G12</f>
+        <v>G12</v>
+      </c>
+      <c r="H42" s="1" t="str">
+        <f>H12</f>
+        <v>H12</v>
+      </c>
+      <c r="I42" s="1" t="str">
+        <f>I12</f>
+        <v>I12</v>
+      </c>
+      <c r="J42" s="1" t="str">
+        <f>F13</f>
+        <v>F13</v>
+      </c>
+      <c r="K42" s="1" t="str">
+        <f>G13</f>
+        <v>G13</v>
+      </c>
+      <c r="L42" s="1" t="str">
+        <f>H13</f>
+        <v>H13</v>
+      </c>
+      <c r="M42" s="1" t="str">
+        <f>I13</f>
+        <v>I13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1" t="str">
         <f>J2</f>
         <v>J2</v>
       </c>
-      <c r="E17" s="1" t="str">
-        <f>H3</f>
-        <v>H3</v>
-      </c>
-      <c r="F17" s="1" t="str">
-        <f>I3</f>
-        <v>I3</v>
-      </c>
-      <c r="G17" s="1" t="str">
+      <c r="C43" s="1" t="str">
+        <f>K2</f>
+        <v>K2</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <f>L2</f>
+        <v>L2</v>
+      </c>
+      <c r="E43" s="1" t="str">
+        <f>M2</f>
+        <v>M2</v>
+      </c>
+      <c r="F43" s="1" t="str">
         <f>J3</f>
         <v>J3</v>
       </c>
-      <c r="H17" s="1" t="str">
-        <f>H4</f>
-        <v>H4</v>
-      </c>
-      <c r="I17" s="1" t="str">
-        <f>I4</f>
-        <v>I4</v>
-      </c>
-      <c r="J17" s="1" t="str">
+      <c r="G43" s="1" t="str">
+        <f>K3</f>
+        <v>K3</v>
+      </c>
+      <c r="H43" s="1" t="str">
+        <f>L3</f>
+        <v>L3</v>
+      </c>
+      <c r="I43" s="1" t="str">
+        <f>M3</f>
+        <v>M3</v>
+      </c>
+      <c r="J43" s="1" t="str">
         <f>J4</f>
         <v>J4</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1" t="str">
-        <f>H5</f>
-        <v>H5</v>
-      </c>
-      <c r="C18" s="1" t="str">
-        <f>I5</f>
-        <v>I5</v>
-      </c>
-      <c r="D18" s="1" t="str">
+      <c r="K43" s="1" t="str">
+        <f>K4</f>
+        <v>K4</v>
+      </c>
+      <c r="L43" s="1" t="str">
+        <f>L4</f>
+        <v>L4</v>
+      </c>
+      <c r="M43" s="1" t="str">
+        <f>M4</f>
+        <v>M4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1" t="str">
         <f>J5</f>
         <v>J5</v>
       </c>
-      <c r="E18" s="1" t="str">
-        <f>H6</f>
-        <v>H6</v>
-      </c>
-      <c r="F18" s="1" t="str">
-        <f>I6</f>
-        <v>I6</v>
-      </c>
-      <c r="G18" s="1" t="str">
+      <c r="C44" s="1" t="str">
+        <f>K5</f>
+        <v>K5</v>
+      </c>
+      <c r="D44" s="1" t="str">
+        <f>L5</f>
+        <v>L5</v>
+      </c>
+      <c r="E44" s="1" t="str">
+        <f>M5</f>
+        <v>M5</v>
+      </c>
+      <c r="F44" s="1" t="str">
         <f>J6</f>
         <v>J6</v>
       </c>
-      <c r="H18" s="1" t="str">
-        <f>H7</f>
-        <v>H7</v>
-      </c>
-      <c r="I18" s="1" t="str">
-        <f>I7</f>
-        <v>I7</v>
-      </c>
-      <c r="J18" s="1" t="str">
+      <c r="G44" s="1" t="str">
+        <f>K6</f>
+        <v>K6</v>
+      </c>
+      <c r="H44" s="1" t="str">
+        <f>L6</f>
+        <v>L6</v>
+      </c>
+      <c r="I44" s="1" t="str">
+        <f>M6</f>
+        <v>M6</v>
+      </c>
+      <c r="J44" s="1" t="str">
         <f>J7</f>
         <v>J7</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="1" t="str">
-        <f>H8</f>
-        <v>H8</v>
-      </c>
-      <c r="C19" s="1" t="str">
-        <f>I8</f>
-        <v>I8</v>
-      </c>
-      <c r="D19" s="1" t="str">
+      <c r="K44" s="1" t="str">
+        <f>K7</f>
+        <v>K7</v>
+      </c>
+      <c r="L44" s="1" t="str">
+        <f>L7</f>
+        <v>L7</v>
+      </c>
+      <c r="M44" s="1" t="str">
+        <f>M7</f>
+        <v>M7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1" t="str">
         <f>J8</f>
         <v>J8</v>
       </c>
-      <c r="E19" s="1" t="str">
-        <f>H9</f>
-        <v>H9</v>
-      </c>
-      <c r="F19" s="1" t="str">
-        <f>I9</f>
-        <v>I9</v>
-      </c>
-      <c r="G19" s="1" t="str">
+      <c r="C45" s="1" t="str">
+        <f>K8</f>
+        <v>K8</v>
+      </c>
+      <c r="D45" s="1" t="str">
+        <f>L8</f>
+        <v>L8</v>
+      </c>
+      <c r="E45" s="1" t="str">
+        <f>M8</f>
+        <v>M8</v>
+      </c>
+      <c r="F45" s="1" t="str">
         <f>J9</f>
         <v>J9</v>
       </c>
-      <c r="H19" s="1" t="str">
-        <f>H10</f>
-        <v>H10</v>
-      </c>
-      <c r="I19" s="1" t="str">
-        <f>I10</f>
-        <v>I10</v>
-      </c>
-      <c r="J19" s="1" t="str">
+      <c r="G45" s="1" t="str">
+        <f>K9</f>
+        <v>K9</v>
+      </c>
+      <c r="H45" s="1" t="str">
+        <f>L9</f>
+        <v>L9</v>
+      </c>
+      <c r="I45" s="1" t="str">
+        <f>M9</f>
+        <v>M9</v>
+      </c>
+      <c r="J45" s="1" t="str">
         <f>J10</f>
         <v>J10</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1" t="str">
-        <f>B2</f>
-        <v>B2</v>
-      </c>
-      <c r="C20" s="1" t="str">
-        <f t="shared" ref="C20:J20" si="3">C2</f>
-        <v>C2</v>
-      </c>
-      <c r="D20" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>D2</v>
-      </c>
-      <c r="E20" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>E2</v>
-      </c>
-      <c r="F20" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>F2</v>
-      </c>
-      <c r="G20" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>G2</v>
-      </c>
-      <c r="H20" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>H2</v>
-      </c>
-      <c r="I20" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>I2</v>
-      </c>
-      <c r="J20" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>J2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="1" t="str">
-        <f t="shared" ref="B21:J28" si="4">B3</f>
-        <v>B3</v>
-      </c>
-      <c r="C21" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>C3</v>
-      </c>
-      <c r="D21" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>D3</v>
-      </c>
-      <c r="E21" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>E3</v>
-      </c>
-      <c r="F21" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>F3</v>
-      </c>
-      <c r="G21" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>G3</v>
-      </c>
-      <c r="H21" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>H3</v>
-      </c>
-      <c r="I21" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>I3</v>
-      </c>
-      <c r="J21" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>J3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>B4</v>
-      </c>
-      <c r="C22" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>C4</v>
-      </c>
-      <c r="D22" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>D4</v>
-      </c>
-      <c r="E22" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>E4</v>
-      </c>
-      <c r="F22" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>F4</v>
-      </c>
-      <c r="G22" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>G4</v>
-      </c>
-      <c r="H22" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>H4</v>
-      </c>
-      <c r="I22" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>I4</v>
-      </c>
-      <c r="J22" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>J4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>B5</v>
-      </c>
-      <c r="C23" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>C5</v>
-      </c>
-      <c r="D23" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>D5</v>
-      </c>
-      <c r="E23" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>E5</v>
-      </c>
-      <c r="F23" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>F5</v>
-      </c>
-      <c r="G23" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>G5</v>
-      </c>
-      <c r="H23" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>H5</v>
-      </c>
-      <c r="I23" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>I5</v>
-      </c>
-      <c r="J23" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>J5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>B6</v>
-      </c>
-      <c r="C24" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>C6</v>
-      </c>
-      <c r="D24" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>D6</v>
-      </c>
-      <c r="E24" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>E6</v>
-      </c>
-      <c r="F24" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>F6</v>
-      </c>
-      <c r="G24" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>G6</v>
-      </c>
-      <c r="H24" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>H6</v>
-      </c>
-      <c r="I24" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>I6</v>
-      </c>
-      <c r="J24" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>J6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>B7</v>
-      </c>
-      <c r="C25" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>C7</v>
-      </c>
-      <c r="D25" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>D7</v>
-      </c>
-      <c r="E25" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>E7</v>
-      </c>
-      <c r="F25" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>F7</v>
-      </c>
-      <c r="G25" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>G7</v>
-      </c>
-      <c r="H25" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>H7</v>
-      </c>
-      <c r="I25" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>I7</v>
-      </c>
-      <c r="J25" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>J7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>B8</v>
-      </c>
-      <c r="C26" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>C8</v>
-      </c>
-      <c r="D26" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>D8</v>
-      </c>
-      <c r="E26" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>E8</v>
-      </c>
-      <c r="F26" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>F8</v>
-      </c>
-      <c r="G26" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>G8</v>
-      </c>
-      <c r="H26" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>H8</v>
-      </c>
-      <c r="I26" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>I8</v>
-      </c>
-      <c r="J26" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>J8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>B9</v>
-      </c>
-      <c r="C27" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>C9</v>
-      </c>
-      <c r="D27" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>D9</v>
-      </c>
-      <c r="E27" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>E9</v>
-      </c>
-      <c r="F27" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>F9</v>
-      </c>
-      <c r="G27" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>G9</v>
-      </c>
-      <c r="H27" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>H9</v>
-      </c>
-      <c r="I27" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>I9</v>
-      </c>
-      <c r="J27" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>J9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>B10</v>
-      </c>
-      <c r="C28" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>C10</v>
-      </c>
-      <c r="D28" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>D10</v>
-      </c>
-      <c r="E28" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>E10</v>
-      </c>
-      <c r="F28" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>F10</v>
-      </c>
-      <c r="G28" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>G10</v>
-      </c>
-      <c r="H28" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>H10</v>
-      </c>
-      <c r="I28" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>I10</v>
-      </c>
-      <c r="J28" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>J10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="1" t="str">
-        <f>B2</f>
-        <v>B2</v>
-      </c>
-      <c r="C29" s="1" t="str">
-        <f>B3</f>
-        <v>B3</v>
-      </c>
-      <c r="D29" s="1" t="str">
-        <f>B4</f>
-        <v>B4</v>
-      </c>
-      <c r="E29" s="1" t="str">
-        <f>B5</f>
-        <v>B5</v>
-      </c>
-      <c r="F29" s="1" t="str">
-        <f>B6</f>
-        <v>B6</v>
-      </c>
-      <c r="G29" s="1" t="str">
-        <f>B7</f>
-        <v>B7</v>
-      </c>
-      <c r="H29" s="1" t="str">
-        <f>B8</f>
-        <v>B8</v>
-      </c>
-      <c r="I29" s="1" t="str">
-        <f>B9</f>
-        <v>B9</v>
-      </c>
-      <c r="J29" s="1" t="str">
-        <f>B10</f>
-        <v>B10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="1" t="str">
-        <f>C2</f>
-        <v>C2</v>
-      </c>
-      <c r="C30" s="1" t="str">
-        <f>C3</f>
-        <v>C3</v>
-      </c>
-      <c r="D30" s="1" t="str">
-        <f>C4</f>
-        <v>C4</v>
-      </c>
-      <c r="E30" s="1" t="str">
-        <f>C5</f>
-        <v>C5</v>
-      </c>
-      <c r="F30" s="1" t="str">
-        <f>C6</f>
-        <v>C6</v>
-      </c>
-      <c r="G30" s="1" t="str">
-        <f>C7</f>
-        <v>C7</v>
-      </c>
-      <c r="H30" s="1" t="str">
-        <f>C8</f>
-        <v>C8</v>
-      </c>
-      <c r="I30" s="1" t="str">
-        <f>C9</f>
-        <v>C9</v>
-      </c>
-      <c r="J30" s="1" t="str">
-        <f>C10</f>
-        <v>C10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="1" t="str">
-        <f>D2</f>
-        <v>D2</v>
-      </c>
-      <c r="C31" s="1" t="str">
-        <f>D3</f>
-        <v>D3</v>
-      </c>
-      <c r="D31" s="1" t="str">
-        <f>D4</f>
-        <v>D4</v>
-      </c>
-      <c r="E31" s="1" t="str">
-        <f>D5</f>
-        <v>D5</v>
-      </c>
-      <c r="F31" s="1" t="str">
-        <f>D6</f>
-        <v>D6</v>
-      </c>
-      <c r="G31" s="1" t="str">
-        <f>D7</f>
-        <v>D7</v>
-      </c>
-      <c r="H31" s="1" t="str">
-        <f>D8</f>
-        <v>D8</v>
-      </c>
-      <c r="I31" s="1" t="str">
-        <f>D9</f>
-        <v>D9</v>
-      </c>
-      <c r="J31" s="1" t="str">
-        <f>D10</f>
-        <v>D10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="1" t="str">
-        <f>E2</f>
-        <v>E2</v>
-      </c>
-      <c r="C32" s="1" t="str">
-        <f>E3</f>
-        <v>E3</v>
-      </c>
-      <c r="D32" s="1" t="str">
-        <f>E4</f>
-        <v>E4</v>
-      </c>
-      <c r="E32" s="1" t="str">
-        <f>E5</f>
-        <v>E5</v>
-      </c>
-      <c r="F32" s="1" t="str">
-        <f>E6</f>
-        <v>E6</v>
-      </c>
-      <c r="G32" s="1" t="str">
-        <f>E7</f>
-        <v>E7</v>
-      </c>
-      <c r="H32" s="1" t="str">
-        <f>E8</f>
-        <v>E8</v>
-      </c>
-      <c r="I32" s="1" t="str">
-        <f>E9</f>
-        <v>E9</v>
-      </c>
-      <c r="J32" s="1" t="str">
-        <f>E10</f>
-        <v>E10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="1" t="str">
-        <f>F2</f>
-        <v>F2</v>
-      </c>
-      <c r="C33" s="1" t="str">
-        <f>F3</f>
-        <v>F3</v>
-      </c>
-      <c r="D33" s="1" t="str">
-        <f>F4</f>
-        <v>F4</v>
-      </c>
-      <c r="E33" s="1" t="str">
-        <f>F5</f>
-        <v>F5</v>
-      </c>
-      <c r="F33" s="1" t="str">
-        <f>F6</f>
-        <v>F6</v>
-      </c>
-      <c r="G33" s="1" t="str">
-        <f>F7</f>
-        <v>F7</v>
-      </c>
-      <c r="H33" s="1" t="str">
-        <f>F8</f>
-        <v>F8</v>
-      </c>
-      <c r="I33" s="1" t="str">
-        <f>F9</f>
-        <v>F9</v>
-      </c>
-      <c r="J33" s="1" t="str">
-        <f>F10</f>
-        <v>F10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="1" t="str">
-        <f>G2</f>
-        <v>G2</v>
-      </c>
-      <c r="C34" s="1" t="str">
-        <f>G3</f>
-        <v>G3</v>
-      </c>
-      <c r="D34" s="1" t="str">
-        <f>G4</f>
-        <v>G4</v>
-      </c>
-      <c r="E34" s="1" t="str">
-        <f>G5</f>
-        <v>G5</v>
-      </c>
-      <c r="F34" s="1" t="str">
-        <f>G6</f>
-        <v>G6</v>
-      </c>
-      <c r="G34" s="1" t="str">
-        <f>G7</f>
-        <v>G7</v>
-      </c>
-      <c r="H34" s="1" t="str">
-        <f>G8</f>
-        <v>G8</v>
-      </c>
-      <c r="I34" s="1" t="str">
-        <f>G9</f>
-        <v>G9</v>
-      </c>
-      <c r="J34" s="1" t="str">
-        <f>G10</f>
-        <v>G10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="1" t="str">
-        <f>H2</f>
-        <v>H2</v>
-      </c>
-      <c r="C35" s="1" t="str">
-        <f>H3</f>
-        <v>H3</v>
-      </c>
-      <c r="D35" s="1" t="str">
-        <f>H4</f>
-        <v>H4</v>
-      </c>
-      <c r="E35" s="1" t="str">
-        <f>H5</f>
-        <v>H5</v>
-      </c>
-      <c r="F35" s="1" t="str">
-        <f>H6</f>
-        <v>H6</v>
-      </c>
-      <c r="G35" s="1" t="str">
-        <f>H7</f>
-        <v>H7</v>
-      </c>
-      <c r="H35" s="1" t="str">
-        <f>H8</f>
-        <v>H8</v>
-      </c>
-      <c r="I35" s="1" t="str">
-        <f>H9</f>
-        <v>H9</v>
-      </c>
-      <c r="J35" s="1" t="str">
-        <f>H10</f>
-        <v>H10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="1" t="str">
-        <f>I2</f>
-        <v>I2</v>
-      </c>
-      <c r="C36" s="1" t="str">
-        <f>I3</f>
-        <v>I3</v>
-      </c>
-      <c r="D36" s="1" t="str">
-        <f>I4</f>
-        <v>I4</v>
-      </c>
-      <c r="E36" s="1" t="str">
-        <f>I5</f>
-        <v>I5</v>
-      </c>
-      <c r="F36" s="1" t="str">
-        <f>I6</f>
-        <v>I6</v>
-      </c>
-      <c r="G36" s="1" t="str">
-        <f>I7</f>
-        <v>I7</v>
-      </c>
-      <c r="H36" s="1" t="str">
-        <f>I8</f>
-        <v>I8</v>
-      </c>
-      <c r="I36" s="1" t="str">
-        <f>I9</f>
-        <v>I9</v>
-      </c>
-      <c r="J36" s="1" t="str">
-        <f>I10</f>
-        <v>I10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="1" t="str">
-        <f>J2</f>
-        <v>J2</v>
-      </c>
-      <c r="C37" s="1" t="str">
-        <f>J3</f>
-        <v>J3</v>
-      </c>
-      <c r="D37" s="1" t="str">
-        <f>J4</f>
-        <v>J4</v>
-      </c>
-      <c r="E37" s="1" t="str">
-        <f>J5</f>
-        <v>J5</v>
-      </c>
-      <c r="F37" s="1" t="str">
-        <f>J6</f>
-        <v>J6</v>
-      </c>
-      <c r="G37" s="1" t="str">
-        <f>J7</f>
-        <v>J7</v>
-      </c>
-      <c r="H37" s="1" t="str">
-        <f>J8</f>
-        <v>J8</v>
-      </c>
-      <c r="I37" s="1" t="str">
-        <f>J9</f>
-        <v>J9</v>
-      </c>
-      <c r="J37" s="1" t="str">
-        <f>J10</f>
-        <v>J10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" s="1" t="str">
-        <f>B2</f>
-        <v>B2</v>
-      </c>
-      <c r="C38" s="1" t="str">
-        <f>C3</f>
-        <v>C3</v>
-      </c>
-      <c r="D38" s="1" t="str">
-        <f>D4</f>
-        <v>D4</v>
-      </c>
-      <c r="E38" s="1" t="str">
-        <f>E5</f>
-        <v>E5</v>
-      </c>
-      <c r="F38" s="1" t="str">
-        <f>F6</f>
-        <v>F6</v>
-      </c>
-      <c r="G38" s="1" t="str">
-        <f>G7</f>
-        <v>G7</v>
-      </c>
-      <c r="H38" s="1" t="str">
-        <f>H8</f>
-        <v>H8</v>
-      </c>
-      <c r="I38" s="1" t="str">
-        <f>I9</f>
-        <v>I9</v>
-      </c>
-      <c r="J38" s="1" t="str">
-        <f>J10</f>
-        <v>J10</v>
+      <c r="K45" s="1" t="str">
+        <f>K10</f>
+        <v>K10</v>
+      </c>
+      <c r="L45" s="1" t="str">
+        <f>L10</f>
+        <v>L10</v>
+      </c>
+      <c r="M45" s="1" t="str">
+        <f>M10</f>
+        <v>M10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1" t="str">
+        <f>J11</f>
+        <v>J11</v>
+      </c>
+      <c r="C46" s="1" t="str">
+        <f>K11</f>
+        <v>K11</v>
+      </c>
+      <c r="D46" s="1" t="str">
+        <f>L11</f>
+        <v>L11</v>
+      </c>
+      <c r="E46" s="1" t="str">
+        <f>M11</f>
+        <v>M11</v>
+      </c>
+      <c r="F46" s="1" t="str">
+        <f>J12</f>
+        <v>J12</v>
+      </c>
+      <c r="G46" s="1" t="str">
+        <f>K12</f>
+        <v>K12</v>
+      </c>
+      <c r="H46" s="1" t="str">
+        <f>L12</f>
+        <v>L12</v>
+      </c>
+      <c r="I46" s="1" t="str">
+        <f>M12</f>
+        <v>M12</v>
+      </c>
+      <c r="J46" s="1" t="str">
+        <f>J13</f>
+        <v>J13</v>
+      </c>
+      <c r="K46" s="1" t="str">
+        <f>K13</f>
+        <v>K13</v>
+      </c>
+      <c r="L46" s="1" t="str">
+        <f>L13</f>
+        <v>L13</v>
+      </c>
+      <c r="M46" s="1" t="str">
+        <f>M13</f>
+        <v>M13</v>
       </c>
     </row>
   </sheetData>
@@ -4232,10 +5064,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793BA828-2145-7849-A5D3-4C70578DADCC}">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5105,106 +5937,3337 @@
       <c r="A18" s="11" t="s">
         <v>1</v>
       </c>
+      <c r="B18" s="1" t="str">
+        <f>B2</f>
+        <v>B2</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f t="shared" ref="C18:Q18" si="0">C2</f>
+        <v>C2</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>D2</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>E2</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>F2</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>G2</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>H2</v>
+      </c>
+      <c r="I18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>I2</v>
+      </c>
+      <c r="J18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>J2</v>
+      </c>
+      <c r="K18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>K2</v>
+      </c>
+      <c r="L18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>L2</v>
+      </c>
+      <c r="M18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>M2</v>
+      </c>
+      <c r="N18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>N2</v>
+      </c>
+      <c r="O18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O2</v>
+      </c>
+      <c r="P18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>P2</v>
+      </c>
+      <c r="Q18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q2</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>1</v>
       </c>
+      <c r="B19" s="1" t="str">
+        <f t="shared" ref="B19:Q19" si="1">B3</f>
+        <v>B3</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>C3</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>D3</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>E3</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F3</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>G3</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>H3</v>
+      </c>
+      <c r="I19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>I3</v>
+      </c>
+      <c r="J19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>J3</v>
+      </c>
+      <c r="K19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>K3</v>
+      </c>
+      <c r="L19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>L3</v>
+      </c>
+      <c r="M19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>M3</v>
+      </c>
+      <c r="N19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>N3</v>
+      </c>
+      <c r="O19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O3</v>
+      </c>
+      <c r="P19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>P3</v>
+      </c>
+      <c r="Q19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Q3</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>1</v>
       </c>
+      <c r="B20" s="1" t="str">
+        <f t="shared" ref="B20:Q20" si="2">B4</f>
+        <v>B4</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>C4</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>D4</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>E4</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>F4</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>G4</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>H4</v>
+      </c>
+      <c r="I20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>I4</v>
+      </c>
+      <c r="J20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>J4</v>
+      </c>
+      <c r="K20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>K4</v>
+      </c>
+      <c r="L20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>L4</v>
+      </c>
+      <c r="M20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>M4</v>
+      </c>
+      <c r="N20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>N4</v>
+      </c>
+      <c r="O20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>O4</v>
+      </c>
+      <c r="P20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>P4</v>
+      </c>
+      <c r="Q20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Q4</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>1</v>
       </c>
+      <c r="B21" s="1" t="str">
+        <f t="shared" ref="B21:Q21" si="3">B5</f>
+        <v>B5</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>C5</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>D5</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>E5</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>F5</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>G5</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>H5</v>
+      </c>
+      <c r="I21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>I5</v>
+      </c>
+      <c r="J21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>J5</v>
+      </c>
+      <c r="K21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>K5</v>
+      </c>
+      <c r="L21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>L5</v>
+      </c>
+      <c r="M21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>M5</v>
+      </c>
+      <c r="N21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>N5</v>
+      </c>
+      <c r="O21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>O5</v>
+      </c>
+      <c r="P21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>P5</v>
+      </c>
+      <c r="Q21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Q5</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>1</v>
       </c>
+      <c r="B22" s="1" t="str">
+        <f t="shared" ref="B22:Q22" si="4">B6</f>
+        <v>B6</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>C6</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>D6</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>E6</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>F6</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>G6</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>H6</v>
+      </c>
+      <c r="I22" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>I6</v>
+      </c>
+      <c r="J22" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>J6</v>
+      </c>
+      <c r="K22" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>K6</v>
+      </c>
+      <c r="L22" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>L6</v>
+      </c>
+      <c r="M22" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>M6</v>
+      </c>
+      <c r="N22" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>N6</v>
+      </c>
+      <c r="O22" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>O6</v>
+      </c>
+      <c r="P22" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>P6</v>
+      </c>
+      <c r="Q22" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Q6</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>1</v>
       </c>
+      <c r="B23" s="1" t="str">
+        <f t="shared" ref="B23:Q23" si="5">B7</f>
+        <v>B7</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>C7</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>D7</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>E7</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>F7</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>G7</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>H7</v>
+      </c>
+      <c r="I23" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>I7</v>
+      </c>
+      <c r="J23" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>J7</v>
+      </c>
+      <c r="K23" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>K7</v>
+      </c>
+      <c r="L23" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>L7</v>
+      </c>
+      <c r="M23" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>M7</v>
+      </c>
+      <c r="N23" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>N7</v>
+      </c>
+      <c r="O23" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>O7</v>
+      </c>
+      <c r="P23" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>P7</v>
+      </c>
+      <c r="Q23" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Q7</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>1</v>
       </c>
+      <c r="B24" s="1" t="str">
+        <f t="shared" ref="B24:Q24" si="6">B8</f>
+        <v>B8</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>C8</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>D8</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>E8</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>F8</v>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>G8</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>H8</v>
+      </c>
+      <c r="I24" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>I8</v>
+      </c>
+      <c r="J24" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>J8</v>
+      </c>
+      <c r="K24" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>K8</v>
+      </c>
+      <c r="L24" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>L8</v>
+      </c>
+      <c r="M24" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>M8</v>
+      </c>
+      <c r="N24" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>N8</v>
+      </c>
+      <c r="O24" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>O8</v>
+      </c>
+      <c r="P24" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>P8</v>
+      </c>
+      <c r="Q24" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Q8</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>1</v>
       </c>
+      <c r="B25" s="1" t="str">
+        <f t="shared" ref="B25:Q25" si="7">B9</f>
+        <v>B9</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>C9</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>D9</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>E9</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>F9</v>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>G9</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>H9</v>
+      </c>
+      <c r="I25" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>I9</v>
+      </c>
+      <c r="J25" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>J9</v>
+      </c>
+      <c r="K25" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>K9</v>
+      </c>
+      <c r="L25" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>L9</v>
+      </c>
+      <c r="M25" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>M9</v>
+      </c>
+      <c r="N25" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>N9</v>
+      </c>
+      <c r="O25" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>O9</v>
+      </c>
+      <c r="P25" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>P9</v>
+      </c>
+      <c r="Q25" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Q9</v>
+      </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>1</v>
       </c>
+      <c r="B26" s="1" t="str">
+        <f t="shared" ref="B26:Q26" si="8">B10</f>
+        <v>B10</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>C10</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>D10</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>E10</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>F10</v>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>G10</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>H10</v>
+      </c>
+      <c r="I26" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>I10</v>
+      </c>
+      <c r="J26" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>J10</v>
+      </c>
+      <c r="K26" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>K10</v>
+      </c>
+      <c r="L26" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>L10</v>
+      </c>
+      <c r="M26" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>M10</v>
+      </c>
+      <c r="N26" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>N10</v>
+      </c>
+      <c r="O26" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>O10</v>
+      </c>
+      <c r="P26" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>P10</v>
+      </c>
+      <c r="Q26" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Q10</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>1</v>
       </c>
+      <c r="B27" s="1" t="str">
+        <f t="shared" ref="B27:Q27" si="9">B11</f>
+        <v>B11</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>C11</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>D11</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>E11</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>F11</v>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>G11</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>H11</v>
+      </c>
+      <c r="I27" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>I11</v>
+      </c>
+      <c r="J27" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>J11</v>
+      </c>
+      <c r="K27" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>K11</v>
+      </c>
+      <c r="L27" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>L11</v>
+      </c>
+      <c r="M27" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>M11</v>
+      </c>
+      <c r="N27" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>N11</v>
+      </c>
+      <c r="O27" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>O11</v>
+      </c>
+      <c r="P27" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>P11</v>
+      </c>
+      <c r="Q27" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>Q11</v>
+      </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>1</v>
       </c>
+      <c r="B28" s="1" t="str">
+        <f t="shared" ref="B28:Q28" si="10">B12</f>
+        <v>B12</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>C12</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>D12</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>E12</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>F12</v>
+      </c>
+      <c r="G28" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>G12</v>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>H12</v>
+      </c>
+      <c r="I28" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>I12</v>
+      </c>
+      <c r="J28" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>J12</v>
+      </c>
+      <c r="K28" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>K12</v>
+      </c>
+      <c r="L28" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>L12</v>
+      </c>
+      <c r="M28" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>M12</v>
+      </c>
+      <c r="N28" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>N12</v>
+      </c>
+      <c r="O28" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>O12</v>
+      </c>
+      <c r="P28" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>P12</v>
+      </c>
+      <c r="Q28" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>Q12</v>
+      </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>1</v>
       </c>
+      <c r="B29" s="1" t="str">
+        <f t="shared" ref="B29:Q29" si="11">B13</f>
+        <v>B13</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>C13</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>D13</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>E13</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>F13</v>
+      </c>
+      <c r="G29" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>G13</v>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>H13</v>
+      </c>
+      <c r="I29" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>I13</v>
+      </c>
+      <c r="J29" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>J13</v>
+      </c>
+      <c r="K29" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>K13</v>
+      </c>
+      <c r="L29" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>L13</v>
+      </c>
+      <c r="M29" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>M13</v>
+      </c>
+      <c r="N29" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>N13</v>
+      </c>
+      <c r="O29" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>O13</v>
+      </c>
+      <c r="P29" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>P13</v>
+      </c>
+      <c r="Q29" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>Q13</v>
+      </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>1</v>
       </c>
+      <c r="B30" s="1" t="str">
+        <f t="shared" ref="B30:Q33" si="12">B14</f>
+        <v>B14</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>C14</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>D14</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>E14</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>F14</v>
+      </c>
+      <c r="G30" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>G14</v>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>H14</v>
+      </c>
+      <c r="I30" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>I14</v>
+      </c>
+      <c r="J30" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>J14</v>
+      </c>
+      <c r="K30" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>K14</v>
+      </c>
+      <c r="L30" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>L14</v>
+      </c>
+      <c r="M30" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>M14</v>
+      </c>
+      <c r="N30" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>N14</v>
+      </c>
+      <c r="O30" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>O14</v>
+      </c>
+      <c r="P30" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>P14</v>
+      </c>
+      <c r="Q30" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>Q14</v>
+      </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>1</v>
       </c>
+      <c r="B31" s="1" t="str">
+        <f>B15</f>
+        <v>B15</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>C15</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>D15</v>
+      </c>
+      <c r="E31" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>E15</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>F15</v>
+      </c>
+      <c r="G31" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>G15</v>
+      </c>
+      <c r="H31" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>H15</v>
+      </c>
+      <c r="I31" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>I15</v>
+      </c>
+      <c r="J31" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>J15</v>
+      </c>
+      <c r="K31" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>K15</v>
+      </c>
+      <c r="L31" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>L15</v>
+      </c>
+      <c r="M31" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>M15</v>
+      </c>
+      <c r="N31" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>N15</v>
+      </c>
+      <c r="O31" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>O15</v>
+      </c>
+      <c r="P31" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>P15</v>
+      </c>
+      <c r="Q31" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>Q15</v>
+      </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="str">
+        <f>B16</f>
+        <v>B16</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>C16</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>D16</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>E16</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>F16</v>
+      </c>
+      <c r="G32" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>G16</v>
+      </c>
+      <c r="H32" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>H16</v>
+      </c>
+      <c r="I32" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>I16</v>
+      </c>
+      <c r="J32" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>J16</v>
+      </c>
+      <c r="K32" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>K16</v>
+      </c>
+      <c r="L32" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>L16</v>
+      </c>
+      <c r="M32" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>M16</v>
+      </c>
+      <c r="N32" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>N16</v>
+      </c>
+      <c r="O32" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>O16</v>
+      </c>
+      <c r="P32" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>P16</v>
+      </c>
+      <c r="Q32" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>Q16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="str">
+        <f>B17</f>
+        <v>B17</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>C17</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>D17</v>
+      </c>
+      <c r="E33" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>E17</v>
+      </c>
+      <c r="F33" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>F17</v>
+      </c>
+      <c r="G33" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>G17</v>
+      </c>
+      <c r="H33" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>H17</v>
+      </c>
+      <c r="I33" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>I17</v>
+      </c>
+      <c r="J33" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>J17</v>
+      </c>
+      <c r="K33" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>K17</v>
+      </c>
+      <c r="L33" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>L17</v>
+      </c>
+      <c r="M33" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>M17</v>
+      </c>
+      <c r="N33" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>N17</v>
+      </c>
+      <c r="O33" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>O17</v>
+      </c>
+      <c r="P33" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>P17</v>
+      </c>
+      <c r="Q33" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>Q17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="str">
+        <f>B2</f>
+        <v>B2</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f>B3</f>
+        <v>B3</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f>B4</f>
+        <v>B4</v>
+      </c>
+      <c r="E34" s="1" t="str">
+        <f>B5</f>
+        <v>B5</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <f>B6</f>
+        <v>B6</v>
+      </c>
+      <c r="G34" s="1" t="str">
+        <f>B7</f>
+        <v>B7</v>
+      </c>
+      <c r="H34" s="1" t="str">
+        <f>B8</f>
+        <v>B8</v>
+      </c>
+      <c r="I34" s="1" t="str">
+        <f>B9</f>
+        <v>B9</v>
+      </c>
+      <c r="J34" s="1" t="str">
+        <f>B10</f>
+        <v>B10</v>
+      </c>
+      <c r="K34" s="1" t="str">
+        <f>B11</f>
+        <v>B11</v>
+      </c>
+      <c r="L34" s="1" t="str">
+        <f>B12</f>
+        <v>B12</v>
+      </c>
+      <c r="M34" s="1" t="str">
+        <f>B13</f>
+        <v>B13</v>
+      </c>
+      <c r="N34" s="1" t="str">
+        <f>B14</f>
+        <v>B14</v>
+      </c>
+      <c r="O34" s="1" t="str">
+        <f>B15</f>
+        <v>B15</v>
+      </c>
+      <c r="P34" s="1" t="str">
+        <f>B16</f>
+        <v>B16</v>
+      </c>
+      <c r="Q34" s="1" t="str">
+        <f>B17</f>
+        <v>B17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="str">
+        <f>C2</f>
+        <v>C2</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f>C3</f>
+        <v>C3</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <f>C4</f>
+        <v>C4</v>
+      </c>
+      <c r="E35" s="1" t="str">
+        <f>C5</f>
+        <v>C5</v>
+      </c>
+      <c r="F35" s="1" t="str">
+        <f>C6</f>
+        <v>C6</v>
+      </c>
+      <c r="G35" s="1" t="str">
+        <f>C7</f>
+        <v>C7</v>
+      </c>
+      <c r="H35" s="1" t="str">
+        <f>C8</f>
+        <v>C8</v>
+      </c>
+      <c r="I35" s="1" t="str">
+        <f>C9</f>
+        <v>C9</v>
+      </c>
+      <c r="J35" s="1" t="str">
+        <f>C10</f>
+        <v>C10</v>
+      </c>
+      <c r="K35" s="1" t="str">
+        <f>C11</f>
+        <v>C11</v>
+      </c>
+      <c r="L35" s="1" t="str">
+        <f>C12</f>
+        <v>C12</v>
+      </c>
+      <c r="M35" s="1" t="str">
+        <f>C13</f>
+        <v>C13</v>
+      </c>
+      <c r="N35" s="1" t="str">
+        <f>C14</f>
+        <v>C14</v>
+      </c>
+      <c r="O35" s="1" t="str">
+        <f>C15</f>
+        <v>C15</v>
+      </c>
+      <c r="P35" s="1" t="str">
+        <f>C16</f>
+        <v>C16</v>
+      </c>
+      <c r="Q35" s="1" t="str">
+        <f>C17</f>
+        <v>C17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="str">
+        <f>D2</f>
+        <v>D2</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f>D3</f>
+        <v>D3</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <f>D4</f>
+        <v>D4</v>
+      </c>
+      <c r="E36" s="1" t="str">
+        <f>D5</f>
+        <v>D5</v>
+      </c>
+      <c r="F36" s="1" t="str">
+        <f>D6</f>
+        <v>D6</v>
+      </c>
+      <c r="G36" s="1" t="str">
+        <f>D7</f>
+        <v>D7</v>
+      </c>
+      <c r="H36" s="1" t="str">
+        <f>D8</f>
+        <v>D8</v>
+      </c>
+      <c r="I36" s="1" t="str">
+        <f>D9</f>
+        <v>D9</v>
+      </c>
+      <c r="J36" s="1" t="str">
+        <f>D10</f>
+        <v>D10</v>
+      </c>
+      <c r="K36" s="1" t="str">
+        <f>D11</f>
+        <v>D11</v>
+      </c>
+      <c r="L36" s="1" t="str">
+        <f>D12</f>
+        <v>D12</v>
+      </c>
+      <c r="M36" s="1" t="str">
+        <f>D13</f>
+        <v>D13</v>
+      </c>
+      <c r="N36" s="1" t="str">
+        <f>D14</f>
+        <v>D14</v>
+      </c>
+      <c r="O36" s="1" t="str">
+        <f>D15</f>
+        <v>D15</v>
+      </c>
+      <c r="P36" s="1" t="str">
+        <f>D16</f>
+        <v>D16</v>
+      </c>
+      <c r="Q36" s="1" t="str">
+        <f>D17</f>
+        <v>D17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="str">
+        <f>E2</f>
+        <v>E2</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <f>E3</f>
+        <v>E3</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <f>E4</f>
+        <v>E4</v>
+      </c>
+      <c r="E37" s="1" t="str">
+        <f>E5</f>
+        <v>E5</v>
+      </c>
+      <c r="F37" s="1" t="str">
+        <f>E6</f>
+        <v>E6</v>
+      </c>
+      <c r="G37" s="1" t="str">
+        <f>E7</f>
+        <v>E7</v>
+      </c>
+      <c r="H37" s="1" t="str">
+        <f>E8</f>
+        <v>E8</v>
+      </c>
+      <c r="I37" s="1" t="str">
+        <f>E9</f>
+        <v>E9</v>
+      </c>
+      <c r="J37" s="1" t="str">
+        <f>E10</f>
+        <v>E10</v>
+      </c>
+      <c r="K37" s="1" t="str">
+        <f>E11</f>
+        <v>E11</v>
+      </c>
+      <c r="L37" s="1" t="str">
+        <f>E12</f>
+        <v>E12</v>
+      </c>
+      <c r="M37" s="1" t="str">
+        <f>E13</f>
+        <v>E13</v>
+      </c>
+      <c r="N37" s="1" t="str">
+        <f>E14</f>
+        <v>E14</v>
+      </c>
+      <c r="O37" s="1" t="str">
+        <f>E15</f>
+        <v>E15</v>
+      </c>
+      <c r="P37" s="1" t="str">
+        <f>E16</f>
+        <v>E16</v>
+      </c>
+      <c r="Q37" s="1" t="str">
+        <f>E17</f>
+        <v>E17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>1</v>
       </c>
+      <c r="B38" s="1" t="str">
+        <f>F2</f>
+        <v>F2</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f>F3</f>
+        <v>F3</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <f>F4</f>
+        <v>F4</v>
+      </c>
+      <c r="E38" s="1" t="str">
+        <f>F5</f>
+        <v>F5</v>
+      </c>
+      <c r="F38" s="1" t="str">
+        <f>F6</f>
+        <v>F6</v>
+      </c>
+      <c r="G38" s="1" t="str">
+        <f>F7</f>
+        <v>F7</v>
+      </c>
+      <c r="H38" s="1" t="str">
+        <f>F8</f>
+        <v>F8</v>
+      </c>
+      <c r="I38" s="1" t="str">
+        <f>F9</f>
+        <v>F9</v>
+      </c>
+      <c r="J38" s="1" t="str">
+        <f>F10</f>
+        <v>F10</v>
+      </c>
+      <c r="K38" s="1" t="str">
+        <f>F11</f>
+        <v>F11</v>
+      </c>
+      <c r="L38" s="1" t="str">
+        <f>F12</f>
+        <v>F12</v>
+      </c>
+      <c r="M38" s="1" t="str">
+        <f>F13</f>
+        <v>F13</v>
+      </c>
+      <c r="N38" s="1" t="str">
+        <f>F14</f>
+        <v>F14</v>
+      </c>
+      <c r="O38" s="1" t="str">
+        <f>F15</f>
+        <v>F15</v>
+      </c>
+      <c r="P38" s="1" t="str">
+        <f>F16</f>
+        <v>F16</v>
+      </c>
+      <c r="Q38" s="1" t="str">
+        <f>F17</f>
+        <v>F17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1" t="str">
+        <f>G2</f>
+        <v>G2</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <f>G3</f>
+        <v>G3</v>
+      </c>
+      <c r="D39" s="1" t="str">
+        <f>G4</f>
+        <v>G4</v>
+      </c>
+      <c r="E39" s="1" t="str">
+        <f>G5</f>
+        <v>G5</v>
+      </c>
+      <c r="F39" s="1" t="str">
+        <f>G6</f>
+        <v>G6</v>
+      </c>
+      <c r="G39" s="1" t="str">
+        <f>G7</f>
+        <v>G7</v>
+      </c>
+      <c r="H39" s="1" t="str">
+        <f>G8</f>
+        <v>G8</v>
+      </c>
+      <c r="I39" s="1" t="str">
+        <f>G9</f>
+        <v>G9</v>
+      </c>
+      <c r="J39" s="1" t="str">
+        <f>G10</f>
+        <v>G10</v>
+      </c>
+      <c r="K39" s="1" t="str">
+        <f>G11</f>
+        <v>G11</v>
+      </c>
+      <c r="L39" s="1" t="str">
+        <f>G12</f>
+        <v>G12</v>
+      </c>
+      <c r="M39" s="1" t="str">
+        <f>G13</f>
+        <v>G13</v>
+      </c>
+      <c r="N39" s="1" t="str">
+        <f>G14</f>
+        <v>G14</v>
+      </c>
+      <c r="O39" s="1" t="str">
+        <f>G15</f>
+        <v>G15</v>
+      </c>
+      <c r="P39" s="1" t="str">
+        <f>G16</f>
+        <v>G16</v>
+      </c>
+      <c r="Q39" s="1" t="str">
+        <f>G17</f>
+        <v>G17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1" t="str">
+        <f>H2</f>
+        <v>H2</v>
+      </c>
+      <c r="C40" s="1" t="str">
+        <f>H3</f>
+        <v>H3</v>
+      </c>
+      <c r="D40" s="1" t="str">
+        <f>H4</f>
+        <v>H4</v>
+      </c>
+      <c r="E40" s="1" t="str">
+        <f>H5</f>
+        <v>H5</v>
+      </c>
+      <c r="F40" s="1" t="str">
+        <f>H6</f>
+        <v>H6</v>
+      </c>
+      <c r="G40" s="1" t="str">
+        <f>H7</f>
+        <v>H7</v>
+      </c>
+      <c r="H40" s="1" t="str">
+        <f>H8</f>
+        <v>H8</v>
+      </c>
+      <c r="I40" s="1" t="str">
+        <f>H9</f>
+        <v>H9</v>
+      </c>
+      <c r="J40" s="1" t="str">
+        <f>H10</f>
+        <v>H10</v>
+      </c>
+      <c r="K40" s="1" t="str">
+        <f>H11</f>
+        <v>H11</v>
+      </c>
+      <c r="L40" s="1" t="str">
+        <f>H12</f>
+        <v>H12</v>
+      </c>
+      <c r="M40" s="1" t="str">
+        <f>H13</f>
+        <v>H13</v>
+      </c>
+      <c r="N40" s="1" t="str">
+        <f>H14</f>
+        <v>H14</v>
+      </c>
+      <c r="O40" s="1" t="str">
+        <f>H15</f>
+        <v>H15</v>
+      </c>
+      <c r="P40" s="1" t="str">
+        <f>H16</f>
+        <v>H16</v>
+      </c>
+      <c r="Q40" s="1" t="str">
+        <f>H17</f>
+        <v>H17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1" t="str">
+        <f>I2</f>
+        <v>I2</v>
+      </c>
+      <c r="C41" s="1" t="str">
+        <f>I3</f>
+        <v>I3</v>
+      </c>
+      <c r="D41" s="1" t="str">
+        <f>I4</f>
+        <v>I4</v>
+      </c>
+      <c r="E41" s="1" t="str">
+        <f>I5</f>
+        <v>I5</v>
+      </c>
+      <c r="F41" s="1" t="str">
+        <f>I6</f>
+        <v>I6</v>
+      </c>
+      <c r="G41" s="1" t="str">
+        <f>I7</f>
+        <v>I7</v>
+      </c>
+      <c r="H41" s="1" t="str">
+        <f>I8</f>
+        <v>I8</v>
+      </c>
+      <c r="I41" s="1" t="str">
+        <f>I9</f>
+        <v>I9</v>
+      </c>
+      <c r="J41" s="1" t="str">
+        <f>I10</f>
+        <v>I10</v>
+      </c>
+      <c r="K41" s="1" t="str">
+        <f>I11</f>
+        <v>I11</v>
+      </c>
+      <c r="L41" s="1" t="str">
+        <f>I12</f>
+        <v>I12</v>
+      </c>
+      <c r="M41" s="1" t="str">
+        <f>I13</f>
+        <v>I13</v>
+      </c>
+      <c r="N41" s="1" t="str">
+        <f>I14</f>
+        <v>I14</v>
+      </c>
+      <c r="O41" s="1" t="str">
+        <f>I15</f>
+        <v>I15</v>
+      </c>
+      <c r="P41" s="1" t="str">
+        <f>I16</f>
+        <v>I16</v>
+      </c>
+      <c r="Q41" s="1" t="str">
+        <f>I17</f>
+        <v>I17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1" t="str">
+        <f>J2</f>
+        <v>J2</v>
+      </c>
+      <c r="C42" s="1" t="str">
+        <f>J3</f>
+        <v>J3</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <f>J4</f>
+        <v>J4</v>
+      </c>
+      <c r="E42" s="1" t="str">
+        <f>J5</f>
+        <v>J5</v>
+      </c>
+      <c r="F42" s="1" t="str">
+        <f>J6</f>
+        <v>J6</v>
+      </c>
+      <c r="G42" s="1" t="str">
+        <f>J7</f>
+        <v>J7</v>
+      </c>
+      <c r="H42" s="1" t="str">
+        <f>J8</f>
+        <v>J8</v>
+      </c>
+      <c r="I42" s="1" t="str">
+        <f>J9</f>
+        <v>J9</v>
+      </c>
+      <c r="J42" s="1" t="str">
+        <f>J10</f>
+        <v>J10</v>
+      </c>
+      <c r="K42" s="1" t="str">
+        <f>J11</f>
+        <v>J11</v>
+      </c>
+      <c r="L42" s="1" t="str">
+        <f>J12</f>
+        <v>J12</v>
+      </c>
+      <c r="M42" s="1" t="str">
+        <f>J13</f>
+        <v>J13</v>
+      </c>
+      <c r="N42" s="1" t="str">
+        <f>J14</f>
+        <v>J14</v>
+      </c>
+      <c r="O42" s="1" t="str">
+        <f>J15</f>
+        <v>J15</v>
+      </c>
+      <c r="P42" s="1" t="str">
+        <f>J16</f>
+        <v>J16</v>
+      </c>
+      <c r="Q42" s="1" t="str">
+        <f>J17</f>
+        <v>J17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1" t="str">
+        <f>K2</f>
+        <v>K2</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <f>K3</f>
+        <v>K3</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <f>K4</f>
+        <v>K4</v>
+      </c>
+      <c r="E43" s="1" t="str">
+        <f>K5</f>
+        <v>K5</v>
+      </c>
+      <c r="F43" s="1" t="str">
+        <f>K6</f>
+        <v>K6</v>
+      </c>
+      <c r="G43" s="1" t="str">
+        <f>K7</f>
+        <v>K7</v>
+      </c>
+      <c r="H43" s="1" t="str">
+        <f>K8</f>
+        <v>K8</v>
+      </c>
+      <c r="I43" s="1" t="str">
+        <f>K9</f>
+        <v>K9</v>
+      </c>
+      <c r="J43" s="1" t="str">
+        <f>K10</f>
+        <v>K10</v>
+      </c>
+      <c r="K43" s="1" t="str">
+        <f>K11</f>
+        <v>K11</v>
+      </c>
+      <c r="L43" s="1" t="str">
+        <f>K12</f>
+        <v>K12</v>
+      </c>
+      <c r="M43" s="1" t="str">
+        <f>K13</f>
+        <v>K13</v>
+      </c>
+      <c r="N43" s="1" t="str">
+        <f>K14</f>
+        <v>K14</v>
+      </c>
+      <c r="O43" s="1" t="str">
+        <f>K15</f>
+        <v>K15</v>
+      </c>
+      <c r="P43" s="1" t="str">
+        <f>K16</f>
+        <v>K16</v>
+      </c>
+      <c r="Q43" s="1" t="str">
+        <f>K17</f>
+        <v>K17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1" t="str">
+        <f>L2</f>
+        <v>L2</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <f>L3</f>
+        <v>L3</v>
+      </c>
+      <c r="D44" s="1" t="str">
+        <f>L4</f>
+        <v>L4</v>
+      </c>
+      <c r="E44" s="1" t="str">
+        <f>L5</f>
+        <v>L5</v>
+      </c>
+      <c r="F44" s="1" t="str">
+        <f>L6</f>
+        <v>L6</v>
+      </c>
+      <c r="G44" s="1" t="str">
+        <f>L7</f>
+        <v>L7</v>
+      </c>
+      <c r="H44" s="1" t="str">
+        <f>L8</f>
+        <v>L8</v>
+      </c>
+      <c r="I44" s="1" t="str">
+        <f>L9</f>
+        <v>L9</v>
+      </c>
+      <c r="J44" s="1" t="str">
+        <f>L10</f>
+        <v>L10</v>
+      </c>
+      <c r="K44" s="1" t="str">
+        <f>L11</f>
+        <v>L11</v>
+      </c>
+      <c r="L44" s="1" t="str">
+        <f>L12</f>
+        <v>L12</v>
+      </c>
+      <c r="M44" s="1" t="str">
+        <f>L13</f>
+        <v>L13</v>
+      </c>
+      <c r="N44" s="1" t="str">
+        <f>L14</f>
+        <v>L14</v>
+      </c>
+      <c r="O44" s="1" t="str">
+        <f>L15</f>
+        <v>L15</v>
+      </c>
+      <c r="P44" s="1" t="str">
+        <f>L16</f>
+        <v>L16</v>
+      </c>
+      <c r="Q44" s="1" t="str">
+        <f>L17</f>
+        <v>L17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1" t="str">
+        <f>M2</f>
+        <v>M2</v>
+      </c>
+      <c r="C45" s="1" t="str">
+        <f>M3</f>
+        <v>M3</v>
+      </c>
+      <c r="D45" s="1" t="str">
+        <f>M4</f>
+        <v>M4</v>
+      </c>
+      <c r="E45" s="1" t="str">
+        <f>M5</f>
+        <v>M5</v>
+      </c>
+      <c r="F45" s="1" t="str">
+        <f>M6</f>
+        <v>M6</v>
+      </c>
+      <c r="G45" s="1" t="str">
+        <f>M7</f>
+        <v>M7</v>
+      </c>
+      <c r="H45" s="1" t="str">
+        <f>M8</f>
+        <v>M8</v>
+      </c>
+      <c r="I45" s="1" t="str">
+        <f>M9</f>
+        <v>M9</v>
+      </c>
+      <c r="J45" s="1" t="str">
+        <f>M10</f>
+        <v>M10</v>
+      </c>
+      <c r="K45" s="1" t="str">
+        <f>M11</f>
+        <v>M11</v>
+      </c>
+      <c r="L45" s="1" t="str">
+        <f>M12</f>
+        <v>M12</v>
+      </c>
+      <c r="M45" s="1" t="str">
+        <f>M13</f>
+        <v>M13</v>
+      </c>
+      <c r="N45" s="1" t="str">
+        <f>M14</f>
+        <v>M14</v>
+      </c>
+      <c r="O45" s="1" t="str">
+        <f>M15</f>
+        <v>M15</v>
+      </c>
+      <c r="P45" s="1" t="str">
+        <f>M16</f>
+        <v>M16</v>
+      </c>
+      <c r="Q45" s="1" t="str">
+        <f>M17</f>
+        <v>M17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1" t="str">
+        <f>N2</f>
+        <v>N2</v>
+      </c>
+      <c r="C46" s="1" t="str">
+        <f>N3</f>
+        <v>N3</v>
+      </c>
+      <c r="D46" s="1" t="str">
+        <f>N4</f>
+        <v>N4</v>
+      </c>
+      <c r="E46" s="1" t="str">
+        <f>N5</f>
+        <v>N5</v>
+      </c>
+      <c r="F46" s="1" t="str">
+        <f>N6</f>
+        <v>N6</v>
+      </c>
+      <c r="G46" s="1" t="str">
+        <f>N7</f>
+        <v>N7</v>
+      </c>
+      <c r="H46" s="1" t="str">
+        <f>N8</f>
+        <v>N8</v>
+      </c>
+      <c r="I46" s="1" t="str">
+        <f>N9</f>
+        <v>N9</v>
+      </c>
+      <c r="J46" s="1" t="str">
+        <f>N10</f>
+        <v>N10</v>
+      </c>
+      <c r="K46" s="1" t="str">
+        <f>N11</f>
+        <v>N11</v>
+      </c>
+      <c r="L46" s="1" t="str">
+        <f>N12</f>
+        <v>N12</v>
+      </c>
+      <c r="M46" s="1" t="str">
+        <f>N13</f>
+        <v>N13</v>
+      </c>
+      <c r="N46" s="1" t="str">
+        <f>N14</f>
+        <v>N14</v>
+      </c>
+      <c r="O46" s="1" t="str">
+        <f>N15</f>
+        <v>N15</v>
+      </c>
+      <c r="P46" s="1" t="str">
+        <f>N16</f>
+        <v>N16</v>
+      </c>
+      <c r="Q46" s="1" t="str">
+        <f>N17</f>
+        <v>N17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1" t="str">
+        <f>O2</f>
+        <v>O2</v>
+      </c>
+      <c r="C47" s="1" t="str">
+        <f>O3</f>
+        <v>O3</v>
+      </c>
+      <c r="D47" s="1" t="str">
+        <f>O4</f>
+        <v>O4</v>
+      </c>
+      <c r="E47" s="1" t="str">
+        <f>O5</f>
+        <v>O5</v>
+      </c>
+      <c r="F47" s="1" t="str">
+        <f>O6</f>
+        <v>O6</v>
+      </c>
+      <c r="G47" s="1" t="str">
+        <f>O7</f>
+        <v>O7</v>
+      </c>
+      <c r="H47" s="1" t="str">
+        <f>O8</f>
+        <v>O8</v>
+      </c>
+      <c r="I47" s="1" t="str">
+        <f>O9</f>
+        <v>O9</v>
+      </c>
+      <c r="J47" s="1" t="str">
+        <f>O10</f>
+        <v>O10</v>
+      </c>
+      <c r="K47" s="1" t="str">
+        <f>O11</f>
+        <v>O11</v>
+      </c>
+      <c r="L47" s="1" t="str">
+        <f>O12</f>
+        <v>O12</v>
+      </c>
+      <c r="M47" s="1" t="str">
+        <f>O13</f>
+        <v>O13</v>
+      </c>
+      <c r="N47" s="1" t="str">
+        <f>O14</f>
+        <v>O14</v>
+      </c>
+      <c r="O47" s="1" t="str">
+        <f>O15</f>
+        <v>O15</v>
+      </c>
+      <c r="P47" s="1" t="str">
+        <f>O16</f>
+        <v>O16</v>
+      </c>
+      <c r="Q47" s="1" t="str">
+        <f>O17</f>
+        <v>O17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="1" t="str">
+        <f>P2</f>
+        <v>P2</v>
+      </c>
+      <c r="C48" s="1" t="str">
+        <f>P3</f>
+        <v>P3</v>
+      </c>
+      <c r="D48" s="1" t="str">
+        <f>P4</f>
+        <v>P4</v>
+      </c>
+      <c r="E48" s="1" t="str">
+        <f>P5</f>
+        <v>P5</v>
+      </c>
+      <c r="F48" s="1" t="str">
+        <f>P6</f>
+        <v>P6</v>
+      </c>
+      <c r="G48" s="1" t="str">
+        <f>P7</f>
+        <v>P7</v>
+      </c>
+      <c r="H48" s="1" t="str">
+        <f>P8</f>
+        <v>P8</v>
+      </c>
+      <c r="I48" s="1" t="str">
+        <f>P9</f>
+        <v>P9</v>
+      </c>
+      <c r="J48" s="1" t="str">
+        <f>P10</f>
+        <v>P10</v>
+      </c>
+      <c r="K48" s="1" t="str">
+        <f>P11</f>
+        <v>P11</v>
+      </c>
+      <c r="L48" s="1" t="str">
+        <f>P12</f>
+        <v>P12</v>
+      </c>
+      <c r="M48" s="1" t="str">
+        <f>P13</f>
+        <v>P13</v>
+      </c>
+      <c r="N48" s="1" t="str">
+        <f>P14</f>
+        <v>P14</v>
+      </c>
+      <c r="O48" s="1" t="str">
+        <f>P15</f>
+        <v>P15</v>
+      </c>
+      <c r="P48" s="1" t="str">
+        <f>P16</f>
+        <v>P16</v>
+      </c>
+      <c r="Q48" s="1" t="str">
+        <f>P17</f>
+        <v>P17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="1" t="str">
+        <f>Q2</f>
+        <v>Q2</v>
+      </c>
+      <c r="C49" s="1" t="str">
+        <f>Q3</f>
+        <v>Q3</v>
+      </c>
+      <c r="D49" s="1" t="str">
+        <f>Q4</f>
+        <v>Q4</v>
+      </c>
+      <c r="E49" s="1" t="str">
+        <f>Q5</f>
+        <v>Q5</v>
+      </c>
+      <c r="F49" s="1" t="str">
+        <f>Q6</f>
+        <v>Q6</v>
+      </c>
+      <c r="G49" s="1" t="str">
+        <f>Q7</f>
+        <v>Q7</v>
+      </c>
+      <c r="H49" s="1" t="str">
+        <f>Q8</f>
+        <v>Q8</v>
+      </c>
+      <c r="I49" s="1" t="str">
+        <f>Q9</f>
+        <v>Q9</v>
+      </c>
+      <c r="J49" s="1" t="str">
+        <f>Q10</f>
+        <v>Q10</v>
+      </c>
+      <c r="K49" s="1" t="str">
+        <f>Q11</f>
+        <v>Q11</v>
+      </c>
+      <c r="L49" s="1" t="str">
+        <f>Q12</f>
+        <v>Q12</v>
+      </c>
+      <c r="M49" s="1" t="str">
+        <f>Q13</f>
+        <v>Q13</v>
+      </c>
+      <c r="N49" s="1" t="str">
+        <f>Q14</f>
+        <v>Q14</v>
+      </c>
+      <c r="O49" s="1" t="str">
+        <f>Q15</f>
+        <v>Q15</v>
+      </c>
+      <c r="P49" s="1" t="str">
+        <f>Q16</f>
+        <v>Q16</v>
+      </c>
+      <c r="Q49" s="1" t="str">
+        <f>Q17</f>
+        <v>Q17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="1" t="str">
+        <f>B2</f>
+        <v>B2</v>
+      </c>
+      <c r="C50" s="1" t="str">
+        <f t="shared" ref="C50:E50" si="13">C2</f>
+        <v>C2</v>
+      </c>
+      <c r="D50" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>D2</v>
+      </c>
+      <c r="E50" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>E2</v>
+      </c>
+      <c r="F50" s="1" t="str">
+        <f>B3</f>
+        <v>B3</v>
+      </c>
+      <c r="G50" s="1" t="str">
+        <f>C3</f>
+        <v>C3</v>
+      </c>
+      <c r="H50" s="1" t="str">
+        <f>D3</f>
+        <v>D3</v>
+      </c>
+      <c r="I50" s="1" t="str">
+        <f>E3</f>
+        <v>E3</v>
+      </c>
+      <c r="J50" s="1" t="str">
+        <f>B4</f>
+        <v>B4</v>
+      </c>
+      <c r="K50" s="1" t="str">
+        <f>C4</f>
+        <v>C4</v>
+      </c>
+      <c r="L50" s="1" t="str">
+        <f>D4</f>
+        <v>D4</v>
+      </c>
+      <c r="M50" s="1" t="str">
+        <f>E4</f>
+        <v>E4</v>
+      </c>
+      <c r="N50" s="1" t="str">
+        <f>B5</f>
+        <v>B5</v>
+      </c>
+      <c r="O50" s="1" t="str">
+        <f>C5</f>
+        <v>C5</v>
+      </c>
+      <c r="P50" s="1" t="str">
+        <f>D5</f>
+        <v>D5</v>
+      </c>
+      <c r="Q50" s="1" t="str">
+        <f>E5</f>
+        <v>E5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="1" t="str">
+        <f>B6</f>
+        <v>B6</v>
+      </c>
+      <c r="C51" s="1" t="str">
+        <f>C6</f>
+        <v>C6</v>
+      </c>
+      <c r="D51" s="1" t="str">
+        <f>D6</f>
+        <v>D6</v>
+      </c>
+      <c r="E51" s="1" t="str">
+        <f>E6</f>
+        <v>E6</v>
+      </c>
+      <c r="F51" s="1" t="str">
+        <f>B7</f>
+        <v>B7</v>
+      </c>
+      <c r="G51" s="1" t="str">
+        <f>C7</f>
+        <v>C7</v>
+      </c>
+      <c r="H51" s="1" t="str">
+        <f>D7</f>
+        <v>D7</v>
+      </c>
+      <c r="I51" s="1" t="str">
+        <f>E7</f>
+        <v>E7</v>
+      </c>
+      <c r="J51" s="1" t="str">
+        <f>B8</f>
+        <v>B8</v>
+      </c>
+      <c r="K51" s="1" t="str">
+        <f>C8</f>
+        <v>C8</v>
+      </c>
+      <c r="L51" s="1" t="str">
+        <f>D8</f>
+        <v>D8</v>
+      </c>
+      <c r="M51" s="1" t="str">
+        <f>E8</f>
+        <v>E8</v>
+      </c>
+      <c r="N51" s="1" t="str">
+        <f>B9</f>
+        <v>B9</v>
+      </c>
+      <c r="O51" s="1" t="str">
+        <f>C9</f>
+        <v>C9</v>
+      </c>
+      <c r="P51" s="1" t="str">
+        <f>D9</f>
+        <v>D9</v>
+      </c>
+      <c r="Q51" s="1" t="str">
+        <f>E9</f>
+        <v>E9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="1" t="str">
+        <f>B10</f>
+        <v>B10</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <f>C10</f>
+        <v>C10</v>
+      </c>
+      <c r="D52" s="1" t="str">
+        <f>D10</f>
+        <v>D10</v>
+      </c>
+      <c r="E52" s="1" t="str">
+        <f>E10</f>
+        <v>E10</v>
+      </c>
+      <c r="F52" s="1" t="str">
+        <f>B11</f>
+        <v>B11</v>
+      </c>
+      <c r="G52" s="1" t="str">
+        <f>C11</f>
+        <v>C11</v>
+      </c>
+      <c r="H52" s="1" t="str">
+        <f>D11</f>
+        <v>D11</v>
+      </c>
+      <c r="I52" s="1" t="str">
+        <f>E11</f>
+        <v>E11</v>
+      </c>
+      <c r="J52" s="1" t="str">
+        <f>B12</f>
+        <v>B12</v>
+      </c>
+      <c r="K52" s="1" t="str">
+        <f>C12</f>
+        <v>C12</v>
+      </c>
+      <c r="L52" s="1" t="str">
+        <f>D12</f>
+        <v>D12</v>
+      </c>
+      <c r="M52" s="1" t="str">
+        <f>E12</f>
+        <v>E12</v>
+      </c>
+      <c r="N52" s="1" t="str">
+        <f>B13</f>
+        <v>B13</v>
+      </c>
+      <c r="O52" s="1" t="str">
+        <f>C13</f>
+        <v>C13</v>
+      </c>
+      <c r="P52" s="1" t="str">
+        <f>D13</f>
+        <v>D13</v>
+      </c>
+      <c r="Q52" s="1" t="str">
+        <f>E13</f>
+        <v>E13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A53" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1" t="str">
+        <f>B14</f>
+        <v>B14</v>
+      </c>
+      <c r="C53" s="1" t="str">
+        <f>C14</f>
+        <v>C14</v>
+      </c>
+      <c r="D53" s="1" t="str">
+        <f>D14</f>
+        <v>D14</v>
+      </c>
+      <c r="E53" s="1" t="str">
+        <f>E14</f>
+        <v>E14</v>
+      </c>
+      <c r="F53" s="1" t="str">
+        <f>B15</f>
+        <v>B15</v>
+      </c>
+      <c r="G53" s="1" t="str">
+        <f>C15</f>
+        <v>C15</v>
+      </c>
+      <c r="H53" s="1" t="str">
+        <f>D15</f>
+        <v>D15</v>
+      </c>
+      <c r="I53" s="1" t="str">
+        <f>E15</f>
+        <v>E15</v>
+      </c>
+      <c r="J53" s="1" t="str">
+        <f>B16</f>
+        <v>B16</v>
+      </c>
+      <c r="K53" s="1" t="str">
+        <f>C16</f>
+        <v>C16</v>
+      </c>
+      <c r="L53" s="1" t="str">
+        <f>D16</f>
+        <v>D16</v>
+      </c>
+      <c r="M53" s="1" t="str">
+        <f>E16</f>
+        <v>E16</v>
+      </c>
+      <c r="N53" s="1" t="str">
+        <f>B17</f>
+        <v>B17</v>
+      </c>
+      <c r="O53" s="1" t="str">
+        <f>C17</f>
+        <v>C17</v>
+      </c>
+      <c r="P53" s="1" t="str">
+        <f>D17</f>
+        <v>D17</v>
+      </c>
+      <c r="Q53" s="1" t="str">
+        <f>E17</f>
+        <v>E17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A54" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="1" t="str">
+        <f>F2</f>
+        <v>F2</v>
+      </c>
+      <c r="C54" s="1" t="str">
+        <f>G2</f>
+        <v>G2</v>
+      </c>
+      <c r="D54" s="1" t="str">
+        <f>H2</f>
+        <v>H2</v>
+      </c>
+      <c r="E54" s="1" t="str">
+        <f>I2</f>
+        <v>I2</v>
+      </c>
+      <c r="F54" s="1" t="str">
+        <f>F3</f>
+        <v>F3</v>
+      </c>
+      <c r="G54" s="1" t="str">
+        <f>G3</f>
+        <v>G3</v>
+      </c>
+      <c r="H54" s="1" t="str">
+        <f>H3</f>
+        <v>H3</v>
+      </c>
+      <c r="I54" s="1" t="str">
+        <f>I3</f>
+        <v>I3</v>
+      </c>
+      <c r="J54" s="1" t="str">
+        <f>F4</f>
+        <v>F4</v>
+      </c>
+      <c r="K54" s="1" t="str">
+        <f>G4</f>
+        <v>G4</v>
+      </c>
+      <c r="L54" s="1" t="str">
+        <f>H4</f>
+        <v>H4</v>
+      </c>
+      <c r="M54" s="1" t="str">
+        <f>I4</f>
+        <v>I4</v>
+      </c>
+      <c r="N54" s="1" t="str">
+        <f>F5</f>
+        <v>F5</v>
+      </c>
+      <c r="O54" s="1" t="str">
+        <f>G5</f>
+        <v>G5</v>
+      </c>
+      <c r="P54" s="1" t="str">
+        <f>H5</f>
+        <v>H5</v>
+      </c>
+      <c r="Q54" s="1" t="str">
+        <f>I5</f>
+        <v>I5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A55" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="1" t="str">
+        <f>F6</f>
+        <v>F6</v>
+      </c>
+      <c r="C55" s="1" t="str">
+        <f>G6</f>
+        <v>G6</v>
+      </c>
+      <c r="D55" s="1" t="str">
+        <f>H6</f>
+        <v>H6</v>
+      </c>
+      <c r="E55" s="1" t="str">
+        <f>I6</f>
+        <v>I6</v>
+      </c>
+      <c r="F55" s="1" t="str">
+        <f>F7</f>
+        <v>F7</v>
+      </c>
+      <c r="G55" s="1" t="str">
+        <f>G7</f>
+        <v>G7</v>
+      </c>
+      <c r="H55" s="1" t="str">
+        <f>H7</f>
+        <v>H7</v>
+      </c>
+      <c r="I55" s="1" t="str">
+        <f>I7</f>
+        <v>I7</v>
+      </c>
+      <c r="J55" s="1" t="str">
+        <f>F8</f>
+        <v>F8</v>
+      </c>
+      <c r="K55" s="1" t="str">
+        <f>G8</f>
+        <v>G8</v>
+      </c>
+      <c r="L55" s="1" t="str">
+        <f>H8</f>
+        <v>H8</v>
+      </c>
+      <c r="M55" s="1" t="str">
+        <f>I8</f>
+        <v>I8</v>
+      </c>
+      <c r="N55" s="1" t="str">
+        <f>F9</f>
+        <v>F9</v>
+      </c>
+      <c r="O55" s="1" t="str">
+        <f>G9</f>
+        <v>G9</v>
+      </c>
+      <c r="P55" s="1" t="str">
+        <f>H9</f>
+        <v>H9</v>
+      </c>
+      <c r="Q55" s="1" t="str">
+        <f>I9</f>
+        <v>I9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A56" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="1" t="str">
+        <f>F10</f>
+        <v>F10</v>
+      </c>
+      <c r="C56" s="1" t="str">
+        <f>G10</f>
+        <v>G10</v>
+      </c>
+      <c r="D56" s="1" t="str">
+        <f>H10</f>
+        <v>H10</v>
+      </c>
+      <c r="E56" s="1" t="str">
+        <f>I10</f>
+        <v>I10</v>
+      </c>
+      <c r="F56" s="1" t="str">
+        <f>F11</f>
+        <v>F11</v>
+      </c>
+      <c r="G56" s="1" t="str">
+        <f>G11</f>
+        <v>G11</v>
+      </c>
+      <c r="H56" s="1" t="str">
+        <f>H11</f>
+        <v>H11</v>
+      </c>
+      <c r="I56" s="1" t="str">
+        <f>I11</f>
+        <v>I11</v>
+      </c>
+      <c r="J56" s="1" t="str">
+        <f>F12</f>
+        <v>F12</v>
+      </c>
+      <c r="K56" s="1" t="str">
+        <f>G12</f>
+        <v>G12</v>
+      </c>
+      <c r="L56" s="1" t="str">
+        <f>H12</f>
+        <v>H12</v>
+      </c>
+      <c r="M56" s="1" t="str">
+        <f>I12</f>
+        <v>I12</v>
+      </c>
+      <c r="N56" s="1" t="str">
+        <f>F13</f>
+        <v>F13</v>
+      </c>
+      <c r="O56" s="1" t="str">
+        <f>G13</f>
+        <v>G13</v>
+      </c>
+      <c r="P56" s="1" t="str">
+        <f>H13</f>
+        <v>H13</v>
+      </c>
+      <c r="Q56" s="1" t="str">
+        <f>I13</f>
+        <v>I13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A57" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="1" t="str">
+        <f>F14</f>
+        <v>F14</v>
+      </c>
+      <c r="C57" s="1" t="str">
+        <f>G14</f>
+        <v>G14</v>
+      </c>
+      <c r="D57" s="1" t="str">
+        <f>H14</f>
+        <v>H14</v>
+      </c>
+      <c r="E57" s="1" t="str">
+        <f>I14</f>
+        <v>I14</v>
+      </c>
+      <c r="F57" s="1" t="str">
+        <f>F15</f>
+        <v>F15</v>
+      </c>
+      <c r="G57" s="1" t="str">
+        <f>G15</f>
+        <v>G15</v>
+      </c>
+      <c r="H57" s="1" t="str">
+        <f>H15</f>
+        <v>H15</v>
+      </c>
+      <c r="I57" s="1" t="str">
+        <f>I15</f>
+        <v>I15</v>
+      </c>
+      <c r="J57" s="1" t="str">
+        <f>F16</f>
+        <v>F16</v>
+      </c>
+      <c r="K57" s="1" t="str">
+        <f>G16</f>
+        <v>G16</v>
+      </c>
+      <c r="L57" s="1" t="str">
+        <f>H16</f>
+        <v>H16</v>
+      </c>
+      <c r="M57" s="1" t="str">
+        <f>I16</f>
+        <v>I16</v>
+      </c>
+      <c r="N57" s="1" t="str">
+        <f>F17</f>
+        <v>F17</v>
+      </c>
+      <c r="O57" s="1" t="str">
+        <f>G17</f>
+        <v>G17</v>
+      </c>
+      <c r="P57" s="1" t="str">
+        <f>H17</f>
+        <v>H17</v>
+      </c>
+      <c r="Q57" s="1" t="str">
+        <f>I17</f>
+        <v>I17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A58" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="1" t="str">
+        <f>J2</f>
+        <v>J2</v>
+      </c>
+      <c r="C58" s="1" t="str">
+        <f>K2</f>
+        <v>K2</v>
+      </c>
+      <c r="D58" s="1" t="str">
+        <f>L2</f>
+        <v>L2</v>
+      </c>
+      <c r="E58" s="1" t="str">
+        <f>M2</f>
+        <v>M2</v>
+      </c>
+      <c r="F58" s="1" t="str">
+        <f>J3</f>
+        <v>J3</v>
+      </c>
+      <c r="G58" s="1" t="str">
+        <f>K3</f>
+        <v>K3</v>
+      </c>
+      <c r="H58" s="1" t="str">
+        <f>L3</f>
+        <v>L3</v>
+      </c>
+      <c r="I58" s="1" t="str">
+        <f>M3</f>
+        <v>M3</v>
+      </c>
+      <c r="J58" s="1" t="str">
+        <f>J4</f>
+        <v>J4</v>
+      </c>
+      <c r="K58" s="1" t="str">
+        <f>K4</f>
+        <v>K4</v>
+      </c>
+      <c r="L58" s="1" t="str">
+        <f>L4</f>
+        <v>L4</v>
+      </c>
+      <c r="M58" s="1" t="str">
+        <f>M4</f>
+        <v>M4</v>
+      </c>
+      <c r="N58" s="1" t="str">
+        <f>J5</f>
+        <v>J5</v>
+      </c>
+      <c r="O58" s="1" t="str">
+        <f>K5</f>
+        <v>K5</v>
+      </c>
+      <c r="P58" s="1" t="str">
+        <f>L5</f>
+        <v>L5</v>
+      </c>
+      <c r="Q58" s="1" t="str">
+        <f>M5</f>
+        <v>M5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="1" t="str">
+        <f>J6</f>
+        <v>J6</v>
+      </c>
+      <c r="C59" s="1" t="str">
+        <f>K6</f>
+        <v>K6</v>
+      </c>
+      <c r="D59" s="1" t="str">
+        <f>L6</f>
+        <v>L6</v>
+      </c>
+      <c r="E59" s="1" t="str">
+        <f>M6</f>
+        <v>M6</v>
+      </c>
+      <c r="F59" s="1" t="str">
+        <f>J7</f>
+        <v>J7</v>
+      </c>
+      <c r="G59" s="1" t="str">
+        <f>K7</f>
+        <v>K7</v>
+      </c>
+      <c r="H59" s="1" t="str">
+        <f>L7</f>
+        <v>L7</v>
+      </c>
+      <c r="I59" s="1" t="str">
+        <f>M7</f>
+        <v>M7</v>
+      </c>
+      <c r="J59" s="1" t="str">
+        <f>J8</f>
+        <v>J8</v>
+      </c>
+      <c r="K59" s="1" t="str">
+        <f>K8</f>
+        <v>K8</v>
+      </c>
+      <c r="L59" s="1" t="str">
+        <f>L8</f>
+        <v>L8</v>
+      </c>
+      <c r="M59" s="1" t="str">
+        <f>M8</f>
+        <v>M8</v>
+      </c>
+      <c r="N59" s="1" t="str">
+        <f>J9</f>
+        <v>J9</v>
+      </c>
+      <c r="O59" s="1" t="str">
+        <f>K9</f>
+        <v>K9</v>
+      </c>
+      <c r="P59" s="1" t="str">
+        <f>L9</f>
+        <v>L9</v>
+      </c>
+      <c r="Q59" s="1" t="str">
+        <f>M9</f>
+        <v>M9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A60" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="1" t="str">
+        <f>J10</f>
+        <v>J10</v>
+      </c>
+      <c r="C60" s="1" t="str">
+        <f>K10</f>
+        <v>K10</v>
+      </c>
+      <c r="D60" s="1" t="str">
+        <f>L10</f>
+        <v>L10</v>
+      </c>
+      <c r="E60" s="1" t="str">
+        <f>M10</f>
+        <v>M10</v>
+      </c>
+      <c r="F60" s="1" t="str">
+        <f>J11</f>
+        <v>J11</v>
+      </c>
+      <c r="G60" s="1" t="str">
+        <f>K11</f>
+        <v>K11</v>
+      </c>
+      <c r="H60" s="1" t="str">
+        <f>L11</f>
+        <v>L11</v>
+      </c>
+      <c r="I60" s="1" t="str">
+        <f>M11</f>
+        <v>M11</v>
+      </c>
+      <c r="J60" s="1" t="str">
+        <f>J12</f>
+        <v>J12</v>
+      </c>
+      <c r="K60" s="1" t="str">
+        <f>K12</f>
+        <v>K12</v>
+      </c>
+      <c r="L60" s="1" t="str">
+        <f>L12</f>
+        <v>L12</v>
+      </c>
+      <c r="M60" s="1" t="str">
+        <f>M12</f>
+        <v>M12</v>
+      </c>
+      <c r="N60" s="1" t="str">
+        <f>J13</f>
+        <v>J13</v>
+      </c>
+      <c r="O60" s="1" t="str">
+        <f>K13</f>
+        <v>K13</v>
+      </c>
+      <c r="P60" s="1" t="str">
+        <f>L13</f>
+        <v>L13</v>
+      </c>
+      <c r="Q60" s="1" t="str">
+        <f>M13</f>
+        <v>M13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A61" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="1" t="str">
+        <f>J14</f>
+        <v>J14</v>
+      </c>
+      <c r="C61" s="1" t="str">
+        <f>K14</f>
+        <v>K14</v>
+      </c>
+      <c r="D61" s="1" t="str">
+        <f>L14</f>
+        <v>L14</v>
+      </c>
+      <c r="E61" s="1" t="str">
+        <f>M14</f>
+        <v>M14</v>
+      </c>
+      <c r="F61" s="1" t="str">
+        <f>J15</f>
+        <v>J15</v>
+      </c>
+      <c r="G61" s="1" t="str">
+        <f>K15</f>
+        <v>K15</v>
+      </c>
+      <c r="H61" s="1" t="str">
+        <f>L15</f>
+        <v>L15</v>
+      </c>
+      <c r="I61" s="1" t="str">
+        <f>M15</f>
+        <v>M15</v>
+      </c>
+      <c r="J61" s="1" t="str">
+        <f>J16</f>
+        <v>J16</v>
+      </c>
+      <c r="K61" s="1" t="str">
+        <f>K16</f>
+        <v>K16</v>
+      </c>
+      <c r="L61" s="1" t="str">
+        <f>L16</f>
+        <v>L16</v>
+      </c>
+      <c r="M61" s="1" t="str">
+        <f>M16</f>
+        <v>M16</v>
+      </c>
+      <c r="N61" s="1" t="str">
+        <f>J17</f>
+        <v>J17</v>
+      </c>
+      <c r="O61" s="1" t="str">
+        <f>K17</f>
+        <v>K17</v>
+      </c>
+      <c r="P61" s="1" t="str">
+        <f>L17</f>
+        <v>L17</v>
+      </c>
+      <c r="Q61" s="1" t="str">
+        <f>M17</f>
+        <v>M17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A62" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="1" t="str">
+        <f>N2</f>
+        <v>N2</v>
+      </c>
+      <c r="C62" s="1" t="str">
+        <f>O2</f>
+        <v>O2</v>
+      </c>
+      <c r="D62" s="1" t="str">
+        <f>P2</f>
+        <v>P2</v>
+      </c>
+      <c r="E62" s="1" t="str">
+        <f>Q2</f>
+        <v>Q2</v>
+      </c>
+      <c r="F62" s="1" t="str">
+        <f>N3</f>
+        <v>N3</v>
+      </c>
+      <c r="G62" s="1" t="str">
+        <f>O3</f>
+        <v>O3</v>
+      </c>
+      <c r="H62" s="1" t="str">
+        <f>P3</f>
+        <v>P3</v>
+      </c>
+      <c r="I62" s="1" t="str">
+        <f>Q3</f>
+        <v>Q3</v>
+      </c>
+      <c r="J62" s="1" t="str">
+        <f>N4</f>
+        <v>N4</v>
+      </c>
+      <c r="K62" s="1" t="str">
+        <f>O4</f>
+        <v>O4</v>
+      </c>
+      <c r="L62" s="1" t="str">
+        <f>P4</f>
+        <v>P4</v>
+      </c>
+      <c r="M62" s="1" t="str">
+        <f>Q4</f>
+        <v>Q4</v>
+      </c>
+      <c r="N62" s="1" t="str">
+        <f>N5</f>
+        <v>N5</v>
+      </c>
+      <c r="O62" s="1" t="str">
+        <f>O5</f>
+        <v>O5</v>
+      </c>
+      <c r="P62" s="1" t="str">
+        <f>P5</f>
+        <v>P5</v>
+      </c>
+      <c r="Q62" s="1" t="str">
+        <f>Q5</f>
+        <v>Q5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A63" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="1" t="str">
+        <f>N6</f>
+        <v>N6</v>
+      </c>
+      <c r="C63" s="1" t="str">
+        <f>O6</f>
+        <v>O6</v>
+      </c>
+      <c r="D63" s="1" t="str">
+        <f>P6</f>
+        <v>P6</v>
+      </c>
+      <c r="E63" s="1" t="str">
+        <f>Q6</f>
+        <v>Q6</v>
+      </c>
+      <c r="F63" s="1" t="str">
+        <f>N7</f>
+        <v>N7</v>
+      </c>
+      <c r="G63" s="1" t="str">
+        <f>O7</f>
+        <v>O7</v>
+      </c>
+      <c r="H63" s="1" t="str">
+        <f>P7</f>
+        <v>P7</v>
+      </c>
+      <c r="I63" s="1" t="str">
+        <f>Q7</f>
+        <v>Q7</v>
+      </c>
+      <c r="J63" s="1" t="str">
+        <f>N8</f>
+        <v>N8</v>
+      </c>
+      <c r="K63" s="1" t="str">
+        <f>O8</f>
+        <v>O8</v>
+      </c>
+      <c r="L63" s="1" t="str">
+        <f>P8</f>
+        <v>P8</v>
+      </c>
+      <c r="M63" s="1" t="str">
+        <f>Q8</f>
+        <v>Q8</v>
+      </c>
+      <c r="N63" s="1" t="str">
+        <f>N9</f>
+        <v>N9</v>
+      </c>
+      <c r="O63" s="1" t="str">
+        <f>O9</f>
+        <v>O9</v>
+      </c>
+      <c r="P63" s="1" t="str">
+        <f>P9</f>
+        <v>P9</v>
+      </c>
+      <c r="Q63" s="1" t="str">
+        <f>Q9</f>
+        <v>Q9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A64" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="1" t="str">
+        <f>N10</f>
+        <v>N10</v>
+      </c>
+      <c r="C64" s="1" t="str">
+        <f>O10</f>
+        <v>O10</v>
+      </c>
+      <c r="D64" s="1" t="str">
+        <f>P10</f>
+        <v>P10</v>
+      </c>
+      <c r="E64" s="1" t="str">
+        <f>Q10</f>
+        <v>Q10</v>
+      </c>
+      <c r="F64" s="1" t="str">
+        <f>N11</f>
+        <v>N11</v>
+      </c>
+      <c r="G64" s="1" t="str">
+        <f>O11</f>
+        <v>O11</v>
+      </c>
+      <c r="H64" s="1" t="str">
+        <f>P11</f>
+        <v>P11</v>
+      </c>
+      <c r="I64" s="1" t="str">
+        <f>Q11</f>
+        <v>Q11</v>
+      </c>
+      <c r="J64" s="1" t="str">
+        <f>N12</f>
+        <v>N12</v>
+      </c>
+      <c r="K64" s="1" t="str">
+        <f>O12</f>
+        <v>O12</v>
+      </c>
+      <c r="L64" s="1" t="str">
+        <f>P12</f>
+        <v>P12</v>
+      </c>
+      <c r="M64" s="1" t="str">
+        <f>Q12</f>
+        <v>Q12</v>
+      </c>
+      <c r="N64" s="1" t="str">
+        <f>N13</f>
+        <v>N13</v>
+      </c>
+      <c r="O64" s="1" t="str">
+        <f>O13</f>
+        <v>O13</v>
+      </c>
+      <c r="P64" s="1" t="str">
+        <f>P13</f>
+        <v>P13</v>
+      </c>
+      <c r="Q64" s="1" t="str">
+        <f>Q13</f>
+        <v>Q13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A65" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="1" t="str">
+        <f>N14</f>
+        <v>N14</v>
+      </c>
+      <c r="C65" s="1" t="str">
+        <f>O14</f>
+        <v>O14</v>
+      </c>
+      <c r="D65" s="1" t="str">
+        <f>P14</f>
+        <v>P14</v>
+      </c>
+      <c r="E65" s="1" t="str">
+        <f>Q14</f>
+        <v>Q14</v>
+      </c>
+      <c r="F65" s="1" t="str">
+        <f>N15</f>
+        <v>N15</v>
+      </c>
+      <c r="G65" s="1" t="str">
+        <f>O15</f>
+        <v>O15</v>
+      </c>
+      <c r="H65" s="1" t="str">
+        <f>P15</f>
+        <v>P15</v>
+      </c>
+      <c r="I65" s="1" t="str">
+        <f>Q15</f>
+        <v>Q15</v>
+      </c>
+      <c r="J65" s="1" t="str">
+        <f>N16</f>
+        <v>N16</v>
+      </c>
+      <c r="K65" s="1" t="str">
+        <f>O16</f>
+        <v>O16</v>
+      </c>
+      <c r="L65" s="1" t="str">
+        <f>P16</f>
+        <v>P16</v>
+      </c>
+      <c r="M65" s="1" t="str">
+        <f>Q16</f>
+        <v>Q16</v>
+      </c>
+      <c r="N65" s="1" t="str">
+        <f>N17</f>
+        <v>N17</v>
+      </c>
+      <c r="O65" s="1" t="str">
+        <f>O17</f>
+        <v>O17</v>
+      </c>
+      <c r="P65" s="1" t="str">
+        <f>P17</f>
+        <v>P17</v>
+      </c>
+      <c r="Q65" s="1" t="str">
+        <f>Q17</f>
+        <v>Q17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A66" s="11"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A67" s="11"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A68" s="11"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A69" s="11"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A70" s="11"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A71" s="11"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A72" s="11"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A73" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" alignment="center"/>

--- a/numbers/template.xlsx
+++ b/numbers/template.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{5368FEF9-56DE-A444-9520-CBB303A26FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{43F9EC59-3F60-1B4B-88A8-D0A38DB79179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3x3" sheetId="2" r:id="rId1"/>
     <sheet name="3x4" sheetId="12" r:id="rId2"/>
     <sheet name="4x4" sheetId="11" r:id="rId3"/>
+    <sheet name="3x3x3" sheetId="14" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="304">
   <si>
     <t>T</t>
   </si>
@@ -807,6 +808,141 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>B18</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>E18</t>
+  </si>
+  <si>
+    <t>F18</t>
+  </si>
+  <si>
+    <t>G18</t>
+  </si>
+  <si>
+    <t>H18</t>
+  </si>
+  <si>
+    <t>I18</t>
+  </si>
+  <si>
+    <t>J18</t>
+  </si>
+  <si>
+    <t>B19</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>D19</t>
+  </si>
+  <si>
+    <t>E19</t>
+  </si>
+  <si>
+    <t>F19</t>
+  </si>
+  <si>
+    <t>G19</t>
+  </si>
+  <si>
+    <t>H19</t>
+  </si>
+  <si>
+    <t>I19</t>
+  </si>
+  <si>
+    <t>J19</t>
+  </si>
+  <si>
+    <t>B20</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>E20</t>
+  </si>
+  <si>
+    <t>F20</t>
+  </si>
+  <si>
+    <t>G20</t>
+  </si>
+  <si>
+    <t>H20</t>
+  </si>
+  <si>
+    <t>I20</t>
+  </si>
+  <si>
+    <t>J20</t>
+  </si>
+  <si>
+    <t>B21</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>D21</t>
+  </si>
+  <si>
+    <t>E21</t>
+  </si>
+  <si>
+    <t>F21</t>
+  </si>
+  <si>
+    <t>G21</t>
+  </si>
+  <si>
+    <t>H21</t>
+  </si>
+  <si>
+    <t>I21</t>
+  </si>
+  <si>
+    <t>J21</t>
+  </si>
+  <si>
+    <t>B22</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>D22</t>
+  </si>
+  <si>
+    <t>E22</t>
+  </si>
+  <si>
+    <t>F22</t>
+  </si>
+  <si>
+    <t>G22</t>
+  </si>
+  <si>
+    <t>H22</t>
+  </si>
+  <si>
+    <t>I22</t>
+  </si>
+  <si>
+    <t>J22</t>
   </si>
 </sst>
 </file>
@@ -992,7 +1128,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1054,6 +1190,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2796,7 +2935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F735F4-EEBF-2E48-8A18-F13F826D99ED}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -9273,4 +9412,4152 @@
   <phoneticPr fontId="1" alignment="center"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940D0C8F-D17D-644B-A595-08AF354865BD}">
+  <dimension ref="A1:P103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G86" sqref="G86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.18359375" style="1" customWidth="1"/>
+    <col min="2" max="16" width="4.04296875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.82421875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <f>B2</f>
+        <v>B2</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f t="shared" ref="C23:J23" si="0">C2</f>
+        <v>C2</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>D2</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>E2</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>F2</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>G2</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>H2</v>
+      </c>
+      <c r="I23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>I2</v>
+      </c>
+      <c r="J23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>J2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <f t="shared" ref="B24:J31" si="1">B3</f>
+        <v>B3</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>C3</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>D3</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>E3</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F3</v>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>G3</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>H3</v>
+      </c>
+      <c r="I24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>I3</v>
+      </c>
+      <c r="J24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>J3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>B4</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>C4</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>D4</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>E4</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F4</v>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>G4</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>H4</v>
+      </c>
+      <c r="I25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>I4</v>
+      </c>
+      <c r="J25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>J4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>B5</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>C5</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>D5</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>E5</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F5</v>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>G5</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>H5</v>
+      </c>
+      <c r="I26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>I5</v>
+      </c>
+      <c r="J26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>J5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>B6</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>C6</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>D6</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>E6</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F6</v>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>G6</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>H6</v>
+      </c>
+      <c r="I27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>I6</v>
+      </c>
+      <c r="J27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>J6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>B7</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>C7</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>D7</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>E7</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F7</v>
+      </c>
+      <c r="G28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>G7</v>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>H7</v>
+      </c>
+      <c r="I28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>I7</v>
+      </c>
+      <c r="J28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>J7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>B8</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>C8</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>D8</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>E8</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F8</v>
+      </c>
+      <c r="G29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>G8</v>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>H8</v>
+      </c>
+      <c r="I29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>I8</v>
+      </c>
+      <c r="J29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>J8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>B9</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>C9</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>D9</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>E9</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F9</v>
+      </c>
+      <c r="G30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>G9</v>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>H9</v>
+      </c>
+      <c r="I30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>I9</v>
+      </c>
+      <c r="J30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>J9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>B10</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>C10</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>D10</v>
+      </c>
+      <c r="E31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>E10</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F10</v>
+      </c>
+      <c r="G31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>G10</v>
+      </c>
+      <c r="H31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>H10</v>
+      </c>
+      <c r="I31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>I10</v>
+      </c>
+      <c r="J31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>J10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="str">
+        <f>B2</f>
+        <v>B2</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f>B3</f>
+        <v>B3</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f>B4</f>
+        <v>B4</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <f>B5</f>
+        <v>B5</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <f>B6</f>
+        <v>B6</v>
+      </c>
+      <c r="G32" s="1" t="str">
+        <f>B7</f>
+        <v>B7</v>
+      </c>
+      <c r="H32" s="1" t="str">
+        <f>B8</f>
+        <v>B8</v>
+      </c>
+      <c r="I32" s="1" t="str">
+        <f>B9</f>
+        <v>B9</v>
+      </c>
+      <c r="J32" s="1" t="str">
+        <f>B10</f>
+        <v>B10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="str">
+        <f>C2</f>
+        <v>C2</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <f>C3</f>
+        <v>C3</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f>C4</f>
+        <v>C4</v>
+      </c>
+      <c r="E33" s="1" t="str">
+        <f>C5</f>
+        <v>C5</v>
+      </c>
+      <c r="F33" s="1" t="str">
+        <f>C6</f>
+        <v>C6</v>
+      </c>
+      <c r="G33" s="1" t="str">
+        <f>C7</f>
+        <v>C7</v>
+      </c>
+      <c r="H33" s="1" t="str">
+        <f>C8</f>
+        <v>C8</v>
+      </c>
+      <c r="I33" s="1" t="str">
+        <f>C9</f>
+        <v>C9</v>
+      </c>
+      <c r="J33" s="1" t="str">
+        <f>C10</f>
+        <v>C10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1" t="str">
+        <f>D2</f>
+        <v>D2</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f>D3</f>
+        <v>D3</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f>D4</f>
+        <v>D4</v>
+      </c>
+      <c r="E34" s="1" t="str">
+        <f>D5</f>
+        <v>D5</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <f>D6</f>
+        <v>D6</v>
+      </c>
+      <c r="G34" s="1" t="str">
+        <f>D7</f>
+        <v>D7</v>
+      </c>
+      <c r="H34" s="1" t="str">
+        <f>D8</f>
+        <v>D8</v>
+      </c>
+      <c r="I34" s="1" t="str">
+        <f>D9</f>
+        <v>D9</v>
+      </c>
+      <c r="J34" s="1" t="str">
+        <f>D10</f>
+        <v>D10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="str">
+        <f>E2</f>
+        <v>E2</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f>E3</f>
+        <v>E3</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <f>E4</f>
+        <v>E4</v>
+      </c>
+      <c r="E35" s="1" t="str">
+        <f>E5</f>
+        <v>E5</v>
+      </c>
+      <c r="F35" s="1" t="str">
+        <f>E6</f>
+        <v>E6</v>
+      </c>
+      <c r="G35" s="1" t="str">
+        <f>E7</f>
+        <v>E7</v>
+      </c>
+      <c r="H35" s="1" t="str">
+        <f>E8</f>
+        <v>E8</v>
+      </c>
+      <c r="I35" s="1" t="str">
+        <f>E9</f>
+        <v>E9</v>
+      </c>
+      <c r="J35" s="1" t="str">
+        <f>E10</f>
+        <v>E10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="str">
+        <f>F2</f>
+        <v>F2</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f>F3</f>
+        <v>F3</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <f>F4</f>
+        <v>F4</v>
+      </c>
+      <c r="E36" s="1" t="str">
+        <f>F5</f>
+        <v>F5</v>
+      </c>
+      <c r="F36" s="1" t="str">
+        <f>F6</f>
+        <v>F6</v>
+      </c>
+      <c r="G36" s="1" t="str">
+        <f>F7</f>
+        <v>F7</v>
+      </c>
+      <c r="H36" s="1" t="str">
+        <f>F8</f>
+        <v>F8</v>
+      </c>
+      <c r="I36" s="1" t="str">
+        <f>F9</f>
+        <v>F9</v>
+      </c>
+      <c r="J36" s="1" t="str">
+        <f>F10</f>
+        <v>F10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="str">
+        <f>G2</f>
+        <v>G2</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <f>G3</f>
+        <v>G3</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <f>G4</f>
+        <v>G4</v>
+      </c>
+      <c r="E37" s="1" t="str">
+        <f>G5</f>
+        <v>G5</v>
+      </c>
+      <c r="F37" s="1" t="str">
+        <f>G6</f>
+        <v>G6</v>
+      </c>
+      <c r="G37" s="1" t="str">
+        <f>G7</f>
+        <v>G7</v>
+      </c>
+      <c r="H37" s="1" t="str">
+        <f>G8</f>
+        <v>G8</v>
+      </c>
+      <c r="I37" s="1" t="str">
+        <f>G9</f>
+        <v>G9</v>
+      </c>
+      <c r="J37" s="1" t="str">
+        <f>G10</f>
+        <v>G10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1" t="str">
+        <f>H2</f>
+        <v>H2</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f>H3</f>
+        <v>H3</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <f>H4</f>
+        <v>H4</v>
+      </c>
+      <c r="E38" s="1" t="str">
+        <f>H5</f>
+        <v>H5</v>
+      </c>
+      <c r="F38" s="1" t="str">
+        <f>H6</f>
+        <v>H6</v>
+      </c>
+      <c r="G38" s="1" t="str">
+        <f>H7</f>
+        <v>H7</v>
+      </c>
+      <c r="H38" s="1" t="str">
+        <f>H8</f>
+        <v>H8</v>
+      </c>
+      <c r="I38" s="1" t="str">
+        <f>H9</f>
+        <v>H9</v>
+      </c>
+      <c r="J38" s="1" t="str">
+        <f>H10</f>
+        <v>H10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1" t="str">
+        <f>I2</f>
+        <v>I2</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <f>I3</f>
+        <v>I3</v>
+      </c>
+      <c r="D39" s="1" t="str">
+        <f>I4</f>
+        <v>I4</v>
+      </c>
+      <c r="E39" s="1" t="str">
+        <f>I5</f>
+        <v>I5</v>
+      </c>
+      <c r="F39" s="1" t="str">
+        <f>I6</f>
+        <v>I6</v>
+      </c>
+      <c r="G39" s="1" t="str">
+        <f>I7</f>
+        <v>I7</v>
+      </c>
+      <c r="H39" s="1" t="str">
+        <f>I8</f>
+        <v>I8</v>
+      </c>
+      <c r="I39" s="1" t="str">
+        <f>I9</f>
+        <v>I9</v>
+      </c>
+      <c r="J39" s="1" t="str">
+        <f>I10</f>
+        <v>I10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1" t="str">
+        <f>J2</f>
+        <v>J2</v>
+      </c>
+      <c r="C40" s="1" t="str">
+        <f>J3</f>
+        <v>J3</v>
+      </c>
+      <c r="D40" s="1" t="str">
+        <f>J4</f>
+        <v>J4</v>
+      </c>
+      <c r="E40" s="1" t="str">
+        <f>J5</f>
+        <v>J5</v>
+      </c>
+      <c r="F40" s="1" t="str">
+        <f>J6</f>
+        <v>J6</v>
+      </c>
+      <c r="G40" s="1" t="str">
+        <f>J7</f>
+        <v>J7</v>
+      </c>
+      <c r="H40" s="1" t="str">
+        <f>J8</f>
+        <v>J8</v>
+      </c>
+      <c r="I40" s="1" t="str">
+        <f>J9</f>
+        <v>J9</v>
+      </c>
+      <c r="J40" s="1" t="str">
+        <f>J10</f>
+        <v>J10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1" t="str">
+        <f>B2</f>
+        <v>B2</v>
+      </c>
+      <c r="C41" s="1" t="str">
+        <f>C2</f>
+        <v>C2</v>
+      </c>
+      <c r="D41" s="1" t="str">
+        <f>D2</f>
+        <v>D2</v>
+      </c>
+      <c r="E41" s="1" t="str">
+        <f>B3</f>
+        <v>B3</v>
+      </c>
+      <c r="F41" s="1" t="str">
+        <f>C3</f>
+        <v>C3</v>
+      </c>
+      <c r="G41" s="1" t="str">
+        <f>D3</f>
+        <v>D3</v>
+      </c>
+      <c r="H41" s="1" t="str">
+        <f>B4</f>
+        <v>B4</v>
+      </c>
+      <c r="I41" s="1" t="str">
+        <f>C4</f>
+        <v>C4</v>
+      </c>
+      <c r="J41" s="1" t="str">
+        <f>D4</f>
+        <v>D4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1" t="str">
+        <f>B5</f>
+        <v>B5</v>
+      </c>
+      <c r="C42" s="1" t="str">
+        <f>C5</f>
+        <v>C5</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <f>D5</f>
+        <v>D5</v>
+      </c>
+      <c r="E42" s="1" t="str">
+        <f>B6</f>
+        <v>B6</v>
+      </c>
+      <c r="F42" s="1" t="str">
+        <f>C6</f>
+        <v>C6</v>
+      </c>
+      <c r="G42" s="1" t="str">
+        <f>D6</f>
+        <v>D6</v>
+      </c>
+      <c r="H42" s="1" t="str">
+        <f>B7</f>
+        <v>B7</v>
+      </c>
+      <c r="I42" s="1" t="str">
+        <f>C7</f>
+        <v>C7</v>
+      </c>
+      <c r="J42" s="1" t="str">
+        <f>D7</f>
+        <v>D7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1" t="str">
+        <f>B8</f>
+        <v>B8</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <f>C8</f>
+        <v>C8</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <f>D8</f>
+        <v>D8</v>
+      </c>
+      <c r="E43" s="1" t="str">
+        <f>B9</f>
+        <v>B9</v>
+      </c>
+      <c r="F43" s="1" t="str">
+        <f>C9</f>
+        <v>C9</v>
+      </c>
+      <c r="G43" s="1" t="str">
+        <f>D9</f>
+        <v>D9</v>
+      </c>
+      <c r="H43" s="1" t="str">
+        <f>B10</f>
+        <v>B10</v>
+      </c>
+      <c r="I43" s="1" t="str">
+        <f>C10</f>
+        <v>C10</v>
+      </c>
+      <c r="J43" s="1" t="str">
+        <f>D10</f>
+        <v>D10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1" t="str">
+        <f>E2</f>
+        <v>E2</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <f>F2</f>
+        <v>F2</v>
+      </c>
+      <c r="D44" s="1" t="str">
+        <f>G2</f>
+        <v>G2</v>
+      </c>
+      <c r="E44" s="1" t="str">
+        <f>E3</f>
+        <v>E3</v>
+      </c>
+      <c r="F44" s="1" t="str">
+        <f>F3</f>
+        <v>F3</v>
+      </c>
+      <c r="G44" s="1" t="str">
+        <f>G3</f>
+        <v>G3</v>
+      </c>
+      <c r="H44" s="1" t="str">
+        <f>E4</f>
+        <v>E4</v>
+      </c>
+      <c r="I44" s="1" t="str">
+        <f>F4</f>
+        <v>F4</v>
+      </c>
+      <c r="J44" s="1" t="str">
+        <f>G4</f>
+        <v>G4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1" t="str">
+        <f>E5</f>
+        <v>E5</v>
+      </c>
+      <c r="C45" s="1" t="str">
+        <f>F5</f>
+        <v>F5</v>
+      </c>
+      <c r="D45" s="1" t="str">
+        <f>G5</f>
+        <v>G5</v>
+      </c>
+      <c r="E45" s="1" t="str">
+        <f>E6</f>
+        <v>E6</v>
+      </c>
+      <c r="F45" s="1" t="str">
+        <f>F6</f>
+        <v>F6</v>
+      </c>
+      <c r="G45" s="1" t="str">
+        <f>G6</f>
+        <v>G6</v>
+      </c>
+      <c r="H45" s="1" t="str">
+        <f>E7</f>
+        <v>E7</v>
+      </c>
+      <c r="I45" s="1" t="str">
+        <f>F7</f>
+        <v>F7</v>
+      </c>
+      <c r="J45" s="1" t="str">
+        <f>G7</f>
+        <v>G7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1" t="str">
+        <f>E8</f>
+        <v>E8</v>
+      </c>
+      <c r="C46" s="1" t="str">
+        <f>F8</f>
+        <v>F8</v>
+      </c>
+      <c r="D46" s="1" t="str">
+        <f>G8</f>
+        <v>G8</v>
+      </c>
+      <c r="E46" s="1" t="str">
+        <f>E9</f>
+        <v>E9</v>
+      </c>
+      <c r="F46" s="1" t="str">
+        <f>F9</f>
+        <v>F9</v>
+      </c>
+      <c r="G46" s="1" t="str">
+        <f>G9</f>
+        <v>G9</v>
+      </c>
+      <c r="H46" s="1" t="str">
+        <f>E10</f>
+        <v>E10</v>
+      </c>
+      <c r="I46" s="1" t="str">
+        <f>F10</f>
+        <v>F10</v>
+      </c>
+      <c r="J46" s="1" t="str">
+        <f>G10</f>
+        <v>G10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1" t="str">
+        <f>H2</f>
+        <v>H2</v>
+      </c>
+      <c r="C47" s="1" t="str">
+        <f>I2</f>
+        <v>I2</v>
+      </c>
+      <c r="D47" s="1" t="str">
+        <f>J2</f>
+        <v>J2</v>
+      </c>
+      <c r="E47" s="1" t="str">
+        <f>H3</f>
+        <v>H3</v>
+      </c>
+      <c r="F47" s="1" t="str">
+        <f>I3</f>
+        <v>I3</v>
+      </c>
+      <c r="G47" s="1" t="str">
+        <f>J3</f>
+        <v>J3</v>
+      </c>
+      <c r="H47" s="1" t="str">
+        <f>H4</f>
+        <v>H4</v>
+      </c>
+      <c r="I47" s="1" t="str">
+        <f>I4</f>
+        <v>I4</v>
+      </c>
+      <c r="J47" s="1" t="str">
+        <f>J4</f>
+        <v>J4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="1" t="str">
+        <f>H5</f>
+        <v>H5</v>
+      </c>
+      <c r="C48" s="1" t="str">
+        <f>I5</f>
+        <v>I5</v>
+      </c>
+      <c r="D48" s="1" t="str">
+        <f>J5</f>
+        <v>J5</v>
+      </c>
+      <c r="E48" s="1" t="str">
+        <f>H6</f>
+        <v>H6</v>
+      </c>
+      <c r="F48" s="1" t="str">
+        <f>I6</f>
+        <v>I6</v>
+      </c>
+      <c r="G48" s="1" t="str">
+        <f>J6</f>
+        <v>J6</v>
+      </c>
+      <c r="H48" s="1" t="str">
+        <f>H7</f>
+        <v>H7</v>
+      </c>
+      <c r="I48" s="1" t="str">
+        <f>I7</f>
+        <v>I7</v>
+      </c>
+      <c r="J48" s="1" t="str">
+        <f>J7</f>
+        <v>J7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="1" t="str">
+        <f>H8</f>
+        <v>H8</v>
+      </c>
+      <c r="C49" s="1" t="str">
+        <f>I8</f>
+        <v>I8</v>
+      </c>
+      <c r="D49" s="1" t="str">
+        <f>J8</f>
+        <v>J8</v>
+      </c>
+      <c r="E49" s="1" t="str">
+        <f>H9</f>
+        <v>H9</v>
+      </c>
+      <c r="F49" s="1" t="str">
+        <f>I9</f>
+        <v>I9</v>
+      </c>
+      <c r="G49" s="1" t="str">
+        <f>J9</f>
+        <v>J9</v>
+      </c>
+      <c r="H49" s="1" t="str">
+        <f>H10</f>
+        <v>H10</v>
+      </c>
+      <c r="I49" s="1" t="str">
+        <f>I10</f>
+        <v>I10</v>
+      </c>
+      <c r="J49" s="1" t="str">
+        <f>J10</f>
+        <v>J10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="1" t="str">
+        <f>B14</f>
+        <v>B14</v>
+      </c>
+      <c r="C50" s="1" t="str">
+        <f>C14</f>
+        <v>C14</v>
+      </c>
+      <c r="D50" s="1" t="str">
+        <f>D14</f>
+        <v>D14</v>
+      </c>
+      <c r="E50" s="1" t="str">
+        <f>E14</f>
+        <v>E14</v>
+      </c>
+      <c r="F50" s="1" t="str">
+        <f>F14</f>
+        <v>F14</v>
+      </c>
+      <c r="G50" s="1" t="str">
+        <f>G14</f>
+        <v>G14</v>
+      </c>
+      <c r="H50" s="1" t="str">
+        <f>H14</f>
+        <v>H14</v>
+      </c>
+      <c r="I50" s="1" t="str">
+        <f>I14</f>
+        <v>I14</v>
+      </c>
+      <c r="J50" s="1" t="str">
+        <f>J14</f>
+        <v>J14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="1" t="str">
+        <f>B15</f>
+        <v>B15</v>
+      </c>
+      <c r="C51" s="1" t="str">
+        <f>C15</f>
+        <v>C15</v>
+      </c>
+      <c r="D51" s="1" t="str">
+        <f>D15</f>
+        <v>D15</v>
+      </c>
+      <c r="E51" s="1" t="str">
+        <f>E15</f>
+        <v>E15</v>
+      </c>
+      <c r="F51" s="1" t="str">
+        <f>F15</f>
+        <v>F15</v>
+      </c>
+      <c r="G51" s="1" t="str">
+        <f>G15</f>
+        <v>G15</v>
+      </c>
+      <c r="H51" s="1" t="str">
+        <f>H15</f>
+        <v>H15</v>
+      </c>
+      <c r="I51" s="1" t="str">
+        <f>I15</f>
+        <v>I15</v>
+      </c>
+      <c r="J51" s="1" t="str">
+        <f>J15</f>
+        <v>J15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="1" t="str">
+        <f>B16</f>
+        <v>B16</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <f>C16</f>
+        <v>C16</v>
+      </c>
+      <c r="D52" s="1" t="str">
+        <f>D16</f>
+        <v>D16</v>
+      </c>
+      <c r="E52" s="1" t="str">
+        <f>E16</f>
+        <v>E16</v>
+      </c>
+      <c r="F52" s="1" t="str">
+        <f>F16</f>
+        <v>F16</v>
+      </c>
+      <c r="G52" s="1" t="str">
+        <f>G16</f>
+        <v>G16</v>
+      </c>
+      <c r="H52" s="1" t="str">
+        <f>H16</f>
+        <v>H16</v>
+      </c>
+      <c r="I52" s="1" t="str">
+        <f>I16</f>
+        <v>I16</v>
+      </c>
+      <c r="J52" s="1" t="str">
+        <f>J16</f>
+        <v>J16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1" t="str">
+        <f>B17</f>
+        <v>B17</v>
+      </c>
+      <c r="C53" s="1" t="str">
+        <f>C17</f>
+        <v>C17</v>
+      </c>
+      <c r="D53" s="1" t="str">
+        <f>D17</f>
+        <v>D17</v>
+      </c>
+      <c r="E53" s="1" t="str">
+        <f>E17</f>
+        <v>E17</v>
+      </c>
+      <c r="F53" s="1" t="str">
+        <f>F17</f>
+        <v>F17</v>
+      </c>
+      <c r="G53" s="1" t="str">
+        <f>G17</f>
+        <v>G17</v>
+      </c>
+      <c r="H53" s="1" t="str">
+        <f>H17</f>
+        <v>H17</v>
+      </c>
+      <c r="I53" s="1" t="str">
+        <f>I17</f>
+        <v>I17</v>
+      </c>
+      <c r="J53" s="1" t="str">
+        <f>J17</f>
+        <v>J17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="1" t="str">
+        <f>B18</f>
+        <v>B18</v>
+      </c>
+      <c r="C54" s="1" t="str">
+        <f>C18</f>
+        <v>C18</v>
+      </c>
+      <c r="D54" s="1" t="str">
+        <f>D18</f>
+        <v>D18</v>
+      </c>
+      <c r="E54" s="1" t="str">
+        <f>E18</f>
+        <v>E18</v>
+      </c>
+      <c r="F54" s="1" t="str">
+        <f>F18</f>
+        <v>F18</v>
+      </c>
+      <c r="G54" s="1" t="str">
+        <f>G18</f>
+        <v>G18</v>
+      </c>
+      <c r="H54" s="1" t="str">
+        <f>H18</f>
+        <v>H18</v>
+      </c>
+      <c r="I54" s="1" t="str">
+        <f>I18</f>
+        <v>I18</v>
+      </c>
+      <c r="J54" s="1" t="str">
+        <f>J18</f>
+        <v>J18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="1" t="str">
+        <f>B19</f>
+        <v>B19</v>
+      </c>
+      <c r="C55" s="1" t="str">
+        <f>C19</f>
+        <v>C19</v>
+      </c>
+      <c r="D55" s="1" t="str">
+        <f>D19</f>
+        <v>D19</v>
+      </c>
+      <c r="E55" s="1" t="str">
+        <f>E19</f>
+        <v>E19</v>
+      </c>
+      <c r="F55" s="1" t="str">
+        <f>F19</f>
+        <v>F19</v>
+      </c>
+      <c r="G55" s="1" t="str">
+        <f>G19</f>
+        <v>G19</v>
+      </c>
+      <c r="H55" s="1" t="str">
+        <f>H19</f>
+        <v>H19</v>
+      </c>
+      <c r="I55" s="1" t="str">
+        <f>I19</f>
+        <v>I19</v>
+      </c>
+      <c r="J55" s="1" t="str">
+        <f>J19</f>
+        <v>J19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="1" t="str">
+        <f>B20</f>
+        <v>B20</v>
+      </c>
+      <c r="C56" s="1" t="str">
+        <f>C20</f>
+        <v>C20</v>
+      </c>
+      <c r="D56" s="1" t="str">
+        <f>D20</f>
+        <v>D20</v>
+      </c>
+      <c r="E56" s="1" t="str">
+        <f>E20</f>
+        <v>E20</v>
+      </c>
+      <c r="F56" s="1" t="str">
+        <f>F20</f>
+        <v>F20</v>
+      </c>
+      <c r="G56" s="1" t="str">
+        <f>G20</f>
+        <v>G20</v>
+      </c>
+      <c r="H56" s="1" t="str">
+        <f>H20</f>
+        <v>H20</v>
+      </c>
+      <c r="I56" s="1" t="str">
+        <f>I20</f>
+        <v>I20</v>
+      </c>
+      <c r="J56" s="1" t="str">
+        <f>J20</f>
+        <v>J20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="1" t="str">
+        <f>B21</f>
+        <v>B21</v>
+      </c>
+      <c r="C57" s="1" t="str">
+        <f>C21</f>
+        <v>C21</v>
+      </c>
+      <c r="D57" s="1" t="str">
+        <f>D21</f>
+        <v>D21</v>
+      </c>
+      <c r="E57" s="1" t="str">
+        <f>E21</f>
+        <v>E21</v>
+      </c>
+      <c r="F57" s="1" t="str">
+        <f>F21</f>
+        <v>F21</v>
+      </c>
+      <c r="G57" s="1" t="str">
+        <f>G21</f>
+        <v>G21</v>
+      </c>
+      <c r="H57" s="1" t="str">
+        <f>H21</f>
+        <v>H21</v>
+      </c>
+      <c r="I57" s="1" t="str">
+        <f>I21</f>
+        <v>I21</v>
+      </c>
+      <c r="J57" s="1" t="str">
+        <f>J21</f>
+        <v>J21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="1" t="str">
+        <f>B22</f>
+        <v>B22</v>
+      </c>
+      <c r="C58" s="1" t="str">
+        <f>C22</f>
+        <v>C22</v>
+      </c>
+      <c r="D58" s="1" t="str">
+        <f>D22</f>
+        <v>D22</v>
+      </c>
+      <c r="E58" s="1" t="str">
+        <f>E22</f>
+        <v>E22</v>
+      </c>
+      <c r="F58" s="1" t="str">
+        <f>F22</f>
+        <v>F22</v>
+      </c>
+      <c r="G58" s="1" t="str">
+        <f>G22</f>
+        <v>G22</v>
+      </c>
+      <c r="H58" s="1" t="str">
+        <f>H22</f>
+        <v>H22</v>
+      </c>
+      <c r="I58" s="1" t="str">
+        <f>I22</f>
+        <v>I22</v>
+      </c>
+      <c r="J58" s="1" t="str">
+        <f>J22</f>
+        <v>J22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="1" t="str">
+        <f>B14</f>
+        <v>B14</v>
+      </c>
+      <c r="C59" s="1" t="str">
+        <f>B15</f>
+        <v>B15</v>
+      </c>
+      <c r="D59" s="1" t="str">
+        <f>B16</f>
+        <v>B16</v>
+      </c>
+      <c r="E59" s="1" t="str">
+        <f>B17</f>
+        <v>B17</v>
+      </c>
+      <c r="F59" s="1" t="str">
+        <f>B18</f>
+        <v>B18</v>
+      </c>
+      <c r="G59" s="1" t="str">
+        <f>B19</f>
+        <v>B19</v>
+      </c>
+      <c r="H59" s="1" t="str">
+        <f>B20</f>
+        <v>B20</v>
+      </c>
+      <c r="I59" s="1" t="str">
+        <f>B21</f>
+        <v>B21</v>
+      </c>
+      <c r="J59" s="1" t="str">
+        <f>B22</f>
+        <v>B22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="1" t="str">
+        <f>C14</f>
+        <v>C14</v>
+      </c>
+      <c r="C60" s="1" t="str">
+        <f>C15</f>
+        <v>C15</v>
+      </c>
+      <c r="D60" s="1" t="str">
+        <f>C16</f>
+        <v>C16</v>
+      </c>
+      <c r="E60" s="1" t="str">
+        <f>C17</f>
+        <v>C17</v>
+      </c>
+      <c r="F60" s="1" t="str">
+        <f>C18</f>
+        <v>C18</v>
+      </c>
+      <c r="G60" s="1" t="str">
+        <f>C19</f>
+        <v>C19</v>
+      </c>
+      <c r="H60" s="1" t="str">
+        <f>C20</f>
+        <v>C20</v>
+      </c>
+      <c r="I60" s="1" t="str">
+        <f>C21</f>
+        <v>C21</v>
+      </c>
+      <c r="J60" s="1" t="str">
+        <f>C22</f>
+        <v>C22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="1" t="str">
+        <f>D14</f>
+        <v>D14</v>
+      </c>
+      <c r="C61" s="1" t="str">
+        <f>D15</f>
+        <v>D15</v>
+      </c>
+      <c r="D61" s="1" t="str">
+        <f>D16</f>
+        <v>D16</v>
+      </c>
+      <c r="E61" s="1" t="str">
+        <f>D17</f>
+        <v>D17</v>
+      </c>
+      <c r="F61" s="1" t="str">
+        <f>D18</f>
+        <v>D18</v>
+      </c>
+      <c r="G61" s="1" t="str">
+        <f>D19</f>
+        <v>D19</v>
+      </c>
+      <c r="H61" s="1" t="str">
+        <f>D20</f>
+        <v>D20</v>
+      </c>
+      <c r="I61" s="1" t="str">
+        <f>D21</f>
+        <v>D21</v>
+      </c>
+      <c r="J61" s="1" t="str">
+        <f>D22</f>
+        <v>D22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="1" t="str">
+        <f>E14</f>
+        <v>E14</v>
+      </c>
+      <c r="C62" s="1" t="str">
+        <f>E15</f>
+        <v>E15</v>
+      </c>
+      <c r="D62" s="1" t="str">
+        <f>E16</f>
+        <v>E16</v>
+      </c>
+      <c r="E62" s="1" t="str">
+        <f>E17</f>
+        <v>E17</v>
+      </c>
+      <c r="F62" s="1" t="str">
+        <f>E18</f>
+        <v>E18</v>
+      </c>
+      <c r="G62" s="1" t="str">
+        <f>E19</f>
+        <v>E19</v>
+      </c>
+      <c r="H62" s="1" t="str">
+        <f>E20</f>
+        <v>E20</v>
+      </c>
+      <c r="I62" s="1" t="str">
+        <f>E21</f>
+        <v>E21</v>
+      </c>
+      <c r="J62" s="1" t="str">
+        <f>E22</f>
+        <v>E22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="1" t="str">
+        <f>F14</f>
+        <v>F14</v>
+      </c>
+      <c r="C63" s="1" t="str">
+        <f>F15</f>
+        <v>F15</v>
+      </c>
+      <c r="D63" s="1" t="str">
+        <f>F16</f>
+        <v>F16</v>
+      </c>
+      <c r="E63" s="1" t="str">
+        <f>F17</f>
+        <v>F17</v>
+      </c>
+      <c r="F63" s="1" t="str">
+        <f>F18</f>
+        <v>F18</v>
+      </c>
+      <c r="G63" s="1" t="str">
+        <f>F19</f>
+        <v>F19</v>
+      </c>
+      <c r="H63" s="1" t="str">
+        <f>F20</f>
+        <v>F20</v>
+      </c>
+      <c r="I63" s="1" t="str">
+        <f>F21</f>
+        <v>F21</v>
+      </c>
+      <c r="J63" s="1" t="str">
+        <f>F22</f>
+        <v>F22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="1" t="str">
+        <f>G14</f>
+        <v>G14</v>
+      </c>
+      <c r="C64" s="1" t="str">
+        <f>G15</f>
+        <v>G15</v>
+      </c>
+      <c r="D64" s="1" t="str">
+        <f>G16</f>
+        <v>G16</v>
+      </c>
+      <c r="E64" s="1" t="str">
+        <f>G17</f>
+        <v>G17</v>
+      </c>
+      <c r="F64" s="1" t="str">
+        <f>G18</f>
+        <v>G18</v>
+      </c>
+      <c r="G64" s="1" t="str">
+        <f>G19</f>
+        <v>G19</v>
+      </c>
+      <c r="H64" s="1" t="str">
+        <f>G20</f>
+        <v>G20</v>
+      </c>
+      <c r="I64" s="1" t="str">
+        <f>G21</f>
+        <v>G21</v>
+      </c>
+      <c r="J64" s="1" t="str">
+        <f>G22</f>
+        <v>G22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="1" t="str">
+        <f>H14</f>
+        <v>H14</v>
+      </c>
+      <c r="C65" s="1" t="str">
+        <f>H15</f>
+        <v>H15</v>
+      </c>
+      <c r="D65" s="1" t="str">
+        <f>H16</f>
+        <v>H16</v>
+      </c>
+      <c r="E65" s="1" t="str">
+        <f>H17</f>
+        <v>H17</v>
+      </c>
+      <c r="F65" s="1" t="str">
+        <f>H18</f>
+        <v>H18</v>
+      </c>
+      <c r="G65" s="1" t="str">
+        <f>H19</f>
+        <v>H19</v>
+      </c>
+      <c r="H65" s="1" t="str">
+        <f>H20</f>
+        <v>H20</v>
+      </c>
+      <c r="I65" s="1" t="str">
+        <f>H21</f>
+        <v>H21</v>
+      </c>
+      <c r="J65" s="1" t="str">
+        <f>H22</f>
+        <v>H22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="1" t="str">
+        <f>I14</f>
+        <v>I14</v>
+      </c>
+      <c r="C66" s="1" t="str">
+        <f>I15</f>
+        <v>I15</v>
+      </c>
+      <c r="D66" s="1" t="str">
+        <f>I16</f>
+        <v>I16</v>
+      </c>
+      <c r="E66" s="1" t="str">
+        <f>I17</f>
+        <v>I17</v>
+      </c>
+      <c r="F66" s="1" t="str">
+        <f>I18</f>
+        <v>I18</v>
+      </c>
+      <c r="G66" s="1" t="str">
+        <f>I19</f>
+        <v>I19</v>
+      </c>
+      <c r="H66" s="1" t="str">
+        <f>I20</f>
+        <v>I20</v>
+      </c>
+      <c r="I66" s="1" t="str">
+        <f>I21</f>
+        <v>I21</v>
+      </c>
+      <c r="J66" s="1" t="str">
+        <f>I22</f>
+        <v>I22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="1" t="str">
+        <f>J14</f>
+        <v>J14</v>
+      </c>
+      <c r="C67" s="1" t="str">
+        <f>J15</f>
+        <v>J15</v>
+      </c>
+      <c r="D67" s="1" t="str">
+        <f>J16</f>
+        <v>J16</v>
+      </c>
+      <c r="E67" s="1" t="str">
+        <f>J17</f>
+        <v>J17</v>
+      </c>
+      <c r="F67" s="1" t="str">
+        <f>J18</f>
+        <v>J18</v>
+      </c>
+      <c r="G67" s="1" t="str">
+        <f>J19</f>
+        <v>J19</v>
+      </c>
+      <c r="H67" s="1" t="str">
+        <f>J20</f>
+        <v>J20</v>
+      </c>
+      <c r="I67" s="1" t="str">
+        <f>J21</f>
+        <v>J21</v>
+      </c>
+      <c r="J67" s="1" t="str">
+        <f>J22</f>
+        <v>J22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="1" t="str">
+        <f>B14</f>
+        <v>B14</v>
+      </c>
+      <c r="C68" s="1" t="str">
+        <f>C14</f>
+        <v>C14</v>
+      </c>
+      <c r="D68" s="1" t="str">
+        <f>D14</f>
+        <v>D14</v>
+      </c>
+      <c r="E68" s="1" t="str">
+        <f>B15</f>
+        <v>B15</v>
+      </c>
+      <c r="F68" s="1" t="str">
+        <f>C15</f>
+        <v>C15</v>
+      </c>
+      <c r="G68" s="1" t="str">
+        <f>D15</f>
+        <v>D15</v>
+      </c>
+      <c r="H68" s="1" t="str">
+        <f>B16</f>
+        <v>B16</v>
+      </c>
+      <c r="I68" s="1" t="str">
+        <f>C16</f>
+        <v>C16</v>
+      </c>
+      <c r="J68" s="1" t="str">
+        <f>D16</f>
+        <v>D16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="1" t="str">
+        <f>B17</f>
+        <v>B17</v>
+      </c>
+      <c r="C69" s="1" t="str">
+        <f>C17</f>
+        <v>C17</v>
+      </c>
+      <c r="D69" s="1" t="str">
+        <f>D17</f>
+        <v>D17</v>
+      </c>
+      <c r="E69" s="1" t="str">
+        <f>B18</f>
+        <v>B18</v>
+      </c>
+      <c r="F69" s="1" t="str">
+        <f>C18</f>
+        <v>C18</v>
+      </c>
+      <c r="G69" s="1" t="str">
+        <f>D18</f>
+        <v>D18</v>
+      </c>
+      <c r="H69" s="1" t="str">
+        <f>B19</f>
+        <v>B19</v>
+      </c>
+      <c r="I69" s="1" t="str">
+        <f>C19</f>
+        <v>C19</v>
+      </c>
+      <c r="J69" s="1" t="str">
+        <f>D19</f>
+        <v>D19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" s="1" t="str">
+        <f>B20</f>
+        <v>B20</v>
+      </c>
+      <c r="C70" s="1" t="str">
+        <f>C20</f>
+        <v>C20</v>
+      </c>
+      <c r="D70" s="1" t="str">
+        <f>D20</f>
+        <v>D20</v>
+      </c>
+      <c r="E70" s="1" t="str">
+        <f>B21</f>
+        <v>B21</v>
+      </c>
+      <c r="F70" s="1" t="str">
+        <f>C21</f>
+        <v>C21</v>
+      </c>
+      <c r="G70" s="1" t="str">
+        <f>D21</f>
+        <v>D21</v>
+      </c>
+      <c r="H70" s="1" t="str">
+        <f>B22</f>
+        <v>B22</v>
+      </c>
+      <c r="I70" s="1" t="str">
+        <f>C22</f>
+        <v>C22</v>
+      </c>
+      <c r="J70" s="1" t="str">
+        <f>D22</f>
+        <v>D22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="1" t="str">
+        <f>E14</f>
+        <v>E14</v>
+      </c>
+      <c r="C71" s="1" t="str">
+        <f>F14</f>
+        <v>F14</v>
+      </c>
+      <c r="D71" s="1" t="str">
+        <f>G14</f>
+        <v>G14</v>
+      </c>
+      <c r="E71" s="1" t="str">
+        <f>E15</f>
+        <v>E15</v>
+      </c>
+      <c r="F71" s="1" t="str">
+        <f>F15</f>
+        <v>F15</v>
+      </c>
+      <c r="G71" s="1" t="str">
+        <f>G15</f>
+        <v>G15</v>
+      </c>
+      <c r="H71" s="1" t="str">
+        <f>E16</f>
+        <v>E16</v>
+      </c>
+      <c r="I71" s="1" t="str">
+        <f>F16</f>
+        <v>F16</v>
+      </c>
+      <c r="J71" s="1" t="str">
+        <f>G16</f>
+        <v>G16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="1" t="str">
+        <f>E17</f>
+        <v>E17</v>
+      </c>
+      <c r="C72" s="1" t="str">
+        <f>F17</f>
+        <v>F17</v>
+      </c>
+      <c r="D72" s="1" t="str">
+        <f>G17</f>
+        <v>G17</v>
+      </c>
+      <c r="E72" s="1" t="str">
+        <f>E18</f>
+        <v>E18</v>
+      </c>
+      <c r="F72" s="1" t="str">
+        <f>F18</f>
+        <v>F18</v>
+      </c>
+      <c r="G72" s="1" t="str">
+        <f>G18</f>
+        <v>G18</v>
+      </c>
+      <c r="H72" s="1" t="str">
+        <f>E19</f>
+        <v>E19</v>
+      </c>
+      <c r="I72" s="1" t="str">
+        <f>F19</f>
+        <v>F19</v>
+      </c>
+      <c r="J72" s="1" t="str">
+        <f>G19</f>
+        <v>G19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="1" t="str">
+        <f>E20</f>
+        <v>E20</v>
+      </c>
+      <c r="C73" s="1" t="str">
+        <f>F20</f>
+        <v>F20</v>
+      </c>
+      <c r="D73" s="1" t="str">
+        <f>G20</f>
+        <v>G20</v>
+      </c>
+      <c r="E73" s="1" t="str">
+        <f>E21</f>
+        <v>E21</v>
+      </c>
+      <c r="F73" s="1" t="str">
+        <f>F21</f>
+        <v>F21</v>
+      </c>
+      <c r="G73" s="1" t="str">
+        <f>G21</f>
+        <v>G21</v>
+      </c>
+      <c r="H73" s="1" t="str">
+        <f>E22</f>
+        <v>E22</v>
+      </c>
+      <c r="I73" s="1" t="str">
+        <f>F22</f>
+        <v>F22</v>
+      </c>
+      <c r="J73" s="1" t="str">
+        <f>G22</f>
+        <v>G22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="1" t="str">
+        <f>H14</f>
+        <v>H14</v>
+      </c>
+      <c r="C74" s="1" t="str">
+        <f>I14</f>
+        <v>I14</v>
+      </c>
+      <c r="D74" s="1" t="str">
+        <f>J14</f>
+        <v>J14</v>
+      </c>
+      <c r="E74" s="1" t="str">
+        <f>H15</f>
+        <v>H15</v>
+      </c>
+      <c r="F74" s="1" t="str">
+        <f>I15</f>
+        <v>I15</v>
+      </c>
+      <c r="G74" s="1" t="str">
+        <f>J15</f>
+        <v>J15</v>
+      </c>
+      <c r="H74" s="1" t="str">
+        <f>H16</f>
+        <v>H16</v>
+      </c>
+      <c r="I74" s="1" t="str">
+        <f>I16</f>
+        <v>I16</v>
+      </c>
+      <c r="J74" s="1" t="str">
+        <f>J16</f>
+        <v>J16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="1" t="str">
+        <f>H17</f>
+        <v>H17</v>
+      </c>
+      <c r="C75" s="1" t="str">
+        <f>I17</f>
+        <v>I17</v>
+      </c>
+      <c r="D75" s="1" t="str">
+        <f>J17</f>
+        <v>J17</v>
+      </c>
+      <c r="E75" s="1" t="str">
+        <f>H18</f>
+        <v>H18</v>
+      </c>
+      <c r="F75" s="1" t="str">
+        <f>I18</f>
+        <v>I18</v>
+      </c>
+      <c r="G75" s="1" t="str">
+        <f>J18</f>
+        <v>J18</v>
+      </c>
+      <c r="H75" s="1" t="str">
+        <f>H19</f>
+        <v>H19</v>
+      </c>
+      <c r="I75" s="1" t="str">
+        <f>I19</f>
+        <v>I19</v>
+      </c>
+      <c r="J75" s="1" t="str">
+        <f>J19</f>
+        <v>J19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="1" t="str">
+        <f>H20</f>
+        <v>H20</v>
+      </c>
+      <c r="C76" s="1" t="str">
+        <f>I20</f>
+        <v>I20</v>
+      </c>
+      <c r="D76" s="1" t="str">
+        <f>J20</f>
+        <v>J20</v>
+      </c>
+      <c r="E76" s="1" t="str">
+        <f>H21</f>
+        <v>H21</v>
+      </c>
+      <c r="F76" s="1" t="str">
+        <f>I21</f>
+        <v>I21</v>
+      </c>
+      <c r="G76" s="1" t="str">
+        <f>J21</f>
+        <v>J21</v>
+      </c>
+      <c r="H76" s="1" t="str">
+        <f>H22</f>
+        <v>H22</v>
+      </c>
+      <c r="I76" s="1" t="str">
+        <f>I22</f>
+        <v>I22</v>
+      </c>
+      <c r="J76" s="1" t="str">
+        <f>J22</f>
+        <v>J22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" s="1" t="str">
+        <f>H8</f>
+        <v>H8</v>
+      </c>
+      <c r="C77" s="1" t="str">
+        <f>I8</f>
+        <v>I8</v>
+      </c>
+      <c r="D77" s="1" t="str">
+        <f>J8</f>
+        <v>J8</v>
+      </c>
+      <c r="E77" s="1" t="str">
+        <f>K8</f>
+        <v>K8</v>
+      </c>
+      <c r="F77" s="1" t="str">
+        <f>L8</f>
+        <v>L8</v>
+      </c>
+      <c r="G77" s="1" t="str">
+        <f>M8</f>
+        <v>M8</v>
+      </c>
+      <c r="H77" s="1" t="str">
+        <f>N8</f>
+        <v>N8</v>
+      </c>
+      <c r="I77" s="1" t="str">
+        <f>O8</f>
+        <v>O8</v>
+      </c>
+      <c r="J77" s="1" t="str">
+        <f>P8</f>
+        <v>P8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="1" t="str">
+        <f>H9</f>
+        <v>H9</v>
+      </c>
+      <c r="C78" s="1" t="str">
+        <f>I9</f>
+        <v>I9</v>
+      </c>
+      <c r="D78" s="1" t="str">
+        <f>J9</f>
+        <v>J9</v>
+      </c>
+      <c r="E78" s="1" t="str">
+        <f>K9</f>
+        <v>K9</v>
+      </c>
+      <c r="F78" s="1" t="str">
+        <f>L9</f>
+        <v>L9</v>
+      </c>
+      <c r="G78" s="1" t="str">
+        <f>M9</f>
+        <v>M9</v>
+      </c>
+      <c r="H78" s="1" t="str">
+        <f>N9</f>
+        <v>N9</v>
+      </c>
+      <c r="I78" s="1" t="str">
+        <f>O9</f>
+        <v>O9</v>
+      </c>
+      <c r="J78" s="1" t="str">
+        <f>P9</f>
+        <v>P9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="1" t="str">
+        <f>H10</f>
+        <v>H10</v>
+      </c>
+      <c r="C79" s="1" t="str">
+        <f>I10</f>
+        <v>I10</v>
+      </c>
+      <c r="D79" s="1" t="str">
+        <f>J10</f>
+        <v>J10</v>
+      </c>
+      <c r="E79" s="1" t="str">
+        <f>K10</f>
+        <v>K10</v>
+      </c>
+      <c r="F79" s="1" t="str">
+        <f>L10</f>
+        <v>L10</v>
+      </c>
+      <c r="G79" s="1" t="str">
+        <f>M10</f>
+        <v>M10</v>
+      </c>
+      <c r="H79" s="1" t="str">
+        <f>N10</f>
+        <v>N10</v>
+      </c>
+      <c r="I79" s="1" t="str">
+        <f>O10</f>
+        <v>O10</v>
+      </c>
+      <c r="J79" s="1" t="str">
+        <f>P10</f>
+        <v>P10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" s="1" t="str">
+        <f>H11</f>
+        <v>H11</v>
+      </c>
+      <c r="C80" s="1" t="str">
+        <f>I11</f>
+        <v>I11</v>
+      </c>
+      <c r="D80" s="1" t="str">
+        <f>J11</f>
+        <v>J11</v>
+      </c>
+      <c r="E80" s="1" t="str">
+        <f>K11</f>
+        <v>K11</v>
+      </c>
+      <c r="F80" s="1" t="str">
+        <f>L11</f>
+        <v>L11</v>
+      </c>
+      <c r="G80" s="1" t="str">
+        <f>M11</f>
+        <v>M11</v>
+      </c>
+      <c r="H80" s="1" t="str">
+        <f>N11</f>
+        <v>N11</v>
+      </c>
+      <c r="I80" s="1" t="str">
+        <f>O11</f>
+        <v>O11</v>
+      </c>
+      <c r="J80" s="1" t="str">
+        <f>P11</f>
+        <v>P11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" s="1" t="str">
+        <f>H12</f>
+        <v>H12</v>
+      </c>
+      <c r="C81" s="1" t="str">
+        <f>I12</f>
+        <v>I12</v>
+      </c>
+      <c r="D81" s="1" t="str">
+        <f>J12</f>
+        <v>J12</v>
+      </c>
+      <c r="E81" s="1" t="str">
+        <f>K12</f>
+        <v>K12</v>
+      </c>
+      <c r="F81" s="1" t="str">
+        <f>L12</f>
+        <v>L12</v>
+      </c>
+      <c r="G81" s="1" t="str">
+        <f>M12</f>
+        <v>M12</v>
+      </c>
+      <c r="H81" s="1" t="str">
+        <f>N12</f>
+        <v>N12</v>
+      </c>
+      <c r="I81" s="1" t="str">
+        <f>O12</f>
+        <v>O12</v>
+      </c>
+      <c r="J81" s="1" t="str">
+        <f>P12</f>
+        <v>P12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" s="1" t="str">
+        <f>H13</f>
+        <v>H13</v>
+      </c>
+      <c r="C82" s="1" t="str">
+        <f>I13</f>
+        <v>I13</v>
+      </c>
+      <c r="D82" s="1" t="str">
+        <f>J13</f>
+        <v>J13</v>
+      </c>
+      <c r="E82" s="1" t="str">
+        <f>K13</f>
+        <v>K13</v>
+      </c>
+      <c r="F82" s="1" t="str">
+        <f>L13</f>
+        <v>L13</v>
+      </c>
+      <c r="G82" s="1" t="str">
+        <f>M13</f>
+        <v>M13</v>
+      </c>
+      <c r="H82" s="1" t="str">
+        <f>N13</f>
+        <v>N13</v>
+      </c>
+      <c r="I82" s="1" t="str">
+        <f>O13</f>
+        <v>O13</v>
+      </c>
+      <c r="J82" s="1" t="str">
+        <f>P13</f>
+        <v>P13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" s="1" t="str">
+        <f>H14</f>
+        <v>H14</v>
+      </c>
+      <c r="C83" s="1" t="str">
+        <f>I14</f>
+        <v>I14</v>
+      </c>
+      <c r="D83" s="1" t="str">
+        <f>J14</f>
+        <v>J14</v>
+      </c>
+      <c r="E83" s="1" t="str">
+        <f>K14</f>
+        <v>K14</v>
+      </c>
+      <c r="F83" s="1" t="str">
+        <f>L14</f>
+        <v>L14</v>
+      </c>
+      <c r="G83" s="1" t="str">
+        <f>M14</f>
+        <v>M14</v>
+      </c>
+      <c r="H83" s="1" t="str">
+        <f>N14</f>
+        <v>N14</v>
+      </c>
+      <c r="I83" s="1" t="str">
+        <f>O14</f>
+        <v>O14</v>
+      </c>
+      <c r="J83" s="1" t="str">
+        <f>P14</f>
+        <v>P14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="1" t="str">
+        <f>H15</f>
+        <v>H15</v>
+      </c>
+      <c r="C84" s="1" t="str">
+        <f>I15</f>
+        <v>I15</v>
+      </c>
+      <c r="D84" s="1" t="str">
+        <f>J15</f>
+        <v>J15</v>
+      </c>
+      <c r="E84" s="1" t="str">
+        <f>K15</f>
+        <v>K15</v>
+      </c>
+      <c r="F84" s="1" t="str">
+        <f>L15</f>
+        <v>L15</v>
+      </c>
+      <c r="G84" s="1" t="str">
+        <f>M15</f>
+        <v>M15</v>
+      </c>
+      <c r="H84" s="1" t="str">
+        <f>N15</f>
+        <v>N15</v>
+      </c>
+      <c r="I84" s="1" t="str">
+        <f>O15</f>
+        <v>O15</v>
+      </c>
+      <c r="J84" s="1" t="str">
+        <f>P15</f>
+        <v>P15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" s="1" t="str">
+        <f>H16</f>
+        <v>H16</v>
+      </c>
+      <c r="C85" s="1" t="str">
+        <f>I16</f>
+        <v>I16</v>
+      </c>
+      <c r="D85" s="1" t="str">
+        <f>J16</f>
+        <v>J16</v>
+      </c>
+      <c r="E85" s="1" t="str">
+        <f>K16</f>
+        <v>K16</v>
+      </c>
+      <c r="F85" s="1" t="str">
+        <f>L16</f>
+        <v>L16</v>
+      </c>
+      <c r="G85" s="1" t="str">
+        <f>M16</f>
+        <v>M16</v>
+      </c>
+      <c r="H85" s="1" t="str">
+        <f>N16</f>
+        <v>N16</v>
+      </c>
+      <c r="I85" s="1" t="str">
+        <f>O16</f>
+        <v>O16</v>
+      </c>
+      <c r="J85" s="1" t="str">
+        <f>P16</f>
+        <v>P16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="1" t="str">
+        <f>H8</f>
+        <v>H8</v>
+      </c>
+      <c r="C86" s="1" t="str">
+        <f>H9</f>
+        <v>H9</v>
+      </c>
+      <c r="D86" s="1" t="str">
+        <f>H10</f>
+        <v>H10</v>
+      </c>
+      <c r="E86" s="1" t="str">
+        <f>H11</f>
+        <v>H11</v>
+      </c>
+      <c r="F86" s="1" t="str">
+        <f>H12</f>
+        <v>H12</v>
+      </c>
+      <c r="G86" s="1" t="str">
+        <f>H13</f>
+        <v>H13</v>
+      </c>
+      <c r="H86" s="1" t="str">
+        <f>H14</f>
+        <v>H14</v>
+      </c>
+      <c r="I86" s="1" t="str">
+        <f>H15</f>
+        <v>H15</v>
+      </c>
+      <c r="J86" s="1" t="str">
+        <f>H16</f>
+        <v>H16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" s="1" t="str">
+        <f>I8</f>
+        <v>I8</v>
+      </c>
+      <c r="C87" s="1" t="str">
+        <f>I9</f>
+        <v>I9</v>
+      </c>
+      <c r="D87" s="1" t="str">
+        <f>I10</f>
+        <v>I10</v>
+      </c>
+      <c r="E87" s="1" t="str">
+        <f>I11</f>
+        <v>I11</v>
+      </c>
+      <c r="F87" s="1" t="str">
+        <f>I12</f>
+        <v>I12</v>
+      </c>
+      <c r="G87" s="1" t="str">
+        <f>I13</f>
+        <v>I13</v>
+      </c>
+      <c r="H87" s="1" t="str">
+        <f>I14</f>
+        <v>I14</v>
+      </c>
+      <c r="I87" s="1" t="str">
+        <f>I15</f>
+        <v>I15</v>
+      </c>
+      <c r="J87" s="1" t="str">
+        <f>I16</f>
+        <v>I16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="1" t="str">
+        <f>J8</f>
+        <v>J8</v>
+      </c>
+      <c r="C88" s="1" t="str">
+        <f>J9</f>
+        <v>J9</v>
+      </c>
+      <c r="D88" s="1" t="str">
+        <f>J10</f>
+        <v>J10</v>
+      </c>
+      <c r="E88" s="1" t="str">
+        <f>J11</f>
+        <v>J11</v>
+      </c>
+      <c r="F88" s="1" t="str">
+        <f>J12</f>
+        <v>J12</v>
+      </c>
+      <c r="G88" s="1" t="str">
+        <f>J13</f>
+        <v>J13</v>
+      </c>
+      <c r="H88" s="1" t="str">
+        <f>J14</f>
+        <v>J14</v>
+      </c>
+      <c r="I88" s="1" t="str">
+        <f>J15</f>
+        <v>J15</v>
+      </c>
+      <c r="J88" s="1" t="str">
+        <f>J16</f>
+        <v>J16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" s="1" t="str">
+        <f>K8</f>
+        <v>K8</v>
+      </c>
+      <c r="C89" s="1" t="str">
+        <f>K9</f>
+        <v>K9</v>
+      </c>
+      <c r="D89" s="1" t="str">
+        <f>K10</f>
+        <v>K10</v>
+      </c>
+      <c r="E89" s="1" t="str">
+        <f>K11</f>
+        <v>K11</v>
+      </c>
+      <c r="F89" s="1" t="str">
+        <f>K12</f>
+        <v>K12</v>
+      </c>
+      <c r="G89" s="1" t="str">
+        <f>K13</f>
+        <v>K13</v>
+      </c>
+      <c r="H89" s="1" t="str">
+        <f>K14</f>
+        <v>K14</v>
+      </c>
+      <c r="I89" s="1" t="str">
+        <f>K15</f>
+        <v>K15</v>
+      </c>
+      <c r="J89" s="1" t="str">
+        <f>K16</f>
+        <v>K16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="1" t="str">
+        <f>L8</f>
+        <v>L8</v>
+      </c>
+      <c r="C90" s="1" t="str">
+        <f>L9</f>
+        <v>L9</v>
+      </c>
+      <c r="D90" s="1" t="str">
+        <f>L10</f>
+        <v>L10</v>
+      </c>
+      <c r="E90" s="1" t="str">
+        <f>L11</f>
+        <v>L11</v>
+      </c>
+      <c r="F90" s="1" t="str">
+        <f>L12</f>
+        <v>L12</v>
+      </c>
+      <c r="G90" s="1" t="str">
+        <f>L13</f>
+        <v>L13</v>
+      </c>
+      <c r="H90" s="1" t="str">
+        <f>L14</f>
+        <v>L14</v>
+      </c>
+      <c r="I90" s="1" t="str">
+        <f>L15</f>
+        <v>L15</v>
+      </c>
+      <c r="J90" s="1" t="str">
+        <f>L16</f>
+        <v>L16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" s="1" t="str">
+        <f>M8</f>
+        <v>M8</v>
+      </c>
+      <c r="C91" s="1" t="str">
+        <f>M9</f>
+        <v>M9</v>
+      </c>
+      <c r="D91" s="1" t="str">
+        <f>M10</f>
+        <v>M10</v>
+      </c>
+      <c r="E91" s="1" t="str">
+        <f>M11</f>
+        <v>M11</v>
+      </c>
+      <c r="F91" s="1" t="str">
+        <f>M12</f>
+        <v>M12</v>
+      </c>
+      <c r="G91" s="1" t="str">
+        <f>M13</f>
+        <v>M13</v>
+      </c>
+      <c r="H91" s="1" t="str">
+        <f>M14</f>
+        <v>M14</v>
+      </c>
+      <c r="I91" s="1" t="str">
+        <f>M15</f>
+        <v>M15</v>
+      </c>
+      <c r="J91" s="1" t="str">
+        <f>M16</f>
+        <v>M16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="1" t="str">
+        <f>N8</f>
+        <v>N8</v>
+      </c>
+      <c r="C92" s="1" t="str">
+        <f>N9</f>
+        <v>N9</v>
+      </c>
+      <c r="D92" s="1" t="str">
+        <f>N10</f>
+        <v>N10</v>
+      </c>
+      <c r="E92" s="1" t="str">
+        <f>N11</f>
+        <v>N11</v>
+      </c>
+      <c r="F92" s="1" t="str">
+        <f>N12</f>
+        <v>N12</v>
+      </c>
+      <c r="G92" s="1" t="str">
+        <f>N13</f>
+        <v>N13</v>
+      </c>
+      <c r="H92" s="1" t="str">
+        <f>N14</f>
+        <v>N14</v>
+      </c>
+      <c r="I92" s="1" t="str">
+        <f>N15</f>
+        <v>N15</v>
+      </c>
+      <c r="J92" s="1" t="str">
+        <f>N16</f>
+        <v>N16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="1" t="str">
+        <f>O8</f>
+        <v>O8</v>
+      </c>
+      <c r="C93" s="1" t="str">
+        <f>O9</f>
+        <v>O9</v>
+      </c>
+      <c r="D93" s="1" t="str">
+        <f>O10</f>
+        <v>O10</v>
+      </c>
+      <c r="E93" s="1" t="str">
+        <f>O11</f>
+        <v>O11</v>
+      </c>
+      <c r="F93" s="1" t="str">
+        <f>O12</f>
+        <v>O12</v>
+      </c>
+      <c r="G93" s="1" t="str">
+        <f>O13</f>
+        <v>O13</v>
+      </c>
+      <c r="H93" s="1" t="str">
+        <f>O14</f>
+        <v>O14</v>
+      </c>
+      <c r="I93" s="1" t="str">
+        <f>O15</f>
+        <v>O15</v>
+      </c>
+      <c r="J93" s="1" t="str">
+        <f>O16</f>
+        <v>O16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" s="1" t="str">
+        <f>P8</f>
+        <v>P8</v>
+      </c>
+      <c r="C94" s="1" t="str">
+        <f>P9</f>
+        <v>P9</v>
+      </c>
+      <c r="D94" s="1" t="str">
+        <f>P10</f>
+        <v>P10</v>
+      </c>
+      <c r="E94" s="1" t="str">
+        <f>P11</f>
+        <v>P11</v>
+      </c>
+      <c r="F94" s="1" t="str">
+        <f>P12</f>
+        <v>P12</v>
+      </c>
+      <c r="G94" s="1" t="str">
+        <f>P13</f>
+        <v>P13</v>
+      </c>
+      <c r="H94" s="1" t="str">
+        <f>P14</f>
+        <v>P14</v>
+      </c>
+      <c r="I94" s="1" t="str">
+        <f>P15</f>
+        <v>P15</v>
+      </c>
+      <c r="J94" s="1" t="str">
+        <f>P16</f>
+        <v>P16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" s="1" t="str">
+        <f>H8</f>
+        <v>H8</v>
+      </c>
+      <c r="C95" s="1" t="str">
+        <f>I8</f>
+        <v>I8</v>
+      </c>
+      <c r="D95" s="1" t="str">
+        <f>J8</f>
+        <v>J8</v>
+      </c>
+      <c r="E95" s="1" t="str">
+        <f>H9</f>
+        <v>H9</v>
+      </c>
+      <c r="F95" s="1" t="str">
+        <f>I9</f>
+        <v>I9</v>
+      </c>
+      <c r="G95" s="1" t="str">
+        <f>J9</f>
+        <v>J9</v>
+      </c>
+      <c r="H95" s="1" t="str">
+        <f>H10</f>
+        <v>H10</v>
+      </c>
+      <c r="I95" s="1" t="str">
+        <f>I10</f>
+        <v>I10</v>
+      </c>
+      <c r="J95" s="1" t="str">
+        <f>J10</f>
+        <v>J10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96" s="1" t="str">
+        <f>H11</f>
+        <v>H11</v>
+      </c>
+      <c r="C96" s="1" t="str">
+        <f>I11</f>
+        <v>I11</v>
+      </c>
+      <c r="D96" s="1" t="str">
+        <f>J11</f>
+        <v>J11</v>
+      </c>
+      <c r="E96" s="1" t="str">
+        <f>H12</f>
+        <v>H12</v>
+      </c>
+      <c r="F96" s="1" t="str">
+        <f>I12</f>
+        <v>I12</v>
+      </c>
+      <c r="G96" s="1" t="str">
+        <f>J12</f>
+        <v>J12</v>
+      </c>
+      <c r="H96" s="1" t="str">
+        <f>H13</f>
+        <v>H13</v>
+      </c>
+      <c r="I96" s="1" t="str">
+        <f>I13</f>
+        <v>I13</v>
+      </c>
+      <c r="J96" s="1" t="str">
+        <f>J13</f>
+        <v>J13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B97" s="1" t="str">
+        <f>H14</f>
+        <v>H14</v>
+      </c>
+      <c r="C97" s="1" t="str">
+        <f>I14</f>
+        <v>I14</v>
+      </c>
+      <c r="D97" s="1" t="str">
+        <f>J14</f>
+        <v>J14</v>
+      </c>
+      <c r="E97" s="1" t="str">
+        <f>H15</f>
+        <v>H15</v>
+      </c>
+      <c r="F97" s="1" t="str">
+        <f>I15</f>
+        <v>I15</v>
+      </c>
+      <c r="G97" s="1" t="str">
+        <f>J15</f>
+        <v>J15</v>
+      </c>
+      <c r="H97" s="1" t="str">
+        <f>H16</f>
+        <v>H16</v>
+      </c>
+      <c r="I97" s="1" t="str">
+        <f>I16</f>
+        <v>I16</v>
+      </c>
+      <c r="J97" s="1" t="str">
+        <f>J16</f>
+        <v>J16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" s="1" t="str">
+        <f>K8</f>
+        <v>K8</v>
+      </c>
+      <c r="C98" s="1" t="str">
+        <f>L8</f>
+        <v>L8</v>
+      </c>
+      <c r="D98" s="1" t="str">
+        <f>M8</f>
+        <v>M8</v>
+      </c>
+      <c r="E98" s="1" t="str">
+        <f>K9</f>
+        <v>K9</v>
+      </c>
+      <c r="F98" s="1" t="str">
+        <f>L9</f>
+        <v>L9</v>
+      </c>
+      <c r="G98" s="1" t="str">
+        <f>M9</f>
+        <v>M9</v>
+      </c>
+      <c r="H98" s="1" t="str">
+        <f>K10</f>
+        <v>K10</v>
+      </c>
+      <c r="I98" s="1" t="str">
+        <f>L10</f>
+        <v>L10</v>
+      </c>
+      <c r="J98" s="1" t="str">
+        <f>M10</f>
+        <v>M10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99" s="1" t="str">
+        <f>K11</f>
+        <v>K11</v>
+      </c>
+      <c r="C99" s="1" t="str">
+        <f>L11</f>
+        <v>L11</v>
+      </c>
+      <c r="D99" s="1" t="str">
+        <f>M11</f>
+        <v>M11</v>
+      </c>
+      <c r="E99" s="1" t="str">
+        <f>K12</f>
+        <v>K12</v>
+      </c>
+      <c r="F99" s="1" t="str">
+        <f>L12</f>
+        <v>L12</v>
+      </c>
+      <c r="G99" s="1" t="str">
+        <f>M12</f>
+        <v>M12</v>
+      </c>
+      <c r="H99" s="1" t="str">
+        <f>K13</f>
+        <v>K13</v>
+      </c>
+      <c r="I99" s="1" t="str">
+        <f>L13</f>
+        <v>L13</v>
+      </c>
+      <c r="J99" s="1" t="str">
+        <f>M13</f>
+        <v>M13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" s="1" t="str">
+        <f>K14</f>
+        <v>K14</v>
+      </c>
+      <c r="C100" s="1" t="str">
+        <f>L14</f>
+        <v>L14</v>
+      </c>
+      <c r="D100" s="1" t="str">
+        <f>M14</f>
+        <v>M14</v>
+      </c>
+      <c r="E100" s="1" t="str">
+        <f>K15</f>
+        <v>K15</v>
+      </c>
+      <c r="F100" s="1" t="str">
+        <f>L15</f>
+        <v>L15</v>
+      </c>
+      <c r="G100" s="1" t="str">
+        <f>M15</f>
+        <v>M15</v>
+      </c>
+      <c r="H100" s="1" t="str">
+        <f>K16</f>
+        <v>K16</v>
+      </c>
+      <c r="I100" s="1" t="str">
+        <f>L16</f>
+        <v>L16</v>
+      </c>
+      <c r="J100" s="1" t="str">
+        <f>M16</f>
+        <v>M16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="1" t="str">
+        <f>N8</f>
+        <v>N8</v>
+      </c>
+      <c r="C101" s="1" t="str">
+        <f>O8</f>
+        <v>O8</v>
+      </c>
+      <c r="D101" s="1" t="str">
+        <f>P8</f>
+        <v>P8</v>
+      </c>
+      <c r="E101" s="1" t="str">
+        <f>N9</f>
+        <v>N9</v>
+      </c>
+      <c r="F101" s="1" t="str">
+        <f>O9</f>
+        <v>O9</v>
+      </c>
+      <c r="G101" s="1" t="str">
+        <f>P9</f>
+        <v>P9</v>
+      </c>
+      <c r="H101" s="1" t="str">
+        <f>N10</f>
+        <v>N10</v>
+      </c>
+      <c r="I101" s="1" t="str">
+        <f>O10</f>
+        <v>O10</v>
+      </c>
+      <c r="J101" s="1" t="str">
+        <f>P10</f>
+        <v>P10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102" s="1" t="str">
+        <f>N11</f>
+        <v>N11</v>
+      </c>
+      <c r="C102" s="1" t="str">
+        <f>O11</f>
+        <v>O11</v>
+      </c>
+      <c r="D102" s="1" t="str">
+        <f>P11</f>
+        <v>P11</v>
+      </c>
+      <c r="E102" s="1" t="str">
+        <f>N12</f>
+        <v>N12</v>
+      </c>
+      <c r="F102" s="1" t="str">
+        <f>O12</f>
+        <v>O12</v>
+      </c>
+      <c r="G102" s="1" t="str">
+        <f>P12</f>
+        <v>P12</v>
+      </c>
+      <c r="H102" s="1" t="str">
+        <f>N13</f>
+        <v>N13</v>
+      </c>
+      <c r="I102" s="1" t="str">
+        <f>O13</f>
+        <v>O13</v>
+      </c>
+      <c r="J102" s="1" t="str">
+        <f>P13</f>
+        <v>P13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B103" s="1" t="str">
+        <f>N14</f>
+        <v>N14</v>
+      </c>
+      <c r="C103" s="1" t="str">
+        <f>O14</f>
+        <v>O14</v>
+      </c>
+      <c r="D103" s="1" t="str">
+        <f>P14</f>
+        <v>P14</v>
+      </c>
+      <c r="E103" s="1" t="str">
+        <f>N15</f>
+        <v>N15</v>
+      </c>
+      <c r="F103" s="1" t="str">
+        <f>O15</f>
+        <v>O15</v>
+      </c>
+      <c r="G103" s="1" t="str">
+        <f>P15</f>
+        <v>P15</v>
+      </c>
+      <c r="H103" s="1" t="str">
+        <f>N16</f>
+        <v>N16</v>
+      </c>
+      <c r="I103" s="1" t="str">
+        <f>O16</f>
+        <v>O16</v>
+      </c>
+      <c r="J103" s="1" t="str">
+        <f>P16</f>
+        <v>P16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" alignment="center"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/numbers/template.xlsx
+++ b/numbers/template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{97B0F5CD-007C-5141-B80D-CB081A43DF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{244021C7-7680-C748-A18B-1FA6C6467437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3x3" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3423" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3426" uniqueCount="778">
   <si>
     <t>T</t>
   </si>
@@ -4359,10 +4359,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F735F4-EEBF-2E48-8A18-F13F826D99ED}">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5354,1269 +5354,1428 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="str">
+        <f t="shared" ref="B23:M23" si="9">B11</f>
+        <v>B11</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>C11</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>D11</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>E11</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>F11</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>G11</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>H11</v>
+      </c>
+      <c r="I23" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>I11</v>
+      </c>
+      <c r="J23" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>J11</v>
+      </c>
+      <c r="K23" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>K11</v>
+      </c>
+      <c r="L23" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>L11</v>
+      </c>
+      <c r="M23" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>M11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <f t="shared" ref="B24:M24" si="10">B12</f>
+        <v>B12</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>C12</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>D12</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>E12</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>F12</v>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>G12</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>H12</v>
+      </c>
+      <c r="I24" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>I12</v>
+      </c>
+      <c r="J24" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>J12</v>
+      </c>
+      <c r="K24" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>K12</v>
+      </c>
+      <c r="L24" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>L12</v>
+      </c>
+      <c r="M24" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>M12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="str">
+        <f t="shared" ref="B25:M25" si="11">B13</f>
+        <v>B13</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>C13</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>D13</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>E13</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>F13</v>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>G13</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>H13</v>
+      </c>
+      <c r="I25" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>I13</v>
+      </c>
+      <c r="J25" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>J13</v>
+      </c>
+      <c r="K25" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>K13</v>
+      </c>
+      <c r="L25" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>L13</v>
+      </c>
+      <c r="M25" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>M13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="str">
         <f>B2</f>
         <v>B2</v>
       </c>
-      <c r="C23" s="1" t="str">
+      <c r="C26" s="1" t="str">
         <f>B3</f>
         <v>B3</v>
       </c>
-      <c r="D23" s="1" t="str">
+      <c r="D26" s="1" t="str">
         <f>B4</f>
         <v>B4</v>
       </c>
-      <c r="E23" s="1" t="str">
+      <c r="E26" s="1" t="str">
         <f>B5</f>
         <v>B5</v>
       </c>
-      <c r="F23" s="1" t="str">
+      <c r="F26" s="1" t="str">
         <f>B6</f>
         <v>B6</v>
       </c>
-      <c r="G23" s="1" t="str">
+      <c r="G26" s="1" t="str">
         <f>B7</f>
         <v>B7</v>
       </c>
-      <c r="H23" s="1" t="str">
+      <c r="H26" s="1" t="str">
         <f>B8</f>
         <v>B8</v>
       </c>
-      <c r="I23" s="1" t="str">
+      <c r="I26" s="1" t="str">
         <f>B9</f>
         <v>B9</v>
       </c>
-      <c r="J23" s="1" t="str">
+      <c r="J26" s="1" t="str">
         <f>B10</f>
         <v>B10</v>
       </c>
-      <c r="K23" s="1" t="str">
+      <c r="K26" s="1" t="str">
         <f>B11</f>
         <v>B11</v>
       </c>
-      <c r="L23" s="1" t="str">
+      <c r="L26" s="1" t="str">
         <f>B12</f>
         <v>B12</v>
       </c>
-      <c r="M23" s="1" t="str">
+      <c r="M26" s="1" t="str">
         <f>B13</f>
         <v>B13</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="1" t="str">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="str">
         <f>C2</f>
         <v>C2</v>
       </c>
-      <c r="C24" s="1" t="str">
+      <c r="C27" s="1" t="str">
         <f>C3</f>
         <v>C3</v>
       </c>
-      <c r="D24" s="1" t="str">
+      <c r="D27" s="1" t="str">
         <f>C4</f>
         <v>C4</v>
       </c>
-      <c r="E24" s="1" t="str">
+      <c r="E27" s="1" t="str">
         <f>C5</f>
         <v>C5</v>
       </c>
-      <c r="F24" s="1" t="str">
+      <c r="F27" s="1" t="str">
         <f>C6</f>
         <v>C6</v>
       </c>
-      <c r="G24" s="1" t="str">
+      <c r="G27" s="1" t="str">
         <f>C7</f>
         <v>C7</v>
       </c>
-      <c r="H24" s="1" t="str">
+      <c r="H27" s="1" t="str">
         <f>C8</f>
         <v>C8</v>
       </c>
-      <c r="I24" s="1" t="str">
+      <c r="I27" s="1" t="str">
         <f>C9</f>
         <v>C9</v>
       </c>
-      <c r="J24" s="1" t="str">
+      <c r="J27" s="1" t="str">
         <f>C10</f>
         <v>C10</v>
       </c>
-      <c r="K24" s="1" t="str">
+      <c r="K27" s="1" t="str">
         <f>C11</f>
         <v>C11</v>
       </c>
-      <c r="L24" s="1" t="str">
+      <c r="L27" s="1" t="str">
         <f>C12</f>
         <v>C12</v>
       </c>
-      <c r="M24" s="1" t="str">
+      <c r="M27" s="1" t="str">
         <f>C13</f>
         <v>C13</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="1" t="str">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="str">
         <f>D2</f>
         <v>D2</v>
       </c>
-      <c r="C25" s="1" t="str">
+      <c r="C28" s="1" t="str">
         <f>D3</f>
         <v>D3</v>
       </c>
-      <c r="D25" s="1" t="str">
+      <c r="D28" s="1" t="str">
         <f>D4</f>
         <v>D4</v>
       </c>
-      <c r="E25" s="1" t="str">
+      <c r="E28" s="1" t="str">
         <f>D5</f>
         <v>D5</v>
       </c>
-      <c r="F25" s="1" t="str">
+      <c r="F28" s="1" t="str">
         <f>D6</f>
         <v>D6</v>
       </c>
-      <c r="G25" s="1" t="str">
+      <c r="G28" s="1" t="str">
         <f>D7</f>
         <v>D7</v>
       </c>
-      <c r="H25" s="1" t="str">
+      <c r="H28" s="1" t="str">
         <f>D8</f>
         <v>D8</v>
       </c>
-      <c r="I25" s="1" t="str">
+      <c r="I28" s="1" t="str">
         <f>D9</f>
         <v>D9</v>
       </c>
-      <c r="J25" s="1" t="str">
+      <c r="J28" s="1" t="str">
         <f>D10</f>
         <v>D10</v>
       </c>
-      <c r="K25" s="1" t="str">
+      <c r="K28" s="1" t="str">
         <f>D11</f>
         <v>D11</v>
       </c>
-      <c r="L25" s="1" t="str">
+      <c r="L28" s="1" t="str">
         <f>D12</f>
         <v>D12</v>
       </c>
-      <c r="M25" s="1" t="str">
+      <c r="M28" s="1" t="str">
         <f>D13</f>
         <v>D13</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="1" t="str">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="str">
         <f>E2</f>
         <v>E2</v>
       </c>
-      <c r="C26" s="1" t="str">
+      <c r="C29" s="1" t="str">
         <f>E3</f>
         <v>E3</v>
       </c>
-      <c r="D26" s="1" t="str">
+      <c r="D29" s="1" t="str">
         <f>E4</f>
         <v>E4</v>
       </c>
-      <c r="E26" s="1" t="str">
+      <c r="E29" s="1" t="str">
         <f>E5</f>
         <v>E5</v>
       </c>
-      <c r="F26" s="1" t="str">
+      <c r="F29" s="1" t="str">
         <f>E6</f>
         <v>E6</v>
       </c>
-      <c r="G26" s="1" t="str">
+      <c r="G29" s="1" t="str">
         <f>E7</f>
         <v>E7</v>
       </c>
-      <c r="H26" s="1" t="str">
+      <c r="H29" s="1" t="str">
         <f>E8</f>
         <v>E8</v>
       </c>
-      <c r="I26" s="1" t="str">
+      <c r="I29" s="1" t="str">
         <f>E9</f>
         <v>E9</v>
       </c>
-      <c r="J26" s="1" t="str">
+      <c r="J29" s="1" t="str">
         <f>E10</f>
         <v>E10</v>
       </c>
-      <c r="K26" s="1" t="str">
+      <c r="K29" s="1" t="str">
         <f>E11</f>
         <v>E11</v>
       </c>
-      <c r="L26" s="1" t="str">
+      <c r="L29" s="1" t="str">
         <f>E12</f>
         <v>E12</v>
       </c>
-      <c r="M26" s="1" t="str">
+      <c r="M29" s="1" t="str">
         <f>E13</f>
         <v>E13</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="1" t="str">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="str">
         <f>F2</f>
         <v>F2</v>
       </c>
-      <c r="C27" s="1" t="str">
+      <c r="C30" s="1" t="str">
         <f>F3</f>
         <v>F3</v>
       </c>
-      <c r="D27" s="1" t="str">
+      <c r="D30" s="1" t="str">
         <f>F4</f>
         <v>F4</v>
       </c>
-      <c r="E27" s="1" t="str">
+      <c r="E30" s="1" t="str">
         <f>F5</f>
         <v>F5</v>
       </c>
-      <c r="F27" s="1" t="str">
+      <c r="F30" s="1" t="str">
         <f>F6</f>
         <v>F6</v>
       </c>
-      <c r="G27" s="1" t="str">
+      <c r="G30" s="1" t="str">
         <f>F7</f>
         <v>F7</v>
       </c>
-      <c r="H27" s="1" t="str">
+      <c r="H30" s="1" t="str">
         <f>F8</f>
         <v>F8</v>
       </c>
-      <c r="I27" s="1" t="str">
+      <c r="I30" s="1" t="str">
         <f>F9</f>
         <v>F9</v>
       </c>
-      <c r="J27" s="1" t="str">
+      <c r="J30" s="1" t="str">
         <f>F10</f>
         <v>F10</v>
       </c>
-      <c r="K27" s="1" t="str">
+      <c r="K30" s="1" t="str">
         <f>F11</f>
         <v>F11</v>
       </c>
-      <c r="L27" s="1" t="str">
+      <c r="L30" s="1" t="str">
         <f>F12</f>
         <v>F12</v>
       </c>
-      <c r="M27" s="1" t="str">
+      <c r="M30" s="1" t="str">
         <f>F13</f>
         <v>F13</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="1" t="str">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="str">
         <f>G2</f>
         <v>G2</v>
       </c>
-      <c r="C28" s="1" t="str">
+      <c r="C31" s="1" t="str">
         <f>G3</f>
         <v>G3</v>
       </c>
-      <c r="D28" s="1" t="str">
+      <c r="D31" s="1" t="str">
         <f>G4</f>
         <v>G4</v>
       </c>
-      <c r="E28" s="1" t="str">
+      <c r="E31" s="1" t="str">
         <f>G5</f>
         <v>G5</v>
       </c>
-      <c r="F28" s="1" t="str">
+      <c r="F31" s="1" t="str">
         <f>G6</f>
         <v>G6</v>
       </c>
-      <c r="G28" s="1" t="str">
+      <c r="G31" s="1" t="str">
         <f>G7</f>
         <v>G7</v>
       </c>
-      <c r="H28" s="1" t="str">
+      <c r="H31" s="1" t="str">
         <f>G8</f>
         <v>G8</v>
       </c>
-      <c r="I28" s="1" t="str">
+      <c r="I31" s="1" t="str">
         <f>G9</f>
         <v>G9</v>
       </c>
-      <c r="J28" s="1" t="str">
+      <c r="J31" s="1" t="str">
         <f>G10</f>
         <v>G10</v>
       </c>
-      <c r="K28" s="1" t="str">
+      <c r="K31" s="1" t="str">
         <f>G11</f>
         <v>G11</v>
       </c>
-      <c r="L28" s="1" t="str">
+      <c r="L31" s="1" t="str">
         <f>G12</f>
         <v>G12</v>
       </c>
-      <c r="M28" s="1" t="str">
+      <c r="M31" s="1" t="str">
         <f>G13</f>
         <v>G13</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="1" t="str">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="str">
         <f>H2</f>
         <v>H2</v>
       </c>
-      <c r="C29" s="1" t="str">
+      <c r="C32" s="1" t="str">
         <f>H3</f>
         <v>H3</v>
       </c>
-      <c r="D29" s="1" t="str">
+      <c r="D32" s="1" t="str">
         <f>H4</f>
         <v>H4</v>
       </c>
-      <c r="E29" s="1" t="str">
+      <c r="E32" s="1" t="str">
         <f>H5</f>
         <v>H5</v>
       </c>
-      <c r="F29" s="1" t="str">
+      <c r="F32" s="1" t="str">
         <f>H6</f>
         <v>H6</v>
       </c>
-      <c r="G29" s="1" t="str">
+      <c r="G32" s="1" t="str">
         <f>H7</f>
         <v>H7</v>
       </c>
-      <c r="H29" s="1" t="str">
+      <c r="H32" s="1" t="str">
         <f>H8</f>
         <v>H8</v>
       </c>
-      <c r="I29" s="1" t="str">
+      <c r="I32" s="1" t="str">
         <f>H9</f>
         <v>H9</v>
       </c>
-      <c r="J29" s="1" t="str">
+      <c r="J32" s="1" t="str">
         <f>H10</f>
         <v>H10</v>
       </c>
-      <c r="K29" s="1" t="str">
+      <c r="K32" s="1" t="str">
         <f>H11</f>
         <v>H11</v>
       </c>
-      <c r="L29" s="1" t="str">
+      <c r="L32" s="1" t="str">
         <f>H12</f>
         <v>H12</v>
       </c>
-      <c r="M29" s="1" t="str">
+      <c r="M32" s="1" t="str">
         <f>H13</f>
         <v>H13</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="1" t="str">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="str">
         <f>I2</f>
         <v>I2</v>
       </c>
-      <c r="C30" s="1" t="str">
+      <c r="C33" s="1" t="str">
         <f>I3</f>
         <v>I3</v>
       </c>
-      <c r="D30" s="1" t="str">
+      <c r="D33" s="1" t="str">
         <f>I4</f>
         <v>I4</v>
       </c>
-      <c r="E30" s="1" t="str">
+      <c r="E33" s="1" t="str">
         <f>I5</f>
         <v>I5</v>
       </c>
-      <c r="F30" s="1" t="str">
+      <c r="F33" s="1" t="str">
         <f>I6</f>
         <v>I6</v>
       </c>
-      <c r="G30" s="1" t="str">
+      <c r="G33" s="1" t="str">
         <f>I7</f>
         <v>I7</v>
       </c>
-      <c r="H30" s="1" t="str">
+      <c r="H33" s="1" t="str">
         <f>I8</f>
         <v>I8</v>
       </c>
-      <c r="I30" s="1" t="str">
+      <c r="I33" s="1" t="str">
         <f>I9</f>
         <v>I9</v>
       </c>
-      <c r="J30" s="1" t="str">
+      <c r="J33" s="1" t="str">
         <f>I10</f>
         <v>I10</v>
       </c>
-      <c r="K30" s="1" t="str">
+      <c r="K33" s="1" t="str">
         <f>I11</f>
         <v>I11</v>
       </c>
-      <c r="L30" s="1" t="str">
+      <c r="L33" s="1" t="str">
         <f>I12</f>
         <v>I12</v>
       </c>
-      <c r="M30" s="1" t="str">
+      <c r="M33" s="1" t="str">
         <f>I13</f>
         <v>I13</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="1" t="str">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1" t="str">
         <f>J2</f>
         <v>J2</v>
       </c>
-      <c r="C31" s="1" t="str">
+      <c r="C34" s="1" t="str">
         <f>J3</f>
         <v>J3</v>
       </c>
-      <c r="D31" s="1" t="str">
+      <c r="D34" s="1" t="str">
         <f>J4</f>
         <v>J4</v>
       </c>
-      <c r="E31" s="1" t="str">
+      <c r="E34" s="1" t="str">
         <f>J5</f>
         <v>J5</v>
       </c>
-      <c r="F31" s="1" t="str">
+      <c r="F34" s="1" t="str">
         <f>J6</f>
         <v>J6</v>
       </c>
-      <c r="G31" s="1" t="str">
+      <c r="G34" s="1" t="str">
         <f>J7</f>
         <v>J7</v>
       </c>
-      <c r="H31" s="1" t="str">
+      <c r="H34" s="1" t="str">
         <f>J8</f>
         <v>J8</v>
       </c>
-      <c r="I31" s="1" t="str">
+      <c r="I34" s="1" t="str">
         <f>J9</f>
         <v>J9</v>
       </c>
-      <c r="J31" s="1" t="str">
+      <c r="J34" s="1" t="str">
         <f>J10</f>
         <v>J10</v>
       </c>
-      <c r="K31" s="1" t="str">
+      <c r="K34" s="1" t="str">
         <f>J11</f>
         <v>J11</v>
       </c>
-      <c r="L31" s="1" t="str">
+      <c r="L34" s="1" t="str">
         <f>J12</f>
         <v>J12</v>
       </c>
-      <c r="M31" s="1" t="str">
+      <c r="M34" s="1" t="str">
         <f>J13</f>
         <v>J13</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="1" t="str">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="str">
         <f>K2</f>
         <v>K2</v>
       </c>
-      <c r="C32" s="1" t="str">
+      <c r="C35" s="1" t="str">
         <f>K3</f>
         <v>K3</v>
       </c>
-      <c r="D32" s="1" t="str">
+      <c r="D35" s="1" t="str">
         <f>K4</f>
         <v>K4</v>
       </c>
-      <c r="E32" s="1" t="str">
+      <c r="E35" s="1" t="str">
         <f>K5</f>
         <v>K5</v>
       </c>
-      <c r="F32" s="1" t="str">
+      <c r="F35" s="1" t="str">
         <f>K6</f>
         <v>K6</v>
       </c>
-      <c r="G32" s="1" t="str">
+      <c r="G35" s="1" t="str">
         <f>K7</f>
         <v>K7</v>
       </c>
-      <c r="H32" s="1" t="str">
+      <c r="H35" s="1" t="str">
         <f>K8</f>
         <v>K8</v>
       </c>
-      <c r="I32" s="1" t="str">
+      <c r="I35" s="1" t="str">
         <f>K9</f>
         <v>K9</v>
       </c>
-      <c r="J32" s="1" t="str">
+      <c r="J35" s="1" t="str">
         <f>K10</f>
         <v>K10</v>
       </c>
-      <c r="K32" s="1" t="str">
+      <c r="K35" s="1" t="str">
         <f>K11</f>
         <v>K11</v>
       </c>
-      <c r="L32" s="1" t="str">
+      <c r="L35" s="1" t="str">
         <f>K12</f>
         <v>K12</v>
       </c>
-      <c r="M32" s="1" t="str">
+      <c r="M35" s="1" t="str">
         <f>K13</f>
         <v>K13</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="1" t="str">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="str">
         <f>L2</f>
         <v>L2</v>
       </c>
-      <c r="C33" s="1" t="str">
+      <c r="C36" s="1" t="str">
         <f>L3</f>
         <v>L3</v>
       </c>
-      <c r="D33" s="1" t="str">
+      <c r="D36" s="1" t="str">
         <f>L4</f>
         <v>L4</v>
       </c>
-      <c r="E33" s="1" t="str">
+      <c r="E36" s="1" t="str">
         <f>L5</f>
         <v>L5</v>
       </c>
-      <c r="F33" s="1" t="str">
+      <c r="F36" s="1" t="str">
         <f>L6</f>
         <v>L6</v>
       </c>
-      <c r="G33" s="1" t="str">
+      <c r="G36" s="1" t="str">
         <f>L7</f>
         <v>L7</v>
       </c>
-      <c r="H33" s="1" t="str">
+      <c r="H36" s="1" t="str">
         <f>L8</f>
         <v>L8</v>
       </c>
-      <c r="I33" s="1" t="str">
+      <c r="I36" s="1" t="str">
         <f>L9</f>
         <v>L9</v>
       </c>
-      <c r="J33" s="1" t="str">
+      <c r="J36" s="1" t="str">
         <f>L10</f>
         <v>L10</v>
       </c>
-      <c r="K33" s="1" t="str">
+      <c r="K36" s="1" t="str">
         <f>L11</f>
         <v>L11</v>
       </c>
-      <c r="L33" s="1" t="str">
+      <c r="L36" s="1" t="str">
         <f>L12</f>
         <v>L12</v>
       </c>
-      <c r="M33" s="1" t="str">
+      <c r="M36" s="1" t="str">
         <f>L13</f>
         <v>L13</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="1" t="str">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="str">
         <f>M2</f>
         <v>M2</v>
       </c>
-      <c r="C34" s="1" t="str">
+      <c r="C37" s="1" t="str">
         <f>M3</f>
         <v>M3</v>
       </c>
-      <c r="D34" s="1" t="str">
+      <c r="D37" s="1" t="str">
         <f>M4</f>
         <v>M4</v>
       </c>
-      <c r="E34" s="1" t="str">
+      <c r="E37" s="1" t="str">
         <f>M5</f>
         <v>M5</v>
       </c>
-      <c r="F34" s="1" t="str">
+      <c r="F37" s="1" t="str">
         <f>M6</f>
         <v>M6</v>
       </c>
-      <c r="G34" s="1" t="str">
+      <c r="G37" s="1" t="str">
         <f>M7</f>
         <v>M7</v>
       </c>
-      <c r="H34" s="1" t="str">
+      <c r="H37" s="1" t="str">
         <f>M8</f>
         <v>M8</v>
       </c>
-      <c r="I34" s="1" t="str">
+      <c r="I37" s="1" t="str">
         <f>M9</f>
         <v>M9</v>
       </c>
-      <c r="J34" s="1" t="str">
+      <c r="J37" s="1" t="str">
         <f>M10</f>
         <v>M10</v>
       </c>
-      <c r="K34" s="1" t="str">
+      <c r="K37" s="1" t="str">
         <f>M11</f>
         <v>M11</v>
       </c>
-      <c r="L34" s="1" t="str">
+      <c r="L37" s="1" t="str">
         <f>M12</f>
         <v>M12</v>
       </c>
-      <c r="M34" s="1" t="str">
+      <c r="M37" s="1" t="str">
         <f>M13</f>
         <v>M13</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="1" t="str">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1" t="str">
         <f>B2</f>
         <v>B2</v>
       </c>
-      <c r="C35" s="1" t="str">
-        <f t="shared" ref="C35:E35" si="9">C2</f>
+      <c r="C38" s="1" t="str">
+        <f t="shared" ref="C38:E38" si="12">C2</f>
         <v>C2</v>
       </c>
-      <c r="D35" s="1" t="str">
-        <f t="shared" si="9"/>
+      <c r="D38" s="1" t="str">
+        <f t="shared" si="12"/>
         <v>D2</v>
       </c>
-      <c r="E35" s="1" t="str">
-        <f t="shared" si="9"/>
+      <c r="E38" s="1" t="str">
+        <f t="shared" si="12"/>
         <v>E2</v>
       </c>
-      <c r="F35" s="1" t="str">
+      <c r="F38" s="1" t="str">
         <f>B3</f>
         <v>B3</v>
       </c>
-      <c r="G35" s="1" t="str">
+      <c r="G38" s="1" t="str">
         <f>C3</f>
         <v>C3</v>
       </c>
-      <c r="H35" s="1" t="str">
+      <c r="H38" s="1" t="str">
         <f>D3</f>
         <v>D3</v>
       </c>
-      <c r="I35" s="1" t="str">
+      <c r="I38" s="1" t="str">
         <f>E3</f>
         <v>E3</v>
       </c>
-      <c r="J35" s="1" t="str">
+      <c r="J38" s="1" t="str">
         <f>B4</f>
         <v>B4</v>
       </c>
-      <c r="K35" s="1" t="str">
+      <c r="K38" s="1" t="str">
         <f>C4</f>
         <v>C4</v>
       </c>
-      <c r="L35" s="1" t="str">
+      <c r="L38" s="1" t="str">
         <f>D4</f>
         <v>D4</v>
       </c>
-      <c r="M35" s="1" t="str">
+      <c r="M38" s="1" t="str">
         <f>E4</f>
         <v>E4</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="1" t="str">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1" t="str">
         <f>B5</f>
         <v>B5</v>
       </c>
-      <c r="C36" s="1" t="str">
-        <f t="shared" ref="C36:E36" si="10">C5</f>
+      <c r="C39" s="1" t="str">
+        <f t="shared" ref="C39:E39" si="13">C5</f>
         <v>C5</v>
       </c>
-      <c r="D36" s="1" t="str">
-        <f t="shared" si="10"/>
+      <c r="D39" s="1" t="str">
+        <f t="shared" si="13"/>
         <v>D5</v>
       </c>
-      <c r="E36" s="1" t="str">
-        <f t="shared" si="10"/>
+      <c r="E39" s="1" t="str">
+        <f t="shared" si="13"/>
         <v>E5</v>
       </c>
-      <c r="F36" s="1" t="str">
+      <c r="F39" s="1" t="str">
         <f>B6</f>
         <v>B6</v>
       </c>
-      <c r="G36" s="1" t="str">
+      <c r="G39" s="1" t="str">
         <f>C6</f>
         <v>C6</v>
       </c>
-      <c r="H36" s="1" t="str">
+      <c r="H39" s="1" t="str">
         <f>D6</f>
         <v>D6</v>
       </c>
-      <c r="I36" s="1" t="str">
+      <c r="I39" s="1" t="str">
         <f>E6</f>
         <v>E6</v>
       </c>
-      <c r="J36" s="1" t="str">
+      <c r="J39" s="1" t="str">
         <f>B7</f>
         <v>B7</v>
       </c>
-      <c r="K36" s="1" t="str">
+      <c r="K39" s="1" t="str">
         <f>C7</f>
         <v>C7</v>
       </c>
-      <c r="L36" s="1" t="str">
+      <c r="L39" s="1" t="str">
         <f>D7</f>
         <v>D7</v>
       </c>
-      <c r="M36" s="1" t="str">
+      <c r="M39" s="1" t="str">
         <f>E7</f>
         <v>E7</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="1" t="str">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1" t="str">
         <f>B8</f>
         <v>B8</v>
       </c>
-      <c r="C37" s="1" t="str">
-        <f t="shared" ref="C37:E37" si="11">C8</f>
+      <c r="C40" s="1" t="str">
+        <f t="shared" ref="C40:E40" si="14">C8</f>
         <v>C8</v>
       </c>
-      <c r="D37" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="D40" s="1" t="str">
+        <f t="shared" si="14"/>
         <v>D8</v>
       </c>
-      <c r="E37" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="E40" s="1" t="str">
+        <f t="shared" si="14"/>
         <v>E8</v>
       </c>
-      <c r="F37" s="1" t="str">
+      <c r="F40" s="1" t="str">
         <f>B9</f>
         <v>B9</v>
       </c>
-      <c r="G37" s="1" t="str">
+      <c r="G40" s="1" t="str">
         <f>C9</f>
         <v>C9</v>
       </c>
-      <c r="H37" s="1" t="str">
+      <c r="H40" s="1" t="str">
         <f>D9</f>
         <v>D9</v>
       </c>
-      <c r="I37" s="1" t="str">
+      <c r="I40" s="1" t="str">
         <f>E9</f>
         <v>E9</v>
       </c>
-      <c r="J37" s="1" t="str">
+      <c r="J40" s="1" t="str">
         <f>B10</f>
         <v>B10</v>
       </c>
-      <c r="K37" s="1" t="str">
+      <c r="K40" s="1" t="str">
         <f>C10</f>
         <v>C10</v>
       </c>
-      <c r="L37" s="1" t="str">
+      <c r="L40" s="1" t="str">
         <f>D10</f>
         <v>D10</v>
       </c>
-      <c r="M37" s="1" t="str">
+      <c r="M40" s="1" t="str">
         <f>E10</f>
         <v>E10</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" s="1" t="str">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1" t="str">
         <f>B11</f>
         <v>B11</v>
       </c>
-      <c r="C38" s="1" t="str">
-        <f t="shared" ref="C38:E38" si="12">C11</f>
+      <c r="C41" s="1" t="str">
+        <f t="shared" ref="C41:E41" si="15">C11</f>
         <v>C11</v>
       </c>
-      <c r="D38" s="1" t="str">
-        <f t="shared" si="12"/>
+      <c r="D41" s="1" t="str">
+        <f t="shared" si="15"/>
         <v>D11</v>
       </c>
-      <c r="E38" s="1" t="str">
-        <f t="shared" si="12"/>
+      <c r="E41" s="1" t="str">
+        <f t="shared" si="15"/>
         <v>E11</v>
       </c>
-      <c r="F38" s="1" t="str">
+      <c r="F41" s="1" t="str">
         <f>B12</f>
         <v>B12</v>
       </c>
-      <c r="G38" s="1" t="str">
+      <c r="G41" s="1" t="str">
         <f>C12</f>
         <v>C12</v>
       </c>
-      <c r="H38" s="1" t="str">
+      <c r="H41" s="1" t="str">
         <f>D12</f>
         <v>D12</v>
       </c>
-      <c r="I38" s="1" t="str">
+      <c r="I41" s="1" t="str">
         <f>E12</f>
         <v>E12</v>
       </c>
-      <c r="J38" s="1" t="str">
+      <c r="J41" s="1" t="str">
         <f>B13</f>
         <v>B13</v>
       </c>
-      <c r="K38" s="1" t="str">
+      <c r="K41" s="1" t="str">
         <f>C13</f>
         <v>C13</v>
       </c>
-      <c r="L38" s="1" t="str">
+      <c r="L41" s="1" t="str">
         <f>D13</f>
         <v>D13</v>
       </c>
-      <c r="M38" s="1" t="str">
+      <c r="M41" s="1" t="str">
         <f>E13</f>
         <v>E13</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="1" t="str">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1" t="str">
         <f>F2</f>
         <v>F2</v>
       </c>
-      <c r="C39" s="1" t="str">
+      <c r="C42" s="1" t="str">
         <f>G2</f>
         <v>G2</v>
       </c>
-      <c r="D39" s="1" t="str">
+      <c r="D42" s="1" t="str">
         <f>H2</f>
         <v>H2</v>
       </c>
-      <c r="E39" s="1" t="str">
+      <c r="E42" s="1" t="str">
         <f>I2</f>
         <v>I2</v>
       </c>
-      <c r="F39" s="1" t="str">
+      <c r="F42" s="1" t="str">
         <f>F3</f>
         <v>F3</v>
       </c>
-      <c r="G39" s="1" t="str">
+      <c r="G42" s="1" t="str">
         <f>G3</f>
         <v>G3</v>
       </c>
-      <c r="H39" s="1" t="str">
+      <c r="H42" s="1" t="str">
         <f>H3</f>
         <v>H3</v>
       </c>
-      <c r="I39" s="1" t="str">
+      <c r="I42" s="1" t="str">
         <f>I3</f>
         <v>I3</v>
       </c>
-      <c r="J39" s="1" t="str">
+      <c r="J42" s="1" t="str">
         <f>F4</f>
         <v>F4</v>
       </c>
-      <c r="K39" s="1" t="str">
+      <c r="K42" s="1" t="str">
         <f>G4</f>
         <v>G4</v>
       </c>
-      <c r="L39" s="1" t="str">
+      <c r="L42" s="1" t="str">
         <f>H4</f>
         <v>H4</v>
       </c>
-      <c r="M39" s="1" t="str">
+      <c r="M42" s="1" t="str">
         <f>I4</f>
         <v>I4</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" s="1" t="str">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1" t="str">
         <f>F5</f>
         <v>F5</v>
       </c>
-      <c r="C40" s="1" t="str">
+      <c r="C43" s="1" t="str">
         <f>G5</f>
         <v>G5</v>
       </c>
-      <c r="D40" s="1" t="str">
+      <c r="D43" s="1" t="str">
         <f>H5</f>
         <v>H5</v>
       </c>
-      <c r="E40" s="1" t="str">
+      <c r="E43" s="1" t="str">
         <f>I5</f>
         <v>I5</v>
       </c>
-      <c r="F40" s="1" t="str">
+      <c r="F43" s="1" t="str">
         <f>F6</f>
         <v>F6</v>
       </c>
-      <c r="G40" s="1" t="str">
+      <c r="G43" s="1" t="str">
         <f>G6</f>
         <v>G6</v>
       </c>
-      <c r="H40" s="1" t="str">
+      <c r="H43" s="1" t="str">
         <f>H6</f>
         <v>H6</v>
       </c>
-      <c r="I40" s="1" t="str">
+      <c r="I43" s="1" t="str">
         <f>I6</f>
         <v>I6</v>
       </c>
-      <c r="J40" s="1" t="str">
+      <c r="J43" s="1" t="str">
         <f>F7</f>
         <v>F7</v>
       </c>
-      <c r="K40" s="1" t="str">
+      <c r="K43" s="1" t="str">
         <f>G7</f>
         <v>G7</v>
       </c>
-      <c r="L40" s="1" t="str">
+      <c r="L43" s="1" t="str">
         <f>H7</f>
         <v>H7</v>
       </c>
-      <c r="M40" s="1" t="str">
+      <c r="M43" s="1" t="str">
         <f>I7</f>
         <v>I7</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" s="1" t="str">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1" t="str">
         <f>F8</f>
         <v>F8</v>
       </c>
-      <c r="C41" s="1" t="str">
+      <c r="C44" s="1" t="str">
         <f>G8</f>
         <v>G8</v>
       </c>
-      <c r="D41" s="1" t="str">
+      <c r="D44" s="1" t="str">
         <f>H8</f>
         <v>H8</v>
       </c>
-      <c r="E41" s="1" t="str">
+      <c r="E44" s="1" t="str">
         <f>I8</f>
         <v>I8</v>
       </c>
-      <c r="F41" s="1" t="str">
+      <c r="F44" s="1" t="str">
         <f>F9</f>
         <v>F9</v>
       </c>
-      <c r="G41" s="1" t="str">
+      <c r="G44" s="1" t="str">
         <f>G9</f>
         <v>G9</v>
       </c>
-      <c r="H41" s="1" t="str">
+      <c r="H44" s="1" t="str">
         <f>H9</f>
         <v>H9</v>
       </c>
-      <c r="I41" s="1" t="str">
+      <c r="I44" s="1" t="str">
         <f>I9</f>
         <v>I9</v>
       </c>
-      <c r="J41" s="1" t="str">
+      <c r="J44" s="1" t="str">
         <f>F10</f>
         <v>F10</v>
       </c>
-      <c r="K41" s="1" t="str">
+      <c r="K44" s="1" t="str">
         <f>G10</f>
         <v>G10</v>
       </c>
-      <c r="L41" s="1" t="str">
+      <c r="L44" s="1" t="str">
         <f>H10</f>
         <v>H10</v>
       </c>
-      <c r="M41" s="1" t="str">
+      <c r="M44" s="1" t="str">
         <f>I10</f>
         <v>I10</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" s="1" t="str">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1" t="str">
         <f>F11</f>
         <v>F11</v>
       </c>
-      <c r="C42" s="1" t="str">
+      <c r="C45" s="1" t="str">
         <f>G11</f>
         <v>G11</v>
       </c>
-      <c r="D42" s="1" t="str">
+      <c r="D45" s="1" t="str">
         <f>H11</f>
         <v>H11</v>
       </c>
-      <c r="E42" s="1" t="str">
+      <c r="E45" s="1" t="str">
         <f>I11</f>
         <v>I11</v>
       </c>
-      <c r="F42" s="1" t="str">
+      <c r="F45" s="1" t="str">
         <f>F12</f>
         <v>F12</v>
       </c>
-      <c r="G42" s="1" t="str">
+      <c r="G45" s="1" t="str">
         <f>G12</f>
         <v>G12</v>
       </c>
-      <c r="H42" s="1" t="str">
+      <c r="H45" s="1" t="str">
         <f>H12</f>
         <v>H12</v>
       </c>
-      <c r="I42" s="1" t="str">
+      <c r="I45" s="1" t="str">
         <f>I12</f>
         <v>I12</v>
       </c>
-      <c r="J42" s="1" t="str">
+      <c r="J45" s="1" t="str">
         <f>F13</f>
         <v>F13</v>
       </c>
-      <c r="K42" s="1" t="str">
+      <c r="K45" s="1" t="str">
         <f>G13</f>
         <v>G13</v>
       </c>
-      <c r="L42" s="1" t="str">
+      <c r="L45" s="1" t="str">
         <f>H13</f>
         <v>H13</v>
       </c>
-      <c r="M42" s="1" t="str">
+      <c r="M45" s="1" t="str">
         <f>I13</f>
         <v>I13</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="1" t="str">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1" t="str">
         <f>J2</f>
         <v>J2</v>
       </c>
-      <c r="C43" s="1" t="str">
+      <c r="C46" s="1" t="str">
         <f>K2</f>
         <v>K2</v>
       </c>
-      <c r="D43" s="1" t="str">
+      <c r="D46" s="1" t="str">
         <f>L2</f>
         <v>L2</v>
       </c>
-      <c r="E43" s="1" t="str">
+      <c r="E46" s="1" t="str">
         <f>M2</f>
         <v>M2</v>
       </c>
-      <c r="F43" s="1" t="str">
+      <c r="F46" s="1" t="str">
         <f>J3</f>
         <v>J3</v>
       </c>
-      <c r="G43" s="1" t="str">
+      <c r="G46" s="1" t="str">
         <f>K3</f>
         <v>K3</v>
       </c>
-      <c r="H43" s="1" t="str">
+      <c r="H46" s="1" t="str">
         <f>L3</f>
         <v>L3</v>
       </c>
-      <c r="I43" s="1" t="str">
+      <c r="I46" s="1" t="str">
         <f>M3</f>
         <v>M3</v>
       </c>
-      <c r="J43" s="1" t="str">
+      <c r="J46" s="1" t="str">
         <f>J4</f>
         <v>J4</v>
       </c>
-      <c r="K43" s="1" t="str">
+      <c r="K46" s="1" t="str">
         <f>K4</f>
         <v>K4</v>
       </c>
-      <c r="L43" s="1" t="str">
+      <c r="L46" s="1" t="str">
         <f>L4</f>
         <v>L4</v>
       </c>
-      <c r="M43" s="1" t="str">
+      <c r="M46" s="1" t="str">
         <f>M4</f>
         <v>M4</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44" s="1" t="str">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1" t="str">
         <f>J5</f>
         <v>J5</v>
       </c>
-      <c r="C44" s="1" t="str">
+      <c r="C47" s="1" t="str">
         <f>K5</f>
         <v>K5</v>
       </c>
-      <c r="D44" s="1" t="str">
+      <c r="D47" s="1" t="str">
         <f>L5</f>
         <v>L5</v>
       </c>
-      <c r="E44" s="1" t="str">
+      <c r="E47" s="1" t="str">
         <f>M5</f>
         <v>M5</v>
       </c>
-      <c r="F44" s="1" t="str">
+      <c r="F47" s="1" t="str">
         <f>J6</f>
         <v>J6</v>
       </c>
-      <c r="G44" s="1" t="str">
+      <c r="G47" s="1" t="str">
         <f>K6</f>
         <v>K6</v>
       </c>
-      <c r="H44" s="1" t="str">
+      <c r="H47" s="1" t="str">
         <f>L6</f>
         <v>L6</v>
       </c>
-      <c r="I44" s="1" t="str">
+      <c r="I47" s="1" t="str">
         <f>M6</f>
         <v>M6</v>
       </c>
-      <c r="J44" s="1" t="str">
+      <c r="J47" s="1" t="str">
         <f>J7</f>
         <v>J7</v>
       </c>
-      <c r="K44" s="1" t="str">
+      <c r="K47" s="1" t="str">
         <f>K7</f>
         <v>K7</v>
       </c>
-      <c r="L44" s="1" t="str">
+      <c r="L47" s="1" t="str">
         <f>L7</f>
         <v>L7</v>
       </c>
-      <c r="M44" s="1" t="str">
+      <c r="M47" s="1" t="str">
         <f>M7</f>
         <v>M7</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45" s="1" t="str">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="1" t="str">
         <f>J8</f>
         <v>J8</v>
       </c>
-      <c r="C45" s="1" t="str">
+      <c r="C48" s="1" t="str">
         <f>K8</f>
         <v>K8</v>
       </c>
-      <c r="D45" s="1" t="str">
+      <c r="D48" s="1" t="str">
         <f>L8</f>
         <v>L8</v>
       </c>
-      <c r="E45" s="1" t="str">
+      <c r="E48" s="1" t="str">
         <f>M8</f>
         <v>M8</v>
       </c>
-      <c r="F45" s="1" t="str">
+      <c r="F48" s="1" t="str">
         <f>J9</f>
         <v>J9</v>
       </c>
-      <c r="G45" s="1" t="str">
+      <c r="G48" s="1" t="str">
         <f>K9</f>
         <v>K9</v>
       </c>
-      <c r="H45" s="1" t="str">
+      <c r="H48" s="1" t="str">
         <f>L9</f>
         <v>L9</v>
       </c>
-      <c r="I45" s="1" t="str">
+      <c r="I48" s="1" t="str">
         <f>M9</f>
         <v>M9</v>
       </c>
-      <c r="J45" s="1" t="str">
+      <c r="J48" s="1" t="str">
         <f>J10</f>
         <v>J10</v>
       </c>
-      <c r="K45" s="1" t="str">
+      <c r="K48" s="1" t="str">
         <f>K10</f>
         <v>K10</v>
       </c>
-      <c r="L45" s="1" t="str">
+      <c r="L48" s="1" t="str">
         <f>L10</f>
         <v>L10</v>
       </c>
-      <c r="M45" s="1" t="str">
+      <c r="M48" s="1" t="str">
         <f>M10</f>
         <v>M10</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="1" t="str">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="1" t="str">
         <f>J11</f>
         <v>J11</v>
       </c>
-      <c r="C46" s="1" t="str">
+      <c r="C49" s="1" t="str">
         <f>K11</f>
         <v>K11</v>
       </c>
-      <c r="D46" s="1" t="str">
+      <c r="D49" s="1" t="str">
         <f>L11</f>
         <v>L11</v>
       </c>
-      <c r="E46" s="1" t="str">
+      <c r="E49" s="1" t="str">
         <f>M11</f>
         <v>M11</v>
       </c>
-      <c r="F46" s="1" t="str">
+      <c r="F49" s="1" t="str">
         <f>J12</f>
         <v>J12</v>
       </c>
-      <c r="G46" s="1" t="str">
+      <c r="G49" s="1" t="str">
         <f>K12</f>
         <v>K12</v>
       </c>
-      <c r="H46" s="1" t="str">
+      <c r="H49" s="1" t="str">
         <f>L12</f>
         <v>L12</v>
       </c>
-      <c r="I46" s="1" t="str">
+      <c r="I49" s="1" t="str">
         <f>M12</f>
         <v>M12</v>
       </c>
-      <c r="J46" s="1" t="str">
+      <c r="J49" s="1" t="str">
         <f>J13</f>
         <v>J13</v>
       </c>
-      <c r="K46" s="1" t="str">
+      <c r="K49" s="1" t="str">
         <f>K13</f>
         <v>K13</v>
       </c>
-      <c r="L46" s="1" t="str">
+      <c r="L49" s="1" t="str">
         <f>L13</f>
         <v>L13</v>
       </c>
-      <c r="M46" s="1" t="str">
+      <c r="M49" s="1" t="str">
         <f>M13</f>
         <v>M13</v>
       </c>
@@ -36828,7 +36987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B433D4F7-E615-6D4F-8768-8F6E818087CD}">
   <dimension ref="A1:AH230"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A223" sqref="A223:XFD223"/>
     </sheetView>
   </sheetViews>

--- a/numbers/template.xlsx
+++ b/numbers/template.xlsx
@@ -3,19 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{244021C7-7680-C748-A18B-1FA6C6467437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{03405397-603E-FF43-9127-5C845A5E198B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="3x3" sheetId="2" r:id="rId1"/>
-    <sheet name="3x4" sheetId="12" r:id="rId2"/>
-    <sheet name="4x4" sheetId="11" r:id="rId3"/>
-    <sheet name="5x5" sheetId="24" r:id="rId4"/>
-    <sheet name="3x3x3" sheetId="22" r:id="rId5"/>
-    <sheet name="3x3x4" sheetId="15" r:id="rId6"/>
-    <sheet name="3x3x5" sheetId="18" r:id="rId7"/>
-    <sheet name="3x3x8" sheetId="23" r:id="rId8"/>
+    <sheet name="version" sheetId="25" r:id="rId1"/>
+    <sheet name="3x3" sheetId="2" r:id="rId2"/>
+    <sheet name="3x4" sheetId="12" r:id="rId3"/>
+    <sheet name="4x4" sheetId="11" r:id="rId4"/>
+    <sheet name="5x5" sheetId="24" r:id="rId5"/>
+    <sheet name="3x3x3" sheetId="22" r:id="rId6"/>
+    <sheet name="3x3x4" sheetId="15" r:id="rId7"/>
+    <sheet name="3x3x5" sheetId="18" r:id="rId8"/>
+    <sheet name="3x3x8" sheetId="23" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3426" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3429" uniqueCount="781">
   <si>
     <t>T</t>
   </si>
@@ -2369,6 +2370,15 @@
   </si>
   <si>
     <t>AH22</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>新規作成</t>
   </si>
 </sst>
 </file>
@@ -2554,7 +2564,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2619,6 +2629,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2934,11 +2947,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE41A3B-F45E-134D-9021-37AAA8EF9585}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.15234375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2" s="22">
+        <v>45286</v>
+      </c>
+      <c r="C2" t="s">
+        <v>780</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAFA817-EC99-6C46-9F70-A3B111FC0BA5}">
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4357,11 +4404,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F735F4-EEBF-2E48-8A18-F13F826D99ED}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -6786,7 +6833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793BA828-2145-7849-A5D3-4C70578DADCC}">
   <dimension ref="A1:Q73"/>
   <sheetViews>
@@ -10999,7 +11046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E713AC-26CA-564C-858F-FFB4808EF383}">
   <dimension ref="A1:Z119"/>
   <sheetViews>
@@ -20939,7 +20986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22188AAF-0828-5640-A1B1-5B5F1D7DC658}">
   <dimension ref="A1:P101"/>
   <sheetViews>
@@ -25005,7 +25052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A946942D-41DB-9345-9E20-F456D170F89C}">
   <dimension ref="A1:V126"/>
   <sheetViews>
@@ -30353,7 +30400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49FF5DC-A738-9143-A7EF-1B655C169FA6}">
   <dimension ref="A1:V153"/>
   <sheetViews>
@@ -36983,7 +37030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B433D4F7-E615-6D4F-8768-8F6E818087CD}">
   <dimension ref="A1:AH230"/>
   <sheetViews>
